--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_06_10_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A5ED8D-472F-44F3-8DCA-D9945534D1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD510C8-3177-4B1F-B59B-33380566A572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -937,11 +937,6 @@
     <t>Exports</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionToday,
--pheading</t>
-  </si>
-  <si>
     <t>Verify Exports Selected Today Transaction</t>
   </si>
   <si>
@@ -955,11 +950,6 @@
   </si>
   <si>
     <t>Verify Exports Selected LastMonth Transaction</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionYesterday,
--pheading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -1819,9 +1809,6 @@
   </si>
   <si>
     <t>Verify Without Generate Printable QR Code</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -2309,6 +2296,21 @@
 testWithdrawToUSDDeleteSignetAccount,
 -psignetNumber
 </t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testExportSelectedTransactionToday,
+-pheading,
+-pnotificationText</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testExportSelectedTransactionYesterday,
+-pheading,
+-pnotificationText</t>
   </si>
 </sst>
 </file>
@@ -2823,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2921,7 +2923,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -2948,12 +2950,12 @@
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -2974,12 +2976,12 @@
         <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
@@ -2997,15 +2999,15 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -3026,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
@@ -3052,7 +3054,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -3118,7 +3120,7 @@
     </row>
     <row r="11" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
@@ -3139,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -3168,7 +3170,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
@@ -3205,7 +3207,7 @@
     </row>
     <row r="14" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
@@ -3226,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
@@ -3290,7 +3292,7 @@
     </row>
     <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -3311,7 +3313,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -3449,7 +3451,7 @@
     </row>
     <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -3470,7 +3472,7 @@
         <v>59</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
@@ -3522,7 +3524,7 @@
         <v>25</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>81</v>
@@ -3551,7 +3553,7 @@
         <v>25</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>93</v>
@@ -3580,7 +3582,7 @@
         <v>141</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>142</v>
@@ -3609,7 +3611,7 @@
         <v>121</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>143</v>
@@ -3638,7 +3640,7 @@
         <v>145</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>146</v>
@@ -3652,7 +3654,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>27</v>
@@ -3664,13 +3666,13 @@
         <v>11</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J30" s="6"/>
     </row>
@@ -3682,7 +3684,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>27</v>
@@ -3694,13 +3696,13 @@
         <v>11</v>
       </c>
       <c r="G31" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="J31" s="6"/>
     </row>
@@ -3712,7 +3714,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>27</v>
@@ -3724,13 +3726,13 @@
         <v>11</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -3742,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>10</v>
@@ -3754,55 +3756,55 @@
         <v>19</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>242</v>
       </c>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>27</v>
@@ -3814,19 +3816,19 @@
         <v>11</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>26</v>
@@ -3847,10 +3849,10 @@
         <v>116</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J36" s="6"/>
     </row>
@@ -3877,7 +3879,7 @@
         <v>148</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>149</v>
@@ -3906,7 +3908,7 @@
         <v>150</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>172</v>
@@ -3935,7 +3937,7 @@
         <v>153</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>173</v>
@@ -3964,7 +3966,7 @@
         <v>158</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>171</v>
@@ -3993,7 +3995,7 @@
         <v>159</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>174</v>
@@ -4022,7 +4024,7 @@
         <v>155</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>170</v>
@@ -4051,7 +4053,7 @@
         <v>161</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>169</v>
@@ -4059,7 +4061,7 @@
     </row>
     <row r="44" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>26</v>
@@ -4077,13 +4079,13 @@
         <v>11</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4109,7 +4111,7 @@
         <v>163</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>164</v>
@@ -4138,7 +4140,7 @@
         <v>150</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>168</v>
@@ -4167,7 +4169,7 @@
         <v>158</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>167</v>
@@ -4196,7 +4198,7 @@
         <v>155</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>177</v>
@@ -4225,7 +4227,7 @@
         <v>153</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>178</v>
@@ -4254,7 +4256,7 @@
         <v>159</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>180</v>
@@ -4283,7 +4285,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>182</v>
@@ -4312,10 +4314,10 @@
         <v>192</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4341,21 +4343,21 @@
         <v>28</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>27</v>
@@ -4367,13 +4369,13 @@
         <v>11</v>
       </c>
       <c r="G54" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>246</v>
       </c>
       <c r="J54" s="6"/>
     </row>
@@ -4400,10 +4402,10 @@
         <v>185</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4429,10 +4431,10 @@
         <v>184</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4458,10 +4460,10 @@
         <v>187</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4487,7 +4489,7 @@
         <v>189</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>190</v>
@@ -4495,7 +4497,7 @@
     </row>
     <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>26</v>
@@ -4516,15 +4518,15 @@
         <v>189</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>26</v>
@@ -4545,10 +4547,10 @@
         <v>189</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4574,7 +4576,7 @@
         <v>193</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>202</v>
@@ -4603,7 +4605,7 @@
         <v>193</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>201</v>
@@ -4611,7 +4613,7 @@
     </row>
     <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>26</v>
@@ -4632,10 +4634,10 @@
         <v>193</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4661,7 +4663,7 @@
         <v>193</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I64" s="14" t="s">
         <v>199</v>
@@ -4690,7 +4692,7 @@
         <v>193</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I65" s="14" t="s">
         <v>198</v>
@@ -4698,7 +4700,7 @@
     </row>
     <row r="66" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>26</v>
@@ -4719,15 +4721,15 @@
         <v>193</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>26</v>
@@ -4748,15 +4750,15 @@
         <v>193</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>26</v>
@@ -4777,15 +4779,15 @@
         <v>193</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>26</v>
@@ -4806,15 +4808,15 @@
         <v>193</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>26</v>
@@ -4835,15 +4837,15 @@
         <v>193</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>26</v>
@@ -4864,10 +4866,10 @@
         <v>193</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="144" x14ac:dyDescent="0.3">
@@ -4893,7 +4895,7 @@
         <v>193</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>212</v>
@@ -4922,10 +4924,10 @@
         <v>101</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -4951,10 +4953,10 @@
         <v>109</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -4980,10 +4982,10 @@
         <v>105</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
@@ -5009,10 +5011,10 @@
         <v>107</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
@@ -5038,15 +5040,15 @@
         <v>103</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>26</v>
@@ -5067,10 +5069,10 @@
         <v>112</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
@@ -5096,10 +5098,10 @@
         <v>111</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
@@ -5119,16 +5121,16 @@
         <v>11</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
@@ -5154,7 +5156,7 @@
         <v>126</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>214</v>
@@ -5183,7 +5185,7 @@
         <v>34</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I82" s="14" t="s">
         <v>123</v>
@@ -5192,10 +5194,10 @@
     </row>
     <row r="83" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>122</v>
@@ -5213,19 +5215,19 @@
         <v>215</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>216</v>
+        <v>437</v>
       </c>
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>122</v>
@@ -5243,16 +5245,16 @@
         <v>215</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>222</v>
+        <v>438</v>
       </c>
       <c r="J84" s="6"/>
     </row>
     <row r="85" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>26</v>
@@ -5273,16 +5275,16 @@
         <v>215</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>26</v>
@@ -5303,16 +5305,16 @@
         <v>215</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J86" s="6"/>
     </row>
     <row r="87" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>26</v>
@@ -5333,16 +5335,16 @@
         <v>215</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>26</v>
@@ -5360,19 +5362,19 @@
         <v>41</v>
       </c>
       <c r="G88" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I88" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>257</v>
       </c>
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>26</v>
@@ -5390,43 +5392,43 @@
         <v>41</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J89" s="6"/>
     </row>
     <row r="90" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="16" t="s">
+      <c r="H90" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I90" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="H90" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
@@ -5436,13 +5438,13 @@
     </row>
     <row r="91" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>27</v>
@@ -5454,13 +5456,13 @@
         <v>11</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
@@ -5470,13 +5472,13 @@
     </row>
     <row r="92" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>27</v>
@@ -5488,13 +5490,13 @@
         <v>11</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
@@ -5510,7 +5512,7 @@
         <v>26</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>27</v>
@@ -5525,10 +5527,10 @@
         <v>57</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
@@ -5559,7 +5561,7 @@
         <v>206</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I94" s="14" t="s">
         <v>207</v>
@@ -5588,7 +5590,7 @@
         <v>206</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I95" s="14" t="s">
         <v>210</v>
@@ -5617,7 +5619,7 @@
         <v>206</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I96" s="14" t="s">
         <v>208</v>
@@ -5625,7 +5627,7 @@
     </row>
     <row r="97" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>26</v>
@@ -5646,16 +5648,16 @@
         <v>126</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J97" s="6"/>
     </row>
     <row r="98" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>26</v>
@@ -5676,15 +5678,15 @@
         <v>64</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>26</v>
@@ -5705,15 +5707,15 @@
         <v>64</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>26</v>
@@ -5734,15 +5736,15 @@
         <v>64</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>26</v>
@@ -5763,10 +5765,10 @@
         <v>64</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -5792,10 +5794,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -5821,10 +5823,10 @@
         <v>64</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -5850,15 +5852,15 @@
         <v>64</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>26</v>
@@ -5879,15 +5881,15 @@
         <v>64</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>26</v>
@@ -5908,15 +5910,15 @@
         <v>64</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A107" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>26</v>
@@ -5937,10 +5939,10 @@
         <v>64</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -5966,15 +5968,15 @@
         <v>64</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>26</v>
@@ -5995,10 +5997,10 @@
         <v>64</v>
       </c>
       <c r="H109" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -6024,7 +6026,7 @@
         <v>126</v>
       </c>
       <c r="H110" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>137</v>
@@ -6053,7 +6055,7 @@
         <v>126</v>
       </c>
       <c r="H111" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>127</v>
@@ -6061,7 +6063,7 @@
     </row>
     <row r="112" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>26</v>
@@ -6082,15 +6084,15 @@
         <v>126</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>26</v>
@@ -6108,18 +6110,18 @@
         <v>11</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I113" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="H113" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>26</v>
@@ -6137,21 +6139,21 @@
         <v>11</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>97</v>
@@ -6166,18 +6168,18 @@
         <v>11</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>26</v>
@@ -6195,18 +6197,18 @@
         <v>11</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>26</v>
@@ -6224,18 +6226,18 @@
         <v>11</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H117" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>26</v>
@@ -6253,13 +6255,13 @@
         <v>11</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H118" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -6285,7 +6287,7 @@
         <v>130</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>131</v>
@@ -6314,7 +6316,7 @@
         <v>130</v>
       </c>
       <c r="H120" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>133</v>
@@ -6322,7 +6324,7 @@
     </row>
     <row r="121" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>26</v>
@@ -6343,15 +6345,15 @@
         <v>126</v>
       </c>
       <c r="H121" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>26</v>
@@ -6372,10 +6374,10 @@
         <v>126</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -6401,7 +6403,7 @@
         <v>135</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>203</v>
@@ -6431,7 +6433,7 @@
         <v>30</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>204</v>
@@ -6461,7 +6463,7 @@
         <v>32</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>205</v>
@@ -6470,7 +6472,7 @@
     </row>
     <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>26</v>
@@ -6488,19 +6490,19 @@
         <v>11</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>26</v>
@@ -6518,19 +6520,19 @@
         <v>11</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>26</v>
@@ -6548,19 +6550,19 @@
         <v>11</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H128" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>26</v>
@@ -6578,19 +6580,19 @@
         <v>11</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H129" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>26</v>
@@ -6608,19 +6610,19 @@
         <v>11</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H130" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J130" s="6"/>
     </row>
     <row r="131" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>26</v>
@@ -6638,19 +6640,19 @@
         <v>11</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H131" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>26</v>
@@ -6668,19 +6670,19 @@
         <v>11</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>26</v>
@@ -6698,19 +6700,19 @@
         <v>11</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H133" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J133" s="6"/>
     </row>
     <row r="134" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>26</v>
@@ -6728,25 +6730,25 @@
         <v>11</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J134" s="6"/>
     </row>
     <row r="135" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>27</v>
@@ -6758,13 +6760,13 @@
         <v>11</v>
       </c>
       <c r="G135" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I135" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="H135" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>246</v>
       </c>
       <c r="J135" s="6"/>
     </row>
@@ -6776,7 +6778,7 @@
         <v>26</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>27</v>
@@ -6788,25 +6790,25 @@
         <v>11</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J136" s="6"/>
     </row>
     <row r="137" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>10</v>
@@ -6818,25 +6820,25 @@
         <v>41</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H137" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J137" s="6"/>
     </row>
     <row r="138" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>10</v>
@@ -6848,25 +6850,25 @@
         <v>41</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J138" s="6"/>
     </row>
     <row r="139" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A139" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>27</v>
@@ -6878,25 +6880,25 @@
         <v>11</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H139" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J139" s="6"/>
     </row>
     <row r="140" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>27</v>
@@ -6908,25 +6910,25 @@
         <v>11</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H140" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J140" s="6"/>
     </row>
     <row r="141" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A141" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>27</v>
@@ -6938,25 +6940,25 @@
         <v>11</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J141" s="6"/>
     </row>
     <row r="142" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A142" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>27</v>
@@ -6968,55 +6970,55 @@
         <v>11</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J142" s="6"/>
     </row>
     <row r="143" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A143" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H143" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I143" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E143" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="H143" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>250</v>
       </c>
       <c r="J143" s="6"/>
     </row>
     <row r="144" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A144" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>27</v>
@@ -7028,25 +7030,25 @@
         <v>11</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A145" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>27</v>
@@ -7058,25 +7060,25 @@
         <v>11</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J145" s="6"/>
     </row>
     <row r="146" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>27</v>
@@ -7088,19 +7090,19 @@
         <v>11</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I146" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J146" s="6"/>
     </row>
     <row r="147" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>26</v>
@@ -7121,10 +7123,10 @@
         <v>25</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -7133,7 +7135,7 @@
     </row>
     <row r="148" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>26</v>
@@ -7154,10 +7156,10 @@
         <v>25</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
@@ -7166,7 +7168,7 @@
     </row>
     <row r="149" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>26</v>
@@ -7187,10 +7189,10 @@
         <v>25</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
@@ -7199,7 +7201,7 @@
     </row>
     <row r="150" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>26</v>
@@ -7220,10 +7222,10 @@
         <v>25</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I150" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
@@ -7232,7 +7234,7 @@
     </row>
     <row r="151" spans="1:13" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>26</v>
@@ -7253,10 +7255,10 @@
         <v>25</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I151" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
@@ -7265,7 +7267,7 @@
     </row>
     <row r="152" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>26</v>
@@ -7283,13 +7285,13 @@
         <v>11</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I152" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J152" s="24"/>
       <c r="K152" s="24"/>
@@ -7298,13 +7300,13 @@
     </row>
     <row r="153" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D153" s="26" t="s">
         <v>27</v>
@@ -7316,13 +7318,13 @@
         <v>11</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I153" s="37" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J153" s="24"/>
       <c r="K153" s="24"/>
@@ -7331,13 +7333,13 @@
     </row>
     <row r="154" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D154" s="26" t="s">
         <v>27</v>
@@ -7352,10 +7354,10 @@
         <v>105</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I154" s="37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J154" s="24"/>
       <c r="K154" s="24"/>
@@ -7364,13 +7366,13 @@
     </row>
     <row r="155" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D155" s="26" t="s">
         <v>27</v>
@@ -7382,13 +7384,13 @@
         <v>11</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H155" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I155" s="37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J155" s="24"/>
       <c r="K155" s="24"/>
@@ -7397,13 +7399,13 @@
     </row>
     <row r="156" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>10</v>
@@ -7415,13 +7417,13 @@
         <v>19</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H156" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J156" s="24"/>
       <c r="K156" s="24"/>
@@ -7430,31 +7432,31 @@
     </row>
     <row r="157" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>354</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" s="26" t="s">
-        <v>358</v>
-      </c>
       <c r="H157" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J157" s="24"/>
       <c r="K157" s="24"/>
@@ -7463,31 +7465,31 @@
     </row>
     <row r="158" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>353</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158" s="16" t="s">
+      <c r="D158" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="H158" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I158" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E158" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H158" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I158" s="37" t="s">
-        <v>359</v>
       </c>
       <c r="J158" s="24"/>
       <c r="K158" s="24"/>
@@ -7496,13 +7498,13 @@
     </row>
     <row r="159" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D159" s="26" t="s">
         <v>27</v>
@@ -7514,13 +7516,13 @@
         <v>11</v>
       </c>
       <c r="G159" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="H159" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="I159" s="37" t="s">
         <v>358</v>
-      </c>
-      <c r="H159" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="I159" s="37" t="s">
-        <v>360</v>
       </c>
       <c r="J159" s="24"/>
       <c r="K159" s="24"/>
@@ -7529,13 +7531,13 @@
     </row>
     <row r="160" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>10</v>
@@ -7547,13 +7549,13 @@
         <v>19</v>
       </c>
       <c r="G160" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J160" s="24"/>
       <c r="K160" s="24"/>
@@ -7568,7 +7570,7 @@
         <v>26</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>27</v>
@@ -7583,10 +7585,10 @@
         <v>43</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I161" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -7601,7 +7603,7 @@
         <v>26</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>27</v>
@@ -7616,10 +7618,10 @@
         <v>43</v>
       </c>
       <c r="H162" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
@@ -7634,7 +7636,7 @@
         <v>26</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>10</v>
@@ -7643,16 +7645,16 @@
         <v>11</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
@@ -7667,7 +7669,7 @@
         <v>26</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>10</v>
@@ -7676,16 +7678,16 @@
         <v>11</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H164" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
@@ -7700,7 +7702,7 @@
         <v>26</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>27</v>
@@ -7715,10 +7717,10 @@
         <v>48</v>
       </c>
       <c r="H165" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I165" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
@@ -7729,7 +7731,7 @@
         <v>26</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>27</v>
@@ -7744,10 +7746,10 @@
         <v>48</v>
       </c>
       <c r="H166" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7758,7 +7760,7 @@
         <v>26</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>10</v>
@@ -7773,10 +7775,10 @@
         <v>69</v>
       </c>
       <c r="H167" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7787,7 +7789,7 @@
         <v>26</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>10</v>
@@ -7802,10 +7804,10 @@
         <v>48</v>
       </c>
       <c r="H168" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
@@ -7816,7 +7818,7 @@
         <v>26</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>10</v>
@@ -7831,10 +7833,10 @@
         <v>48</v>
       </c>
       <c r="H169" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
@@ -7849,7 +7851,7 @@
         <v>26</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>27</v>
@@ -7864,10 +7866,10 @@
         <v>48</v>
       </c>
       <c r="H170" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I170" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
@@ -7882,7 +7884,7 @@
         <v>26</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>27</v>
@@ -7897,10 +7899,10 @@
         <v>48</v>
       </c>
       <c r="H171" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I171" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_06_10_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD510C8-3177-4B1F-B59B-33380566A572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EBD663-CF5A-4477-89D8-5563BE33E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -2099,6 +2099,153 @@
 -pconfirmRoutingNumber,
 -paccountNumber,
 -pconfirmAccountNumber</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testBuyTokenAddBank,
+-proutingNumber,
+-pconfirmRoutingNumber,
+-paccountNumber,
+-pconfirmAccountNumber</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDRemoveExternalBankAccount,
+-pheading,
+-pnumber,
+-pexternalBankHeading,
+-pexternalBankDescription,
+-premovePaymentMethodHeading,
+-ppaymentMethodRemovedHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDAddExternalBankAccount,
+-pheading,
+-proutingNumber,
+-pconfirmRoutingNumber,
+-paccountNumber,
+-pconfirmAccountNumber</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDExternalBankAccountInvalidAmount,
+-pheading,
+-pexternalBankHeading,
+-pexternalBankDescription,
+-pnumber,
+-pamount,
+-perrMessage,
+-pmessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDGiftCardWithVisa,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pemail,
+-pamount,
+-porderHeading,
+-pauthyHeading1,
+-pcode,
+-psuccessHeading,
+-psearchKey1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDGiftCardWithAmazon,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pemail,
+-pemail1,
+-pamount,
+-porderHeading,
+-pauthyHeading1,
+-pcode,
+-psuccessHeading,
+-psearchKey</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDAmazonInvalidData,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pemail,
+-pamount,
+-pemail1,
+-psearchKey,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDVisaInvalidData,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pemail,
+-pamount,
+-pemail1,
+-psearchKey1,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLogin,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.GetHelpTest,
+testGetHelp,
+-pheading</t>
+  </si>
+  <si>
+    <t>Verify DBA Under Business Account</t>
+  </si>
+  <si>
+    <t>Verify DBA Account</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.SignupTest,
+testDBAUnderBusinessAccount,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.SignupTest,
+testDBAUnderBusiness,
+-pheading,
+-pdba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDDeleteSignetAccount,
+-psignetNumber
+</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testExportSelectedTransactionToday,
+-pheading,
+-pnotificationText</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testExportSelectedTransactionYesterday,
+-pheading,
+-pnotificationText</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantApplicationTest,
@@ -2156,6 +2303,7 @@
 -pid,
 -pfolderName,
 -pfileName,
+-pexpColor,
 -pheading,
 -pbankAccountName,
 -proutingNumber,
@@ -2164,153 +2312,6 @@
 -pconfirmAccountNumber,
 -pstartPageHeading,
 -psignature</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testBuyTokenAddBank,
--proutingNumber,
--pconfirmRoutingNumber,
--paccountNumber,
--pconfirmAccountNumber</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDRemoveExternalBankAccount,
--pheading,
--pnumber,
--pexternalBankHeading,
--pexternalBankDescription,
--premovePaymentMethodHeading,
--ppaymentMethodRemovedHeading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDAddExternalBankAccount,
--pheading,
--proutingNumber,
--pconfirmRoutingNumber,
--paccountNumber,
--pconfirmAccountNumber</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDExternalBankAccountInvalidAmount,
--pheading,
--pexternalBankHeading,
--pexternalBankDescription,
--pnumber,
--pamount,
--perrMessage,
--pmessage</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDGiftCardWithVisa,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pamount,
--porderHeading,
--pauthyHeading1,
--pcode,
--psuccessHeading,
--psearchKey1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDGiftCardWithAmazon,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pemail1,
--pamount,
--porderHeading,
--pauthyHeading1,
--pcode,
--psuccessHeading,
--psearchKey</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDAmazonInvalidData,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pamount,
--pemail1,
--psearchKey,
--perrMessage</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDVisaInvalidData,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pamount,
--pemail1,
--psearchKey1,
--perrMessage</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLogin,
--ploginHeading,
--pemail,
--ppassword,
--pauthyHeading,
--pcode,
--psecurityKey</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.GetHelpTest,
-testGetHelp,
--pheading</t>
-  </si>
-  <si>
-    <t>Verify DBA Under Business Account</t>
-  </si>
-  <si>
-    <t>Verify DBA Account</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.SignupTest,
-testDBAUnderBusinessAccount,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.SignupTest,
-testDBAUnderBusiness,
--pheading,
--pdba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDDeleteSignetAccount,
--psignetNumber
-</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionToday,
--pheading,
--pnotificationText</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionYesterday,
--pheading,
--pnotificationText</t>
   </si>
 </sst>
 </file>
@@ -2825,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3054,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -3524,7 +3525,7 @@
         <v>25</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>81</v>
@@ -3553,7 +3554,7 @@
         <v>25</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>93</v>
@@ -3582,7 +3583,7 @@
         <v>141</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>142</v>
@@ -3611,7 +3612,7 @@
         <v>121</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>143</v>
@@ -3640,7 +3641,7 @@
         <v>145</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>146</v>
@@ -3669,7 +3670,7 @@
         <v>233</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>234</v>
@@ -3699,7 +3700,7 @@
         <v>233</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>235</v>
@@ -3729,7 +3730,7 @@
         <v>233</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>236</v>
@@ -3759,7 +3760,7 @@
         <v>233</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>237</v>
@@ -3789,7 +3790,7 @@
         <v>233</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>240</v>
@@ -3819,7 +3820,7 @@
         <v>233</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>415</v>
@@ -3831,7 +3832,7 @@
         <v>408</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>115</v>
@@ -3849,10 +3850,10 @@
         <v>116</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="J36" s="6"/>
     </row>
@@ -3879,7 +3880,7 @@
         <v>148</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>149</v>
@@ -3908,7 +3909,7 @@
         <v>150</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>172</v>
@@ -3937,7 +3938,7 @@
         <v>153</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>173</v>
@@ -3966,7 +3967,7 @@
         <v>158</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>171</v>
@@ -3995,7 +3996,7 @@
         <v>159</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>174</v>
@@ -4024,7 +4025,7 @@
         <v>155</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>170</v>
@@ -4053,7 +4054,7 @@
         <v>161</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>169</v>
@@ -4082,7 +4083,7 @@
         <v>380</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>381</v>
@@ -4111,7 +4112,7 @@
         <v>163</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>164</v>
@@ -4140,7 +4141,7 @@
         <v>150</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>168</v>
@@ -4169,7 +4170,7 @@
         <v>158</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>167</v>
@@ -4198,7 +4199,7 @@
         <v>155</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>177</v>
@@ -4227,7 +4228,7 @@
         <v>153</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>178</v>
@@ -4256,7 +4257,7 @@
         <v>159</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>180</v>
@@ -4285,7 +4286,7 @@
         <v>161</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>182</v>
@@ -4314,7 +4315,7 @@
         <v>192</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>300</v>
@@ -4343,7 +4344,7 @@
         <v>28</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>301</v>
@@ -4372,7 +4373,7 @@
         <v>242</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>244</v>
@@ -4402,7 +4403,7 @@
         <v>185</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>302</v>
@@ -4431,7 +4432,7 @@
         <v>184</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>303</v>
@@ -4460,7 +4461,7 @@
         <v>187</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>304</v>
@@ -4489,7 +4490,7 @@
         <v>189</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>190</v>
@@ -4518,7 +4519,7 @@
         <v>189</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>374</v>
@@ -4547,7 +4548,7 @@
         <v>189</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I60" s="14" t="s">
         <v>383</v>
@@ -4576,7 +4577,7 @@
         <v>193</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>202</v>
@@ -4605,7 +4606,7 @@
         <v>193</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>201</v>
@@ -4634,7 +4635,7 @@
         <v>193</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>389</v>
@@ -4663,7 +4664,7 @@
         <v>193</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I64" s="14" t="s">
         <v>199</v>
@@ -4692,7 +4693,7 @@
         <v>193</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I65" s="14" t="s">
         <v>198</v>
@@ -4721,7 +4722,7 @@
         <v>193</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I66" s="14" t="s">
         <v>391</v>
@@ -4750,7 +4751,7 @@
         <v>193</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I67" s="14" t="s">
         <v>396</v>
@@ -4779,7 +4780,7 @@
         <v>193</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I68" s="14" t="s">
         <v>397</v>
@@ -4808,7 +4809,7 @@
         <v>193</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I69" s="14" t="s">
         <v>417</v>
@@ -4837,7 +4838,7 @@
         <v>193</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>405</v>
@@ -4866,7 +4867,7 @@
         <v>193</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>407</v>
@@ -4895,7 +4896,7 @@
         <v>193</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>212</v>
@@ -4924,7 +4925,7 @@
         <v>101</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>340</v>
@@ -4953,7 +4954,7 @@
         <v>109</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I74" s="20" t="s">
         <v>338</v>
@@ -4982,7 +4983,7 @@
         <v>105</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>418</v>
@@ -5011,7 +5012,7 @@
         <v>107</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>336</v>
@@ -5040,7 +5041,7 @@
         <v>103</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I77" s="23" t="s">
         <v>337</v>
@@ -5069,7 +5070,7 @@
         <v>112</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>335</v>
@@ -5098,7 +5099,7 @@
         <v>111</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>339</v>
@@ -5121,13 +5122,13 @@
         <v>11</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>376</v>
@@ -5156,7 +5157,7 @@
         <v>126</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>214</v>
@@ -5185,7 +5186,7 @@
         <v>34</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I82" s="14" t="s">
         <v>123</v>
@@ -5197,7 +5198,7 @@
         <v>216</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>122</v>
@@ -5215,10 +5216,10 @@
         <v>215</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J83" s="6"/>
     </row>
@@ -5227,7 +5228,7 @@
         <v>217</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>122</v>
@@ -5245,10 +5246,10 @@
         <v>215</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J84" s="6"/>
     </row>
@@ -5275,7 +5276,7 @@
         <v>215</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I85" s="14" t="s">
         <v>221</v>
@@ -5305,7 +5306,7 @@
         <v>215</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I86" s="14" t="s">
         <v>223</v>
@@ -5335,7 +5336,7 @@
         <v>215</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>222</v>
@@ -5365,7 +5366,7 @@
         <v>253</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I88" s="14" t="s">
         <v>255</v>
@@ -5395,7 +5396,7 @@
         <v>253</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I89" s="14" t="s">
         <v>256</v>
@@ -5425,7 +5426,7 @@
         <v>226</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I90" s="14" t="s">
         <v>227</v>
@@ -5459,7 +5460,7 @@
         <v>226</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I91" s="14" t="s">
         <v>229</v>
@@ -5493,7 +5494,7 @@
         <v>226</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I92" s="14" t="s">
         <v>231</v>
@@ -5527,10 +5528,10 @@
         <v>57</v>
       </c>
       <c r="H93" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="I93" s="14" t="s">
         <v>429</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>430</v>
       </c>
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
@@ -5561,7 +5562,7 @@
         <v>206</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I94" s="14" t="s">
         <v>207</v>
@@ -5590,7 +5591,7 @@
         <v>206</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I95" s="14" t="s">
         <v>210</v>
@@ -5619,7 +5620,7 @@
         <v>206</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I96" s="14" t="s">
         <v>208</v>
@@ -5648,7 +5649,7 @@
         <v>126</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I97" s="14" t="s">
         <v>306</v>
@@ -5678,7 +5679,7 @@
         <v>64</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I98" s="14" t="s">
         <v>260</v>
@@ -5707,7 +5708,7 @@
         <v>64</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I99" s="14" t="s">
         <v>262</v>
@@ -5736,7 +5737,7 @@
         <v>64</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I100" s="14" t="s">
         <v>264</v>
@@ -5765,7 +5766,7 @@
         <v>64</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I101" s="14" t="s">
         <v>266</v>
@@ -5794,7 +5795,7 @@
         <v>64</v>
       </c>
       <c r="H102" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>280</v>
@@ -5823,7 +5824,7 @@
         <v>64</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>307</v>
@@ -5852,7 +5853,7 @@
         <v>64</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>308</v>
@@ -5881,7 +5882,7 @@
         <v>64</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>362</v>
@@ -5910,7 +5911,7 @@
         <v>64</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I106" s="14" t="s">
         <v>309</v>
@@ -5939,7 +5940,7 @@
         <v>64</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>311</v>
@@ -5968,7 +5969,7 @@
         <v>64</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I108" s="14" t="s">
         <v>312</v>
@@ -5997,7 +5998,7 @@
         <v>64</v>
       </c>
       <c r="H109" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I109" s="14" t="s">
         <v>364</v>
@@ -6026,7 +6027,7 @@
         <v>126</v>
       </c>
       <c r="H110" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>137</v>
@@ -6055,7 +6056,7 @@
         <v>126</v>
       </c>
       <c r="H111" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>127</v>
@@ -6084,7 +6085,7 @@
         <v>126</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>402</v>
@@ -6113,7 +6114,7 @@
         <v>321</v>
       </c>
       <c r="H113" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I113" s="14" t="s">
         <v>323</v>
@@ -6142,7 +6143,7 @@
         <v>321</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I114" s="14" t="s">
         <v>325</v>
@@ -6153,7 +6154,7 @@
         <v>326</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>97</v>
@@ -6171,7 +6172,7 @@
         <v>321</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I115" s="14" t="s">
         <v>327</v>
@@ -6200,7 +6201,7 @@
         <v>321</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>329</v>
@@ -6208,7 +6209,7 @@
     </row>
     <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>26</v>
@@ -6229,15 +6230,15 @@
         <v>321</v>
       </c>
       <c r="H117" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>26</v>
@@ -6258,10 +6259,10 @@
         <v>321</v>
       </c>
       <c r="H118" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -6287,7 +6288,7 @@
         <v>130</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>131</v>
@@ -6316,7 +6317,7 @@
         <v>130</v>
       </c>
       <c r="H120" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>133</v>
@@ -6345,7 +6346,7 @@
         <v>126</v>
       </c>
       <c r="H121" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>345</v>
@@ -6374,7 +6375,7 @@
         <v>126</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>346</v>
@@ -6403,7 +6404,7 @@
         <v>135</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>203</v>
@@ -6433,7 +6434,7 @@
         <v>30</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>204</v>
@@ -6463,7 +6464,7 @@
         <v>32</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>205</v>
@@ -6493,7 +6494,7 @@
         <v>268</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>273</v>
@@ -6523,7 +6524,7 @@
         <v>268</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>274</v>
@@ -6553,7 +6554,7 @@
         <v>268</v>
       </c>
       <c r="H128" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>275</v>
@@ -6583,7 +6584,7 @@
         <v>268</v>
       </c>
       <c r="H129" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I129" s="14" t="s">
         <v>276</v>
@@ -6613,7 +6614,7 @@
         <v>268</v>
       </c>
       <c r="H130" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>277</v>
@@ -6643,7 +6644,7 @@
         <v>268</v>
       </c>
       <c r="H131" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>292</v>
@@ -6673,7 +6674,7 @@
         <v>268</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I132" s="14" t="s">
         <v>293</v>
@@ -6703,7 +6704,7 @@
         <v>268</v>
       </c>
       <c r="H133" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>296</v>
@@ -6733,7 +6734,7 @@
         <v>268</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>297</v>
@@ -6763,7 +6764,7 @@
         <v>242</v>
       </c>
       <c r="H135" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I135" s="14" t="s">
         <v>244</v>
@@ -6793,7 +6794,7 @@
         <v>242</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I136" s="14" t="s">
         <v>245</v>
@@ -6823,7 +6824,7 @@
         <v>242</v>
       </c>
       <c r="H137" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I137" s="14" t="s">
         <v>257</v>
@@ -6853,7 +6854,7 @@
         <v>242</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I138" s="14" t="s">
         <v>258</v>
@@ -6883,7 +6884,7 @@
         <v>242</v>
       </c>
       <c r="H139" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>279</v>
@@ -6913,7 +6914,7 @@
         <v>242</v>
       </c>
       <c r="H140" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I140" s="14" t="s">
         <v>287</v>
@@ -6943,7 +6944,7 @@
         <v>242</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>288</v>
@@ -6973,7 +6974,7 @@
         <v>242</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>289</v>
@@ -7003,7 +7004,7 @@
         <v>242</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>248</v>
@@ -7033,7 +7034,7 @@
         <v>242</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I144" s="14" t="s">
         <v>250</v>
@@ -7063,7 +7064,7 @@
         <v>242</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>414</v>
@@ -7093,7 +7094,7 @@
         <v>242</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I146" s="14" t="s">
         <v>360</v>
@@ -7123,7 +7124,7 @@
         <v>25</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>341</v>
@@ -7156,7 +7157,7 @@
         <v>25</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I148" s="14" t="s">
         <v>342</v>
@@ -7189,7 +7190,7 @@
         <v>25</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>393</v>
@@ -7222,10 +7223,10 @@
         <v>25</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I150" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
@@ -7255,7 +7256,7 @@
         <v>25</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>398</v>
@@ -7288,7 +7289,7 @@
         <v>283</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I152" s="27" t="s">
         <v>313</v>
@@ -7321,10 +7322,10 @@
         <v>319</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I153" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J153" s="24"/>
       <c r="K153" s="24"/>
@@ -7354,10 +7355,10 @@
         <v>105</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I154" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J154" s="24"/>
       <c r="K154" s="24"/>
@@ -7387,7 +7388,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I155" s="37" t="s">
         <v>409</v>
@@ -7420,10 +7421,10 @@
         <v>317</v>
       </c>
       <c r="H156" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J156" s="24"/>
       <c r="K156" s="24"/>
@@ -7453,10 +7454,10 @@
         <v>356</v>
       </c>
       <c r="H157" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J157" s="24"/>
       <c r="K157" s="24"/>
@@ -7486,7 +7487,7 @@
         <v>356</v>
       </c>
       <c r="H158" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I158" s="37" t="s">
         <v>357</v>
@@ -7519,7 +7520,7 @@
         <v>356</v>
       </c>
       <c r="H159" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I159" s="37" t="s">
         <v>358</v>
@@ -7552,7 +7553,7 @@
         <v>356</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I160" s="37" t="s">
         <v>359</v>
@@ -7585,10 +7586,10 @@
         <v>43</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I161" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -7618,10 +7619,10 @@
         <v>43</v>
       </c>
       <c r="H162" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
@@ -7645,16 +7646,16 @@
         <v>11</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
@@ -7678,16 +7679,16 @@
         <v>11</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H164" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
@@ -7717,7 +7718,7 @@
         <v>48</v>
       </c>
       <c r="H165" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I165" s="14" t="s">
         <v>349</v>
@@ -7746,7 +7747,7 @@
         <v>48</v>
       </c>
       <c r="H166" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I166" s="14" t="s">
         <v>403</v>
@@ -7775,7 +7776,7 @@
         <v>69</v>
       </c>
       <c r="H167" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I167" s="14" t="s">
         <v>350</v>
@@ -7804,7 +7805,7 @@
         <v>48</v>
       </c>
       <c r="H168" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I168" s="14" t="s">
         <v>410</v>
@@ -7833,7 +7834,7 @@
         <v>48</v>
       </c>
       <c r="H169" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I169" s="7" t="s">
         <v>412</v>
@@ -7866,7 +7867,7 @@
         <v>48</v>
       </c>
       <c r="H170" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I170" s="7" t="s">
         <v>411</v>
@@ -7899,7 +7900,7 @@
         <v>48</v>
       </c>
       <c r="H171" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I171" s="7" t="s">
         <v>413</v>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_06_10_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EBD663-CF5A-4477-89D8-5563BE33E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A652B39-51C8-4877-B289-437433FCEF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$171</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="435">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -107,9 +108,6 @@
   </si>
   <si>
     <t>Forgot email with invalid first and last name</t>
-  </si>
-  <si>
-    <t>Forgot email with navigation option</t>
   </si>
   <si>
     <t>Verify Available Balance in Token Account</t>
@@ -308,17 +306,6 @@
 -perrMessage,
 -pcolour,
 -pelementName</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testForgotEmailwithBackActions,
--ploginHeading,
--pforgotHeading,
--pphoneNumber,
--pfirstName,
--plastName,
--pchooseAccount,
--pcode</t>
   </si>
   <si>
     <t>coyni.merchant.tests.LoginTest,
@@ -1488,15 +1475,6 @@
     <t>Sign Up</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLoginWithPhoneNumber,
--ploginHeading,
--pemail,
--ppassword,
--pphoneHeading,
--pcode</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.SignupTest,
 testSignUpBusinessViaShared,
 -pheading</t>
@@ -1744,15 +1722,6 @@
     <t>Verify Login With ResendOTP</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLoginWithResendOTP,
--ploginHeading,
--pemail,
--ppassword,
--pphoneHeading,
--presendMsg</t>
-  </si>
-  <si>
     <t>Forgot Email With Resend Option</t>
   </si>
   <si>
@@ -1773,27 +1742,6 @@
 -ploginHeading,
 -pforgotHeading,
 -pemail</t>
-  </si>
-  <si>
-    <t>Merchant Create Account with Navigation Options</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.SignupTest,
-testcreateAccountWithNavigationOptions,
--pcreateAccountHeading,
--pfirstName,
--plastName,
--pphoneNumber,
--pemail,
--pcreatePassword,
--pconfirmPassword,
--pverificationHeading,
--pverifyPhoneNumber,
--pcode,
--pemailHeading,
--pcode,
--pnewEmail,
--pcreatedAccountHeading</t>
   </si>
   <si>
     <t>Verify API Keys with invalid Authy</t>
@@ -2312,6 +2260,24 @@
 -pconfirmAccountNumber,
 -pstartPageHeading,
 -psignature</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLoginWithPhoneNumber,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pphoneHeading,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLoginWithResendOTP,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pphoneHeading</t>
   </si>
 </sst>
 </file>
@@ -2824,28 +2790,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118:B169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="53.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="41.88671875" customWidth="1"/>
-    <col min="12" max="12" width="41.44140625" customWidth="1"/>
+    <col min="1" max="1" width="76.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2874,45 +2840,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -2924,19 +2890,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -2945,27 +2911,27 @@
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>11</v>
@@ -2974,24 +2940,24 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>380</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>11</v>
@@ -3000,24 +2966,24 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>386</v>
+        <v>14</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>11</v>
@@ -3029,47 +2995,50 @@
         <v>14</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>428</v>
+      <c r="H8" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -3083,54 +3052,54 @@
       <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="20" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>91</v>
+    <row r="10" spans="1:11" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>371</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>377</v>
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>11</v>
@@ -3141,379 +3110,381 @@
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="I11" s="18"/>
+      <c r="H11" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>16</v>
+    <row r="13" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>362</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>73</v>
+      <c r="H13" s="20" t="s">
+        <v>434</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>365</v>
+    <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>366</v>
+        <v>92</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>92</v>
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>20</v>
+      <c r="H15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>363</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>367</v>
+    <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>22</v>
+    <row r="18" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="28" t="s">
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>11</v>
-      </c>
       <c r="G19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>60</v>
+    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>365</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>369</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="H24" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>11</v>
@@ -3522,27 +3493,27 @@
         <v>11</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>54</v>
+        <v>422</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>11</v>
@@ -3551,27 +3522,27 @@
         <v>11</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>11</v>
@@ -3580,27 +3551,27 @@
         <v>11</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>119</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>11</v>
@@ -3609,27 +3580,28 @@
         <v>11</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>139</v>
+        <v>422</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>11</v>
@@ -3638,27 +3610,28 @@
         <v>11</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>37</v>
+        <v>422</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>11</v>
@@ -3667,379 +3640,377 @@
         <v>11</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>234</v>
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>235</v>
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>39</v>
+    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I32" s="14" t="s">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>238</v>
-      </c>
       <c r="D33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>375</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="16" t="s">
+      <c r="E40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="16" t="s">
+      <c r="H40" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H40" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>157</v>
-      </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>156</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>373</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>155</v>
+        <v>374</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>10</v>
@@ -4054,344 +4025,344 @@
         <v>161</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>379</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
+      <c r="H51" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I51" s="7" t="s">
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="16" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I53" s="14" t="s">
+      <c r="H54" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>11</v>
@@ -4403,24 +4374,24 @@
         <v>185</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
-        <v>183</v>
+    <row r="56" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>186</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" s="28" t="s">
         <v>11</v>
@@ -4429,56 +4400,56 @@
         <v>11</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>367</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E57" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>187</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>188</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>376</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>11</v>
@@ -4487,24 +4458,24 @@
         <v>11</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>373</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>10</v>
@@ -4513,88 +4484,88 @@
         <v>11</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I60" s="14" t="s">
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I61" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>195</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>11</v>
@@ -4603,314 +4574,314 @@
         <v>11</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I63" s="14" t="s">
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I65" s="14" t="s">
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>200</v>
-      </c>
       <c r="D66" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I66" s="14" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
-        <v>394</v>
+    <row r="67" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="16" t="s">
+      <c r="E70" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>193</v>
+      <c r="E71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>193</v>
+        <v>9</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>10</v>
@@ -4919,56 +4890,56 @@
         <v>11</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I74" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
-        <v>104</v>
-      </c>
       <c r="B75" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
@@ -4977,85 +4948,85 @@
         <v>11</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
-        <v>106</v>
+        <v>422</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I76" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H77" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I77" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>392</v>
+    <row r="78" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>10</v>
@@ -5064,30 +5035,30 @@
         <v>11</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>21</v>
+        <v>429</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>27</v>
+        <v>123</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>11</v>
@@ -5096,85 +5067,87 @@
         <v>11</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
-        <v>113</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>114</v>
+        <v>9</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="H81" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="31" t="s">
-        <v>33</v>
+        <v>422</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" s="28" t="s">
         <v>11</v>
@@ -5183,28 +5156,28 @@
         <v>11</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>123</v>
+        <v>431</v>
       </c>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
+    <row r="83" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
         <v>216</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" s="28" t="s">
         <v>11</v>
@@ -5213,28 +5186,28 @@
         <v>11</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>436</v>
+        <v>219</v>
       </c>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>217</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>11</v>
@@ -5243,28 +5216,28 @@
         <v>11</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>437</v>
+        <v>221</v>
       </c>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E85" s="28" t="s">
         <v>11</v>
@@ -5273,163 +5246,171 @@
         <v>11</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>27</v>
+        <v>120</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E86" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I86" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="J87" s="6"/>
-    </row>
-    <row r="88" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>10</v>
+      <c r="D88" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E88" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="28" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+    </row>
+    <row r="89" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E89" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="J89" s="6"/>
-    </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+    </row>
+    <row r="90" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>226</v>
-      </c>
       <c r="H90" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
@@ -5437,18 +5418,18 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E91" s="28" t="s">
         <v>11</v>
@@ -5457,13 +5438,13 @@
         <v>11</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>229</v>
+        <v>423</v>
       </c>
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
@@ -5471,86 +5452,76 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="18" t="s">
-        <v>230</v>
+    <row r="92" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>226</v>
+        <v>123</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-    </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="18" t="s">
-        <v>56</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>207</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>57</v>
+        <v>123</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-    </row>
-    <row r="94" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>11</v>
@@ -5559,811 +5530,812 @@
         <v>11</v>
       </c>
       <c r="G94" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I94" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="H94" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>209</v>
+    </row>
+    <row r="95" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>206</v>
+        <v>123</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>36</v>
+        <v>304</v>
+      </c>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>206</v>
+        <v>9</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I101" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="J97" s="6"/>
-    </row>
-    <row r="98" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H98" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H99" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H100" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H101" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>358</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H102" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="18" t="s">
+      <c r="G104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H103" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H104" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>361</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>360</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H110" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H112" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H114" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H116" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A117" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H106" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I106" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="G117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A118" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H107" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H108" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>363</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H109" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H110" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
+      <c r="E118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H118" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H111" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H112" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H113" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H114" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H115" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H116" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H117" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H118" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I118" s="14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D119" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="H119" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H120" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H120" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I120" s="5" t="s">
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>343</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E121" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="H121" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>344</v>
+        <v>422</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A122" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>125</v>
+        <v>9</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E122" s="28" t="s">
         <v>11</v>
@@ -6371,28 +6343,29 @@
       <c r="F122" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>126</v>
+      <c r="G122" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="18" t="s">
-        <v>134</v>
+        <v>422</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A123" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E123" s="28" t="s">
         <v>11</v>
@@ -6401,28 +6374,28 @@
         <v>11</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>203</v>
       </c>
       <c r="J123" s="6"/>
     </row>
-    <row r="124" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="31" t="s">
-        <v>29</v>
+    <row r="124" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E124" s="28" t="s">
         <v>11</v>
@@ -6431,28 +6404,28 @@
         <v>11</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="J124" s="6"/>
     </row>
-    <row r="125" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="31" t="s">
-        <v>31</v>
+    <row r="125" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E125" s="28" t="s">
         <v>11</v>
@@ -6461,28 +6434,28 @@
         <v>11</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E126" s="28" t="s">
         <v>11</v>
@@ -6491,28 +6464,28 @@
         <v>11</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>273</v>
       </c>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>269</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E127" s="28" t="s">
         <v>11</v>
@@ -6521,28 +6494,28 @@
         <v>11</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>274</v>
       </c>
       <c r="J127" s="6"/>
     </row>
-    <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>270</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E128" s="28" t="s">
         <v>11</v>
@@ -6551,28 +6524,28 @@
         <v>11</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H128" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>275</v>
       </c>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E129" s="28" t="s">
         <v>11</v>
@@ -6581,298 +6554,298 @@
         <v>11</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H129" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I129" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H130" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H133" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H134" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H136" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I136" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="H130" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I130" s="14" t="s">
+      <c r="B137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H137" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I137" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="H131" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E132" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="H132" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E133" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="H133" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="H134" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E135" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H135" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H136" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I136" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H137" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I137" s="14" t="s">
-        <v>257</v>
-      </c>
       <c r="J137" s="6"/>
     </row>
-    <row r="138" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>10</v>
+        <v>239</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E138" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="J138" s="6"/>
     </row>
-    <row r="139" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E139" s="28" t="s">
         <v>11</v>
@@ -6881,28 +6854,28 @@
         <v>11</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H139" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="J139" s="6"/>
     </row>
-    <row r="140" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>284</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E140" s="28" t="s">
         <v>11</v>
@@ -6911,28 +6884,28 @@
         <v>11</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H140" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I140" s="14" t="s">
         <v>287</v>
       </c>
       <c r="J140" s="6"/>
     </row>
-    <row r="141" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E141" s="28" t="s">
         <v>11</v>
@@ -6941,28 +6914,28 @@
         <v>11</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="J141" s="6"/>
     </row>
-    <row r="142" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E142" s="28" t="s">
         <v>11</v>
@@ -6971,28 +6944,28 @@
         <v>11</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="J142" s="6"/>
     </row>
-    <row r="143" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E143" s="28" t="s">
         <v>11</v>
@@ -7001,28 +6974,28 @@
         <v>11</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>248</v>
+        <v>408</v>
       </c>
       <c r="J143" s="6"/>
     </row>
-    <row r="144" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E144" s="28" t="s">
         <v>11</v>
@@ -7031,88 +7004,94 @@
         <v>11</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="J144" s="6"/>
     </row>
-    <row r="145" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="18" t="s">
-        <v>251</v>
+    <row r="145" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>327</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="16" t="s">
-        <v>242</v>
+        <v>9</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>414</v>
+        <v>338</v>
       </c>
       <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="18" t="s">
-        <v>247</v>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>328</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D146" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E146" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="16" t="s">
-        <v>242</v>
+        <v>9</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I146" s="14" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="J146" s="6"/>
-    </row>
-    <row r="147" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>11</v>
@@ -7121,64 +7100,64 @@
         <v>11</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
     </row>
-    <row r="148" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>10</v>
+        <v>120</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
     </row>
-    <row r="149" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>11</v>
@@ -7187,97 +7166,97 @@
         <v>11</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
     </row>
-    <row r="150" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>333</v>
+    <row r="150" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>25</v>
+        <v>120</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I150" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-    </row>
-    <row r="151" spans="1:13" ht="192" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>334</v>
+        <v>422</v>
+      </c>
+      <c r="I150" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+    </row>
+    <row r="151" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="s">
+        <v>316</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D151" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>25</v>
+        <v>394</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I151" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-    </row>
-    <row r="152" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I151" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
+      <c r="L151" s="24"/>
+      <c r="M151" s="24"/>
+    </row>
+    <row r="152" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>122</v>
+        <v>394</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E152" s="29" t="s">
         <v>11</v>
@@ -7286,31 +7265,31 @@
         <v>11</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I152" s="27" t="s">
-        <v>313</v>
+        <v>422</v>
+      </c>
+      <c r="I152" s="37" t="s">
+        <v>415</v>
       </c>
       <c r="J152" s="24"/>
       <c r="K152" s="24"/>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
     </row>
-    <row r="153" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E153" s="29" t="s">
         <v>11</v>
@@ -7319,595 +7298,529 @@
         <v>11</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I153" s="37" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="J153" s="24"/>
       <c r="K153" s="24"/>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
     </row>
-    <row r="154" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="30" t="s">
-        <v>314</v>
+    <row r="154" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>393</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>27</v>
+        <v>394</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="E154" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="29" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I154" s="37" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J154" s="24"/>
       <c r="K154" s="24"/>
       <c r="L154" s="24"/>
       <c r="M154" s="24"/>
     </row>
-    <row r="155" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="30" t="s">
-        <v>315</v>
+    <row r="155" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>351</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C155" s="26" t="s">
-        <v>400</v>
+        <v>9</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E155" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="H155" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I155" s="37" t="s">
         <v>428</v>
-      </c>
-      <c r="I155" s="37" t="s">
-        <v>409</v>
       </c>
       <c r="J155" s="24"/>
       <c r="K155" s="24"/>
       <c r="L155" s="24"/>
       <c r="M155" s="24"/>
     </row>
-    <row r="156" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C156" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="29" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="H156" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="J156" s="24"/>
       <c r="K156" s="24"/>
       <c r="L156" s="24"/>
       <c r="M156" s="24"/>
     </row>
-    <row r="157" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C157" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="H157" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I157" s="37" t="s">
         <v>355</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="H157" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I157" s="37" t="s">
-        <v>434</v>
       </c>
       <c r="J157" s="24"/>
       <c r="K157" s="24"/>
       <c r="L157" s="24"/>
       <c r="M157" s="24"/>
     </row>
-    <row r="158" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" s="25" customFormat="1" ht="187.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>349</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E158" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" s="26" t="s">
+      <c r="H158" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I158" s="37" t="s">
         <v>356</v>
-      </c>
-      <c r="H158" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I158" s="37" t="s">
-        <v>357</v>
       </c>
       <c r="J158" s="24"/>
       <c r="K158" s="24"/>
       <c r="L158" s="24"/>
       <c r="M158" s="24"/>
     </row>
-    <row r="159" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>351</v>
+    <row r="159" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E159" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" s="26" t="s">
-        <v>356</v>
+        <v>344</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H159" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I159" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="24"/>
-      <c r="M159" s="24"/>
-    </row>
-    <row r="160" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>352</v>
+        <v>422</v>
+      </c>
+      <c r="I159" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A160" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D160" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H160" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A161" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="H160" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I160" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="J160" s="24"/>
-      <c r="K160" s="24"/>
-      <c r="L160" s="24"/>
-      <c r="M160" s="24"/>
-    </row>
-    <row r="161" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="31" t="s">
+      <c r="E161" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="G161" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E161" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="H161" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I161" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A162" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H162" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
     </row>
-    <row r="163" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A163" s="31" t="s">
-        <v>45</v>
+    <row r="163" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C163" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H163" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I163" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A164" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H164" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I164" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="283.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H165" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I165" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D163" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="G163" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H163" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-    </row>
-    <row r="164" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A164" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="G164" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H164" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D165" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E165" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H165" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I165" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E166" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G166" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H166" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I166" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A167" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H166" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="B167" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>69</v>
+      <c r="E167" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="H167" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I167" s="14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="34" t="s">
-        <v>53</v>
+        <v>422</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+    </row>
+    <row r="168" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A168" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E168" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H168" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I168" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+    </row>
+    <row r="169" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E169" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H169" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-    </row>
-    <row r="170" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A170" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E170" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H170" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I170" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
-      <c r="L170" s="6"/>
-      <c r="M170" s="6"/>
-    </row>
-    <row r="171" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A171" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E171" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H171" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="I171" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L173" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L171" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -7939,30 +7852,30 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_06_10_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A652B39-51C8-4877-B289-437433FCEF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DC6ABD-2F8A-4759-8508-DA62A91ADE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$171</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -436,9 +435,6 @@
     <t>Add Debit Card</t>
   </si>
   <si>
-    <t>Verify MerchantSettings SignetAccount</t>
-  </si>
-  <si>
     <t>Add Signet Account</t>
   </si>
   <si>
@@ -1520,27 +1516,8 @@
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testDeleteSignetAccount,
--psignetNumber</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
 testDeleteBankAccount,
 -pbankNumber</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testAddSignetAccount,
--pnewSignetAccount,
--pheading,
--pwalletID,
--paddressLine1,
--paddressLine2,
--pcity1,
--pstate1,
--pzipCode,
--pheading1,
--pheading2</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -1649,51 +1626,6 @@
 -pzipCode,
 -pelementName,
 -pcolour,
--perrMessage</t>
-  </si>
-  <si>
-    <t>test withdrawnToUSDSignet</t>
-  </si>
-  <si>
-    <t>test withdrawnToUSD Signet invalid amount</t>
-  </si>
-  <si>
-    <t>test withdrawnToUSD Add Signet</t>
-  </si>
-  <si>
-    <t>test withdrawnToUSDSignet Remove</t>
-  </si>
-  <si>
-    <t>testdata-merchant.xlsx,withdrawToUSDSignet</t>
-  </si>
-  <si>
-    <t>Signet Account</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDAddSignetAccount,
--pnewSignetAccount,
--pwalletID,
--paddressLine1,
--paddressLine2,
--pcity1,
--pstate1,
--pzipCode</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDSignetAccount,
--pheading,
--psignetNumber,
--pamount,
--pcode1</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDSignetAccountInvalidData,
--psignetNumber,
--pamount,
--pdescription,
 -perrMessage</t>
   </si>
   <si>
@@ -1867,9 +1799,6 @@
 -pteamSharedHeading</t>
   </si>
   <si>
-    <t>Verify MerchantSettings Delete Signet Account</t>
-  </si>
-  <si>
     <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
 testBuyTokenDeleteBank,
 -pheading,
@@ -1893,17 +1822,6 @@
 testMerchantSettingsTeamResetFilters,
 -pheading,
 -pfilterType</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testBuyTokenAddSignet,
--pnewSignetAccount,
--pwalletID,
--paddressLine1,
--paddressLine2,
--pcity1,
--pstate1,
--pzipCode</t>
   </si>
   <si>
     <t>test withdrawn to External Bank invalid amount</t>
@@ -2173,12 +2091,6 @@
 testDBAUnderBusiness,
 -pheading,
 -pdba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDDeleteSignetAccount,
--psignetNumber
-</t>
   </si>
   <si>
     <t>13</t>
@@ -2278,6 +2190,93 @@
 -pemail,
 -ppassword,
 -pphoneHeading</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings CogentAccount</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings Delete Cogent Account</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testDeleteCogentAccount,
+-pcogentNumber</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddCognetAccount,
+-pnewSignetAccount,
+-pheading,
+-pwalletID,
+-paddressLine1,
+-paddressLine2,
+-pcity1,
+-pstate1,
+-pzipCode,
+-pheading1,
+-pheading2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDDeleteCogentAccount,
+-pcogentNumber
+</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDAddCogentAccount,
+-pnewCogentAccount,
+-pwalletID,
+-paddressLine1,
+-paddressLine2,
+-pcity1,
+-pstate1,
+-pzipCode</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccountInvalidData,
+-pcogentNumber,
+-pamount,
+-pdescription,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>Cogent Account</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccount,
+-pheading,
+-pcogentNumber,
+-pamount,
+-pcode1</t>
+  </si>
+  <si>
+    <t>testdata-merchant.xlsx,withdrawToUSDCogent</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSD Cogent invalid amount</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSDCogent</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSD Add Cogent</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSDCogent Remove</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testBuyTokenAddCogent,
+-pnewCogentAccount,
+-pwalletID,
+-paddressLine1,
+-paddressLine2,
+-pcity1,
+-pstate1,
+-pzipCode</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2438,9 +2437,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2792,26 +2788,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118:B169"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="41.85546875" customWidth="1"/>
-    <col min="12" max="12" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="76.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="9" max="9" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="41.88671875" customWidth="1"/>
+    <col min="12" max="12" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2840,8 +2836,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2867,7 +2863,7 @@
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>86</v>
       </c>
@@ -2890,11 +2886,11 @@
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>80</v>
       </c>
@@ -2911,18 +2907,18 @@
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -2940,15 +2936,15 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2969,10 +2965,10 @@
         <v>14</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>87</v>
       </c>
@@ -2995,13 +2991,13 @@
         <v>14</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>88</v>
       </c>
@@ -3030,7 +3026,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>89</v>
       </c>
@@ -3059,9 +3055,9 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3082,13 +3078,13 @@
         <v>14</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
@@ -3111,13 +3107,13 @@
         <v>14</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
@@ -3146,9 +3142,9 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -3169,13 +3165,13 @@
         <v>14</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>90</v>
       </c>
@@ -3188,10 +3184,10 @@
       <c r="D14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="E14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -3204,8 +3200,8 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3217,10 +3213,10 @@
       <c r="D15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -3231,9 +3227,9 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -3244,22 +3240,22 @@
       <c r="D16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="E16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3271,10 +3267,10 @@
       <c r="D17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="16" t="s">
@@ -3285,7 +3281,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>57</v>
       </c>
@@ -3311,7 +3307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>59</v>
       </c>
@@ -3337,7 +3333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>60</v>
       </c>
@@ -3363,9 +3359,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -3386,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>61</v>
       </c>
@@ -3415,7 +3411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
@@ -3423,28 +3419,28 @@
         <v>9</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="E23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
@@ -3452,115 +3448,115 @@
         <v>9</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="28" t="s">
+      <c r="E24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="H27" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>36</v>
       </c>
@@ -3568,1254 +3564,1254 @@
         <v>9</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="28" t="s">
+      <c r="E28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>234</v>
-      </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+    <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="28" t="s">
+      <c r="E31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I31" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="D32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>238</v>
-      </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="28" t="s">
+      <c r="E33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="H34" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="H35" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I35" s="7" t="s">
+    </row>
+    <row r="36" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="H36" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I36" s="7" t="s">
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="16" t="s">
+    <row r="38" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I37" s="7" t="s">
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>154</v>
+    <row r="40" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="28" t="s">
+      <c r="E40" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>158</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="28" t="s">
+      <c r="E41" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>373</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="28" t="s">
+      <c r="E43" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I43" s="7" t="s">
+    </row>
+    <row r="44" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>173</v>
+    </row>
+    <row r="46" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="28" t="s">
+      <c r="E46" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I46" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I47" s="7" t="s">
+    <row r="48" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="29" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I48" s="7" t="s">
+    </row>
+    <row r="49" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="29" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>179</v>
-      </c>
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="28" t="s">
+      <c r="E49" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>190</v>
-      </c>
       <c r="H50" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>122</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="28" t="s">
+      <c r="E51" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I51" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="16" t="s">
+    <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I54" s="14" t="s">
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I55" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="16" t="s">
+    <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="H55" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="16" t="s">
+      <c r="H56" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I56" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="H56" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="28" t="s">
+      <c r="E57" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="27" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="28" t="s">
+      <c r="E58" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>192</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="28" t="s">
+      <c r="E59" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I63" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I62" s="14" t="s">
+    </row>
+    <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>198</v>
-      </c>
       <c r="D64" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="28" t="s">
+      <c r="E64" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
-        <v>388</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
+        <v>375</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="28" t="s">
+      <c r="E65" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
-        <v>389</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
+        <v>376</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="28" t="s">
+      <c r="E66" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="28" t="s">
+      <c r="E67" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="28" t="s">
+      <c r="E68" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="28" t="s">
+      <c r="E69" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:10" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>97</v>
       </c>
@@ -4838,15 +4834,15 @@
         <v>99</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
@@ -4864,18 +4860,18 @@
         <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I72" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
@@ -4893,18 +4889,18 @@
         <v>40</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
@@ -4922,18 +4918,18 @@
         <v>11</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>100</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
@@ -4951,18 +4947,18 @@
         <v>40</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>9</v>
@@ -4980,18 +4976,18 @@
         <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="I76" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
@@ -5009,18 +5005,18 @@
         <v>11</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
@@ -5035,314 +5031,314 @@
         <v>11</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+    </row>
+    <row r="80" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="28" t="s">
+      <c r="E80" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+    <row r="81" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H81" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I83" s="14" t="s">
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I85" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H84" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>220</v>
-      </c>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="28" t="s">
+      <c r="E86" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G86" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="H86" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>252</v>
-      </c>
       <c r="B87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="28" t="s">
+      <c r="E87" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+    <row r="88" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="16" t="s">
+      <c r="D88" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D88" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="16" t="s">
+      <c r="H88" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I88" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -5350,33 +5346,33 @@
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I89" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="H89" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
@@ -5384,33 +5380,33 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I90" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="H90" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
@@ -5418,7 +5414,7 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
         <v>55</v>
       </c>
@@ -5426,25 +5422,25 @@
         <v>9</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E91" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="28" t="s">
+      <c r="E91" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>56</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
@@ -5452,7 +5448,7 @@
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
     </row>
-    <row r="92" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>34</v>
       </c>
@@ -5460,7 +5456,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>26</v>
@@ -5472,45 +5468,45 @@
         <v>11</v>
       </c>
       <c r="G92" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I92" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="H92" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I93" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H93" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>35</v>
       </c>
@@ -5518,7 +5514,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>26</v>
@@ -5530,48 +5526,48 @@
         <v>11</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C95" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="H95" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>9</v>
@@ -5592,15 +5588,15 @@
         <v>63</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I96" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="18" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>9</v>
@@ -5621,15 +5617,15 @@
         <v>63</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I97" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="18" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>9</v>
@@ -5650,15 +5646,15 @@
         <v>63</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I98" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="18" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>263</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -5679,13 +5675,13 @@
         <v>63</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
         <v>62</v>
       </c>
@@ -5708,13 +5704,13 @@
         <v>63</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
         <v>64</v>
       </c>
@@ -5737,13 +5733,13 @@
         <v>63</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
         <v>66</v>
       </c>
@@ -5766,15 +5762,15 @@
         <v>63</v>
       </c>
       <c r="H102" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>9</v>
@@ -5795,15 +5791,15 @@
         <v>63</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A104" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>9</v>
@@ -5824,15 +5820,15 @@
         <v>63</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I104" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="18" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>9</v>
@@ -5853,13 +5849,13 @@
         <v>63</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
         <v>69</v>
       </c>
@@ -5882,15 +5878,15 @@
         <v>63</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
@@ -5911,102 +5907,102 @@
         <v>63</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I108" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="2" t="s">
+    </row>
+    <row r="109" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D108" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="H109" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I109" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H108" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+    </row>
+    <row r="110" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="D110" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D109" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H109" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="H110" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
@@ -6024,18 +6020,18 @@
         <v>11</v>
       </c>
       <c r="G111" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I111" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="H111" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I111" s="14" t="s">
+    </row>
+    <row r="112" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
@@ -6053,18 +6049,18 @@
         <v>11</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I112" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>9</v>
@@ -6082,18 +6078,18 @@
         <v>11</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H113" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I113" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>9</v>
@@ -6111,18 +6107,18 @@
         <v>11</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>25</v>
@@ -6140,18 +6136,18 @@
         <v>11</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>25</v>
@@ -6169,26 +6165,26 @@
         <v>11</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D117" s="36" t="s">
+      <c r="D117" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E117" s="9" t="s">
@@ -6198,26 +6194,26 @@
         <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I117" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H117" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I117" s="5" t="s">
+    </row>
+    <row r="118" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="33" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A118" s="34" t="s">
-        <v>130</v>
-      </c>
       <c r="B118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D118" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="9" t="s">
@@ -6227,464 +6223,464 @@
         <v>40</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H118" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I118" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>337</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>338</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H120" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>340</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E119" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H119" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>341</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H120" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E121" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="H121" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J121" s="6"/>
     </row>
-    <row r="122" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A122" s="31" t="s">
+    <row r="122" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E122" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="28" t="s">
+      <c r="E122" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J122" s="6"/>
     </row>
-    <row r="123" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
+    <row r="123" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E123" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="28" t="s">
+      <c r="E123" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J123" s="6"/>
     </row>
-    <row r="124" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A124" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E124" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="16" t="s">
+      <c r="H124" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H124" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I124" s="14" t="s">
+      <c r="B125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I125" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="J124" s="6"/>
-    </row>
-    <row r="125" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H125" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I125" s="14" t="s">
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I126" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E126" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H126" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I126" s="14" t="s">
+      <c r="B127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I127" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H127" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I127" s="14" t="s">
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I128" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E128" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H128" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I128" s="14" t="s">
-        <v>275</v>
-      </c>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H129" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I129" s="14" t="s">
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H130" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I130" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H130" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I130" s="14" t="s">
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H131" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I131" s="14" t="s">
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I132" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E132" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H132" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>295</v>
-      </c>
       <c r="J132" s="6"/>
     </row>
-    <row r="133" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H133" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I133" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E133" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H133" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>242</v>
-      </c>
       <c r="J133" s="6"/>
     </row>
-    <row r="134" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
         <v>32</v>
       </c>
@@ -6692,337 +6688,337 @@
         <v>9</v>
       </c>
       <c r="C134" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D134" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E134" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>240</v>
-      </c>
       <c r="H134" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J134" s="6"/>
     </row>
-    <row r="135" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="28" t="s">
+      <c r="E135" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H135" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J135" s="6"/>
     </row>
-    <row r="136" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="28" t="s">
+      <c r="E136" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J136" s="6"/>
     </row>
-    <row r="137" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H137" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I137" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="16" t="s">
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D137" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E137" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H137" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I137" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
+      <c r="H138" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="16" t="s">
+      <c r="B139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D138" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E138" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H138" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I138" s="14" t="s">
+      <c r="H139" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I139" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="J138" s="6"/>
-    </row>
-    <row r="139" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="16" t="s">
+      <c r="B140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D139" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H139" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I139" s="14" t="s">
+      <c r="H140" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I140" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="16" t="s">
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D140" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E140" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H140" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I140" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+      <c r="H141" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H142" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H143" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="16" t="s">
+      <c r="B144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D141" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E141" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H141" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I141" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E142" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H142" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="J142" s="6"/>
-    </row>
-    <row r="143" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E143" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H143" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="J143" s="6"/>
-    </row>
-    <row r="144" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A144" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E144" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="16" t="s">
-        <v>240</v>
-      </c>
       <c r="H144" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J144" s="6"/>
     </row>
-    <row r="145" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>26</v>
@@ -7037,25 +7033,25 @@
         <v>24</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
     </row>
-    <row r="146" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>10</v>
@@ -7070,25 +7066,25 @@
         <v>24</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I146" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>26</v>
@@ -7103,25 +7099,25 @@
         <v>24</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
     </row>
-    <row r="148" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>26</v>
@@ -7136,25 +7132,25 @@
         <v>24</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
     </row>
-    <row r="149" spans="1:13" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>26</v>
@@ -7169,504 +7165,504 @@
         <v>24</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
     </row>
-    <row r="150" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="30" t="s">
+    <row r="150" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D150" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E150" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="26" t="s">
-        <v>281</v>
-      </c>
       <c r="H150" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I150" s="27" t="s">
-        <v>311</v>
+        <v>408</v>
+      </c>
+      <c r="I150" s="36" t="s">
+        <v>310</v>
       </c>
       <c r="J150" s="24"/>
       <c r="K150" s="24"/>
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
     </row>
-    <row r="151" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="30" t="s">
+    <row r="151" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="D151" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E151" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="26" t="s">
-        <v>317</v>
-      </c>
       <c r="H151" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I151" s="37" t="s">
-        <v>414</v>
+        <v>408</v>
+      </c>
+      <c r="I151" s="36" t="s">
+        <v>400</v>
       </c>
       <c r="J151" s="24"/>
       <c r="K151" s="24"/>
       <c r="L151" s="24"/>
       <c r="M151" s="24"/>
     </row>
-    <row r="152" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="30" t="s">
-        <v>312</v>
+    <row r="152" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="29" t="s">
+        <v>311</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D152" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E152" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="29" t="s">
+      <c r="E152" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I152" s="37" t="s">
-        <v>415</v>
+        <v>408</v>
+      </c>
+      <c r="I152" s="36" t="s">
+        <v>401</v>
       </c>
       <c r="J152" s="24"/>
       <c r="K152" s="24"/>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
     </row>
-    <row r="153" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="30" t="s">
+    <row r="153" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="26" t="s">
-        <v>314</v>
-      </c>
       <c r="H153" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I153" s="37" t="s">
-        <v>403</v>
+        <v>408</v>
+      </c>
+      <c r="I153" s="36" t="s">
+        <v>389</v>
       </c>
       <c r="J153" s="24"/>
       <c r="K153" s="24"/>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
     </row>
-    <row r="154" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="29" t="s">
+      <c r="E154" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I154" s="37" t="s">
-        <v>416</v>
+        <v>408</v>
+      </c>
+      <c r="I154" s="36" t="s">
+        <v>402</v>
       </c>
       <c r="J154" s="24"/>
       <c r="K154" s="24"/>
       <c r="L154" s="24"/>
       <c r="M154" s="24"/>
     </row>
-    <row r="155" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="D155" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E155" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="28" t="s">
+      <c r="E155" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="H155" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I155" s="37" t="s">
-        <v>428</v>
+        <v>408</v>
+      </c>
+      <c r="I155" s="36" t="s">
+        <v>424</v>
       </c>
       <c r="J155" s="24"/>
       <c r="K155" s="24"/>
       <c r="L155" s="24"/>
       <c r="M155" s="24"/>
     </row>
-    <row r="156" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="D156" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E156" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="28" t="s">
+      <c r="E156" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="H156" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I156" s="37" t="s">
-        <v>354</v>
+        <v>408</v>
+      </c>
+      <c r="I156" s="36" t="s">
+        <v>425</v>
       </c>
       <c r="J156" s="24"/>
       <c r="K156" s="24"/>
       <c r="L156" s="24"/>
       <c r="M156" s="24"/>
     </row>
-    <row r="157" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="D157" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E157" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="29" t="s">
+      <c r="E157" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="H157" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I157" s="37" t="s">
-        <v>355</v>
+        <v>408</v>
+      </c>
+      <c r="I157" s="36" t="s">
+        <v>428</v>
       </c>
       <c r="J157" s="24"/>
       <c r="K157" s="24"/>
       <c r="L157" s="24"/>
       <c r="M157" s="24"/>
     </row>
-    <row r="158" spans="1:13" s="25" customFormat="1" ht="187.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>349</v>
+        <v>430</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="29" t="s">
+      <c r="E158" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G158" s="26" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="H158" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I158" s="37" t="s">
-        <v>356</v>
+        <v>408</v>
+      </c>
+      <c r="I158" s="36" t="s">
+        <v>426</v>
       </c>
       <c r="J158" s="24"/>
       <c r="K158" s="24"/>
       <c r="L158" s="24"/>
       <c r="M158" s="24"/>
     </row>
-    <row r="159" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="31" t="s">
+    <row r="159" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E159" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="28" t="s">
+      <c r="E159" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H159" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I159" s="14" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
     </row>
-    <row r="160" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A160" s="31" t="s">
+    <row r="160" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="28" t="s">
+      <c r="E160" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
     </row>
-    <row r="161" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A161" s="31" t="s">
+    <row r="161" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A161" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="28" t="s">
-        <v>418</v>
+      <c r="E161" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>404</v>
       </c>
       <c r="G161" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A162" s="31" t="s">
+    <row r="162" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A162" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="28" t="s">
-        <v>418</v>
+      <c r="E162" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>404</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H162" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
     </row>
-    <row r="163" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="34" t="s">
+    <row r="163" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E163" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="28" t="s">
+      <c r="E163" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I163" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A164" s="34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E164" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="28" t="s">
+      <c r="E164" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H164" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="283.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="18" t="s">
         <v>67</v>
       </c>
@@ -7674,7 +7670,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>10</v>
@@ -7689,134 +7685,134 @@
         <v>68</v>
       </c>
       <c r="H165" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I165" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="28" t="s">
+      <c r="E166" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G166" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H166" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A167" s="34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="28" t="s">
+      <c r="E167" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G167" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H167" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I167" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
     </row>
-    <row r="168" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A168" s="31" t="s">
+    <row r="168" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A168" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E168" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="28" t="s">
+      <c r="E168" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H168" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
     </row>
-    <row r="169" spans="1:13" ht="255" x14ac:dyDescent="0.25">
-      <c r="A169" s="34" t="s">
+    <row r="169" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E169" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="28" t="s">
+      <c r="E169" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H169" s="20" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -7852,12 +7848,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -7865,7 +7861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7873,7 +7869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_06_10_2022\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DC6ABD-2F8A-4759-8508-DA62A91ADE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDC969-BE0F-433C-ABDD-6C058BC7403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$167</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="429">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -933,21 +933,6 @@
   </si>
   <si>
     <t>Verify Exports Selected LastMonth Transaction</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionLastSevenDays,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionLastMonth,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionMonthToDate,
--pheading</t>
   </si>
   <si>
     <t>Verify Export Files</t>
@@ -1383,14 +1368,6 @@
 -paccountLimitsHeading</t>
   </si>
   <si>
-    <t>Verify Merchant Leave Account</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantProfileTest,
-testLeaveAccounts,
--pheading</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.MerchantProfileTest,
 testEditEmailWithInvalidData,
 -pverifyEmail,
@@ -1510,9 +1487,6 @@
   </si>
   <si>
     <t>Verify Buy Token Add Bank</t>
-  </si>
-  <si>
-    <t>Verify Buy Token Add Signet</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -1736,16 +1710,6 @@
 testCompanyAndDBAInformation,
 -pheading,
 -pcompanyInformationHeading,</t>
-  </si>
-  <si>
-    <t>Verify InActive APIKeys</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testAPIKeysInactiveRecords,
--pheading,
--papiKeysHeading,
--pquery</t>
   </si>
   <si>
     <t>Create Account Phone Number</t>
@@ -2203,9 +2167,60 @@
 -pcogentNumber</t>
   </si>
   <si>
+    <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDDeleteCogentAccount,
+-pcogentNumber
+</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDAddCogentAccount,
+-pnewCogentAccount,
+-pwalletID,
+-paddressLine1,
+-paddressLine2,
+-pcity1,
+-pstate1,
+-pzipCode</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccountInvalidData,
+-pcogentNumber,
+-pamount,
+-pdescription,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>Cogent Account</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccount,
+-pheading,
+-pcogentNumber,
+-pamount,
+-pcode1</t>
+  </si>
+  <si>
+    <t>testdata-merchant.xlsx,withdrawToUSDCogent</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSD Cogent invalid amount</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSDCogent</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSD Add Cogent</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSDCogent Remove</t>
+  </si>
+  <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
 testAddCognetAccount,
--pnewSignetAccount,
+-pnewCogentAccount,
 -pheading,
 -pwalletID,
 -paddressLine1,
@@ -2217,66 +2232,22 @@
 -pheading2</t>
   </si>
   <si>
-    <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDDeleteCogentAccount,
--pcogentNumber
-</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDAddCogentAccount,
--pnewCogentAccount,
--pwalletID,
--paddressLine1,
--paddressLine2,
--pcity1,
--pstate1,
--pzipCode</t>
+testExportSelectedTransactionLastSevenDays,
+-pheading,
+-pnotificationText</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDCogentAccountInvalidData,
--pcogentNumber,
--pamount,
--pdescription,
--perrMessage</t>
-  </si>
-  <si>
-    <t>Cogent Account</t>
+testExportSelectedTransactionMonthToDate,
+-pheading,
+-pnotificationText</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDCogentAccount,
+testExportSelectedTransactionLastMonth,
 -pheading,
--pcogentNumber,
--pamount,
--pcode1</t>
-  </si>
-  <si>
-    <t>testdata-merchant.xlsx,withdrawToUSDCogent</t>
-  </si>
-  <si>
-    <t>test withdrawnToUSD Cogent invalid amount</t>
-  </si>
-  <si>
-    <t>test withdrawnToUSDCogent</t>
-  </si>
-  <si>
-    <t>test withdrawnToUSD Add Cogent</t>
-  </si>
-  <si>
-    <t>test withdrawnToUSDCogent Remove</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testBuyTokenAddCogent,
--pnewCogentAccount,
--pwalletID,
--paddressLine1,
--paddressLine2,
--pcity1,
--pstate1,
--pzipCode</t>
+-pnotificationText</t>
   </si>
 </sst>
 </file>
@@ -2786,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="B80" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2841,7 +2812,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>81</v>
@@ -2886,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -2895,7 +2866,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>95</v>
@@ -2913,12 +2884,12 @@
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -2936,18 +2907,18 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>82</v>
@@ -2965,7 +2936,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
@@ -2973,7 +2944,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>82</v>
@@ -2991,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -3002,7 +2973,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>82</v>
@@ -3031,7 +3002,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>82</v>
@@ -3057,10 +3028,10 @@
     </row>
     <row r="10" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>82</v>
@@ -3078,7 +3049,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -3089,7 +3060,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>82</v>
@@ -3107,7 +3078,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
@@ -3118,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>82</v>
@@ -3144,10 +3115,10 @@
     </row>
     <row r="13" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>82</v>
@@ -3165,7 +3136,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
@@ -3176,7 +3147,7 @@
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>83</v>
@@ -3205,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>83</v>
@@ -3229,10 +3200,10 @@
     </row>
     <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>83</v>
@@ -3250,7 +3221,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -3259,7 +3230,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>83</v>
@@ -3286,7 +3257,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>84</v>
@@ -3312,7 +3283,7 @@
         <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>84</v>
@@ -3338,7 +3309,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>84</v>
@@ -3361,10 +3332,10 @@
     </row>
     <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>84</v>
@@ -3382,7 +3353,7 @@
         <v>58</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
@@ -3390,7 +3361,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>84</v>
@@ -3416,7 +3387,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>119</v>
@@ -3434,7 +3405,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>79</v>
@@ -3445,7 +3416,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>119</v>
@@ -3463,7 +3434,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>91</v>
@@ -3474,7 +3445,7 @@
         <v>135</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>137</v>
@@ -3492,7 +3463,7 @@
         <v>138</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>139</v>
@@ -3503,7 +3474,7 @@
         <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>117</v>
@@ -3521,7 +3492,7 @@
         <v>118</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>140</v>
@@ -3532,7 +3503,7 @@
         <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>141</v>
@@ -3550,7 +3521,7 @@
         <v>142</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>143</v>
@@ -3561,10 +3532,10 @@
         <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>26</v>
@@ -3576,13 +3547,13 @@
         <v>11</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J28" s="6"/>
     </row>
@@ -3591,10 +3562,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>26</v>
@@ -3606,13 +3577,13 @@
         <v>11</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -3621,10 +3592,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>26</v>
@@ -3636,13 +3607,13 @@
         <v>11</v>
       </c>
       <c r="G30" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>233</v>
       </c>
       <c r="J30" s="6"/>
     </row>
@@ -3651,10 +3622,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>10</v>
@@ -3666,25 +3637,25 @@
         <v>19</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>26</v>
@@ -3696,25 +3667,25 @@
         <v>11</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>26</v>
@@ -3726,19 +3697,19 @@
         <v>11</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>25</v>
@@ -3759,10 +3730,10 @@
         <v>113</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="J34" s="6"/>
     </row>
@@ -3771,7 +3742,7 @@
         <v>144</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>141</v>
@@ -3789,7 +3760,7 @@
         <v>145</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>146</v>
@@ -3800,7 +3771,7 @@
         <v>148</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>141</v>
@@ -3818,7 +3789,7 @@
         <v>147</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>169</v>
@@ -3829,7 +3800,7 @@
         <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>141</v>
@@ -3847,7 +3818,7 @@
         <v>150</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>170</v>
@@ -3858,7 +3829,7 @@
         <v>151</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>141</v>
@@ -3876,7 +3847,7 @@
         <v>155</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>168</v>
@@ -3887,7 +3858,7 @@
         <v>154</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>141</v>
@@ -3905,7 +3876,7 @@
         <v>156</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>171</v>
@@ -3916,7 +3887,7 @@
         <v>153</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>141</v>
@@ -3934,7 +3905,7 @@
         <v>152</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>167</v>
@@ -3945,7 +3916,7 @@
         <v>157</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>141</v>
@@ -3963,7 +3934,7 @@
         <v>158</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>166</v>
@@ -3971,10 +3942,10 @@
     </row>
     <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>141</v>
@@ -3989,13 +3960,13 @@
         <v>11</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4003,7 +3974,7 @@
         <v>159</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>141</v>
@@ -4021,7 +3992,7 @@
         <v>160</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>161</v>
@@ -4032,7 +4003,7 @@
         <v>162</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>141</v>
@@ -4050,7 +4021,7 @@
         <v>147</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>165</v>
@@ -4061,7 +4032,7 @@
         <v>163</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>141</v>
@@ -4079,7 +4050,7 @@
         <v>155</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>164</v>
@@ -4090,7 +4061,7 @@
         <v>172</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>141</v>
@@ -4108,7 +4079,7 @@
         <v>152</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>174</v>
@@ -4119,7 +4090,7 @@
         <v>173</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>141</v>
@@ -4137,7 +4108,7 @@
         <v>150</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>175</v>
@@ -4148,7 +4119,7 @@
         <v>176</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>141</v>
@@ -4166,7 +4137,7 @@
         <v>156</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>177</v>
@@ -4177,7 +4148,7 @@
         <v>178</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>141</v>
@@ -4195,7 +4166,7 @@
         <v>158</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>179</v>
@@ -4206,7 +4177,7 @@
         <v>188</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>141</v>
@@ -4224,10 +4195,10 @@
         <v>189</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4235,7 +4206,7 @@
         <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>141</v>
@@ -4253,39 +4224,39 @@
         <v>27</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I52" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="J52" s="6"/>
     </row>
@@ -4294,7 +4265,7 @@
         <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>141</v>
@@ -4312,10 +4283,10 @@
         <v>182</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4323,7 +4294,7 @@
         <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>141</v>
@@ -4341,10 +4312,10 @@
         <v>181</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4352,7 +4323,7 @@
         <v>183</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>141</v>
@@ -4370,10 +4341,10 @@
         <v>184</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4381,7 +4352,7 @@
         <v>185</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>141</v>
@@ -4399,7 +4370,7 @@
         <v>186</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>187</v>
@@ -4407,10 +4378,10 @@
     </row>
     <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>141</v>
@@ -4428,24 +4399,24 @@
         <v>186</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>364</v>
+      <c r="A58" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>11</v>
@@ -4454,27 +4425,27 @@
         <v>11</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>365</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E59" s="27" t="s">
         <v>11</v>
@@ -4486,18 +4457,18 @@
         <v>190</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
-        <v>192</v>
+      <c r="A60" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>197</v>
@@ -4515,18 +4486,18 @@
         <v>190</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>198</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>370</v>
+      <c r="A61" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>197</v>
@@ -4544,18 +4515,18 @@
         <v>190</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>371</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>197</v>
@@ -4573,18 +4544,18 @@
         <v>190</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
-        <v>193</v>
+      <c r="A63" s="37" t="s">
+        <v>364</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>197</v>
@@ -4602,47 +4573,47 @@
         <v>190</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>195</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>190</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>197</v>
@@ -4660,47 +4631,47 @@
         <v>190</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
-        <v>376</v>
+      <c r="A66" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>190</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>197</v>
@@ -4718,18 +4689,18 @@
         <v>190</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>197</v>
@@ -4747,334 +4718,335 @@
         <v>190</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>26</v>
+      <c r="D69" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>190</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>190</v>
+      <c r="E70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>334</v>
+        <v>400</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>103</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I75" s="23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>421</v>
+        <v>400</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>10</v>
+        <v>122</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>358</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
-        <v>210</v>
+      <c r="A79" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>123</v>
+      <c r="E79" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>211</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J79" s="6"/>
     </row>
     <row r="80" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
@@ -5092,19 +5064,19 @@
         <v>11</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>120</v>
+        <v>407</v>
       </c>
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="30" t="s">
-        <v>213</v>
+      <c r="A81" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>9</v>
@@ -5125,16 +5097,16 @@
         <v>212</v>
       </c>
       <c r="H81" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I81" s="14" t="s">
         <v>408</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>415</v>
       </c>
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>9</v>
@@ -5155,16 +5127,16 @@
         <v>212</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>9</v>
@@ -5185,16 +5157,16 @@
         <v>212</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>218</v>
+        <v>427</v>
       </c>
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>9</v>
@@ -5215,49 +5187,49 @@
         <v>212</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>220</v>
+        <v>428</v>
       </c>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>26</v>
+      <c r="D85" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E85" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>119</v>
@@ -5272,55 +5244,59 @@
         <v>40</v>
       </c>
       <c r="G86" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I86" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H86" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>252</v>
-      </c>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="18" t="s">
-        <v>251</v>
+    <row r="87" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E87" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="J87" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="30" t="s">
-        <v>221</v>
+      <c r="A88" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>26</v>
@@ -5332,13 +5308,13 @@
         <v>11</v>
       </c>
       <c r="G88" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I88" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -5348,31 +5324,31 @@
     </row>
     <row r="89" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I89" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H89" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
@@ -5382,13 +5358,13 @@
     </row>
     <row r="90" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>26</v>
@@ -5400,13 +5376,13 @@
         <v>11</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>228</v>
+        <v>401</v>
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
@@ -5414,46 +5390,41 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="18" t="s">
-        <v>55</v>
+    <row r="91" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>56</v>
+        <v>122</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
+        <v>204</v>
+      </c>
     </row>
     <row r="92" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>34</v>
+      <c r="A92" t="s">
+        <v>206</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>122</v>
@@ -5471,18 +5442,18 @@
         <v>203</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>206</v>
+      <c r="A93" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>122</v>
@@ -5500,77 +5471,76 @@
         <v>203</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
-        <v>35</v>
+      <c r="A94" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>203</v>
+        <v>25</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="16" t="s">
-        <v>122</v>
+      <c r="C95" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E95" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="27" t="s">
+      <c r="E95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="J95" s="6"/>
+        <v>256</v>
+      </c>
     </row>
     <row r="96" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>85</v>
@@ -5588,18 +5558,18 @@
         <v>63</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>85</v>
@@ -5617,76 +5587,76 @@
         <v>63</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A98" s="18" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D98" s="16" t="s">
-        <v>26</v>
+      <c r="D98" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>26</v>
+      <c r="D99" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>85</v>
@@ -5695,114 +5665,114 @@
         <v>10</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="18" t="s">
-        <v>64</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>340</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>304</v>
+        <v>400</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H102" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>305</v>
+        <v>400</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>346</v>
+      <c r="A103" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>347</v>
+        <v>400</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A104" s="18" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>85</v>
@@ -5811,90 +5781,90 @@
         <v>10</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="18" t="s">
-        <v>307</v>
+      <c r="A105" t="s">
+        <v>342</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>10</v>
+      <c r="D105" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>308</v>
+        <v>400</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>10</v>
+        <v>122</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I106" s="14" t="s">
-        <v>309</v>
+        <v>400</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>348</v>
+      <c r="A107" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E107" s="9" t="s">
@@ -5904,21 +5874,21 @@
         <v>11</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>349</v>
+        <v>400</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="18" t="s">
-        <v>133</v>
+      <c r="A108" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>122</v>
@@ -5936,23 +5906,23 @@
         <v>123</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>134</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="18" t="s">
-        <v>121</v>
+      <c r="A109" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D109" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E109" s="9" t="s">
@@ -5962,26 +5932,26 @@
         <v>11</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="H109" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>124</v>
+        <v>400</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
-        <v>381</v>
+      <c r="A110" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E110" s="9" t="s">
@@ -5991,13 +5961,13 @@
         <v>11</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="H110" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>382</v>
+        <v>400</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -6005,7 +5975,7 @@
         <v>317</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>95</v>
@@ -6020,21 +5990,21 @@
         <v>11</v>
       </c>
       <c r="G111" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I111" s="14" t="s">
         <v>318</v>
-      </c>
-      <c r="H111" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I111" s="14" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>95</v>
@@ -6049,21 +6019,21 @@
         <v>11</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>95</v>
@@ -6078,21 +6048,21 @@
         <v>11</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H113" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>323</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>95</v>
@@ -6107,140 +6077,140 @@
         <v>11</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>410</v>
+      <c r="A115" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>411</v>
+        <v>400</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>413</v>
+        <v>400</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="33" t="s">
-        <v>125</v>
+      <c r="A117" t="s">
+        <v>331</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H117" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="33" t="s">
-        <v>129</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>332</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>40</v>
+        <v>122</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H118" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>26</v>
@@ -6251,25 +6221,26 @@
       <c r="F119" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>123</v>
+      <c r="G119" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>338</v>
+        <v>400</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>26</v>
@@ -6280,22 +6251,23 @@
       <c r="F120" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>123</v>
+      <c r="G120" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="H120" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>340</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J120" s="6"/>
     </row>
     <row r="121" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="18" t="s">
-        <v>131</v>
+      <c r="A121" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>119</v>
@@ -6310,22 +6282,22 @@
         <v>11</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="H121" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J121" s="6"/>
     </row>
-    <row r="122" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="30" t="s">
-        <v>28</v>
+    <row r="122" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>119</v>
@@ -6340,22 +6312,22 @@
         <v>11</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="J122" s="6"/>
     </row>
-    <row r="123" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="30" t="s">
-        <v>30</v>
+    <row r="123" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>119</v>
@@ -6370,13 +6342,13 @@
         <v>11</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="J123" s="6"/>
     </row>
@@ -6385,7 +6357,7 @@
         <v>264</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>119</v>
@@ -6400,22 +6372,22 @@
         <v>11</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J124" s="6"/>
     </row>
     <row r="125" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A125" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>119</v>
@@ -6430,22 +6402,22 @@
         <v>11</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J125" s="6"/>
     </row>
     <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>119</v>
@@ -6460,22 +6432,22 @@
         <v>11</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>119</v>
@@ -6490,22 +6462,22 @@
         <v>11</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>119</v>
@@ -6520,22 +6492,22 @@
         <v>11</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H128" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>119</v>
@@ -6550,22 +6522,22 @@
         <v>11</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H129" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I129" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="18" t="s">
-        <v>288</v>
-      </c>
       <c r="B130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>119</v>
@@ -6580,442 +6552,448 @@
         <v>11</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H130" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J130" s="6"/>
     </row>
-    <row r="131" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C131" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H133" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H134" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H136" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I136" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H137" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I137" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H138" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H139" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H140" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H141" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H142" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>321</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="H131" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" s="16" t="s">
+      <c r="D143" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>322</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="H132" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E133" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H133" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E134" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H134" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="D144" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H135" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H136" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I136" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E137" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H137" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I137" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E138" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H138" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I138" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="J138" s="6"/>
-    </row>
-    <row r="139" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H139" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I139" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E140" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H140" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I140" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H141" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I141" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H142" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="J142" s="6"/>
-    </row>
-    <row r="143" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H143" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="J143" s="6"/>
-    </row>
-    <row r="144" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E144" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="16" t="s">
-        <v>239</v>
+      <c r="E144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J144" s="6"/>
-    </row>
-    <row r="145" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>119</v>
@@ -7033,10 +7011,10 @@
         <v>24</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -7045,145 +7023,145 @@
     </row>
     <row r="146" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C146" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D146" s="15" t="s">
-        <v>10</v>
+      <c r="D146" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G146" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I146" s="14" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>328</v>
+    <row r="147" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="29" t="s">
+        <v>276</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C147" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D147" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>24</v>
+      <c r="D147" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I147" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-    </row>
-    <row r="148" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>329</v>
+        <v>400</v>
+      </c>
+      <c r="I147" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+      <c r="M147" s="24"/>
+    </row>
+    <row r="148" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="29" t="s">
+        <v>310</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>24</v>
+        <v>372</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="26" t="s">
+        <v>311</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I148" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-    </row>
-    <row r="149" spans="1:13" ht="192" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>330</v>
+        <v>400</v>
+      </c>
+      <c r="I148" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+    </row>
+    <row r="149" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="29" t="s">
+        <v>306</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>24</v>
+        <v>372</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I149" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
+        <v>400</v>
+      </c>
+      <c r="I149" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
     </row>
     <row r="150" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>119</v>
+        <v>372</v>
       </c>
       <c r="D150" s="26" t="s">
         <v>26</v>
@@ -7195,13 +7173,13 @@
         <v>11</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I150" s="36" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="J150" s="24"/>
       <c r="K150" s="24"/>
@@ -7209,32 +7187,32 @@
       <c r="M150" s="24"/>
     </row>
     <row r="151" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="29" t="s">
-        <v>315</v>
+      <c r="A151" t="s">
+        <v>371</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D151" s="26" t="s">
-        <v>26</v>
+        <v>372</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="E151" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I151" s="36" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J151" s="24"/>
       <c r="K151" s="24"/>
@@ -7242,148 +7220,148 @@
       <c r="M151" s="24"/>
     </row>
     <row r="152" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="29" t="s">
-        <v>311</v>
+      <c r="A152" t="s">
+        <v>424</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>380</v>
+        <v>25</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>420</v>
       </c>
       <c r="D152" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E152" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="28" t="s">
+      <c r="E152" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I152" s="36" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="J152" s="24"/>
       <c r="K152" s="24"/>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
     </row>
-    <row r="153" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="29" t="s">
-        <v>312</v>
+    <row r="153" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>423</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>380</v>
+        <v>25</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>420</v>
       </c>
       <c r="D153" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E153" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="28" t="s">
+      <c r="E153" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>313</v>
+        <v>418</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I153" s="36" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="J153" s="24"/>
       <c r="K153" s="24"/>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
     </row>
-    <row r="154" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>10</v>
+      <c r="C154" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="E154" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>314</v>
+        <v>418</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I154" s="36" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J154" s="24"/>
       <c r="K154" s="24"/>
       <c r="L154" s="24"/>
       <c r="M154" s="24"/>
     </row>
-    <row r="155" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="D155" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E155" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="27" t="s">
-        <v>11</v>
+        <v>420</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H155" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I155" s="36" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J155" s="24"/>
       <c r="K155" s="24"/>
       <c r="L155" s="24"/>
       <c r="M155" s="24"/>
     </row>
-    <row r="156" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>432</v>
+    <row r="156" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="D156" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D156" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E156" s="27" t="s">
@@ -7392,128 +7370,128 @@
       <c r="F156" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G156" s="26" t="s">
-        <v>427</v>
+      <c r="G156" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H156" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I156" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="J156" s="24"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="24"/>
-      <c r="M156" s="24"/>
-    </row>
-    <row r="157" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>431</v>
+        <v>400</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" s="26" t="s">
-        <v>427</v>
+        <v>335</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H157" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I157" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="J157" s="24"/>
-      <c r="K157" s="24"/>
-      <c r="L157" s="24"/>
-      <c r="M157" s="24"/>
-    </row>
-    <row r="158" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>430</v>
+        <v>400</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A158" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>429</v>
+        <v>335</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" s="26" t="s">
-        <v>427</v>
+      <c r="E158" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H158" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I158" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="J158" s="24"/>
-      <c r="K158" s="24"/>
-      <c r="L158" s="24"/>
-      <c r="M158" s="24"/>
-    </row>
-    <row r="159" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A159" s="30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E159" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F159" s="27" t="s">
-        <v>11</v>
+        <v>396</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H159" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I159" s="14" t="s">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
     </row>
-    <row r="160" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="30" t="s">
-        <v>43</v>
+    <row r="160" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>341</v>
+        <v>25</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>26</v>
@@ -7525,61 +7503,53 @@
         <v>11</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-    </row>
-    <row r="161" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A161" s="30" t="s">
-        <v>44</v>
+        <v>400</v>
+      </c>
+      <c r="I160" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>341</v>
+        <v>25</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="G161" s="16" t="s">
-        <v>42</v>
+      <c r="E161" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I161" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-    </row>
-    <row r="162" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A162" s="30" t="s">
-        <v>45</v>
+        <v>400</v>
+      </c>
+      <c r="I161" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>341</v>
+        <v>25</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>10</v>
@@ -7588,60 +7558,60 @@
         <v>11</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H162" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-    </row>
-    <row r="163" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I162" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E163" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I163" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="33" t="s">
-        <v>51</v>
+        <v>400</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A164" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>26</v>
@@ -7656,167 +7626,76 @@
         <v>47</v>
       </c>
       <c r="H164" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I164" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="I164" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="18" t="s">
-        <v>67</v>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+    </row>
+    <row r="165" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
+      </c>
+      <c r="E165" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="H165" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I165" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A166" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E166" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G166" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H166" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H167" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I167" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-    </row>
-    <row r="168" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A168" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E168" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H168" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I168" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-    </row>
-    <row r="169" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E169" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I169" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L171" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L167" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDC969-BE0F-433C-ABDD-6C058BC7403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B552AA-FAD0-4B84-9FA7-CDA778E68996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$165</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="425">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1122,17 +1122,6 @@
 -pcropYourImageHeading,
 -pfolderName,
 -pfileName</t>
-  </si>
-  <si>
-    <t>Verify User Details Edit Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
-testEditImageView,
--paccountProfileHeading,
--pcropYourImageHeading,
--premoveProfileHeading
-</t>
   </si>
   <si>
     <t>Verify User Details Remove Image</t>
@@ -1792,16 +1781,6 @@
   </si>
   <si>
     <t>testdata-merchant.xlsx,withdrawnToUSDExternalBank</t>
-  </si>
-  <si>
-    <t>VerifyPreferencesDisplayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
-testPreferencesDisplayed,
--pdefaultAccount,
--pdefaultAccount1
-</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -2195,14 +2174,6 @@
     <t>Cogent Account</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDCogentAccount,
--pheading,
--pcogentNumber,
--pamount,
--pcode1</t>
-  </si>
-  <si>
     <t>testdata-merchant.xlsx,withdrawToUSDCogent</t>
   </si>
   <si>
@@ -2248,6 +2219,15 @@
 testExportSelectedTransactionLastMonth,
 -pheading,
 -pnotificationText</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccount,
+-pheading,
+-pcogentNumber,
+-pamount,
+-pmessage,
+-pcode1</t>
   </si>
 </sst>
 </file>
@@ -2757,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2812,7 +2792,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>81</v>
@@ -2857,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -2866,7 +2846,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>95</v>
@@ -2884,12 +2864,12 @@
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -2907,18 +2887,18 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>82</v>
@@ -2936,7 +2916,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
@@ -2944,7 +2924,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>82</v>
@@ -2962,7 +2942,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -2973,7 +2953,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>82</v>
@@ -3002,7 +2982,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>82</v>
@@ -3028,10 +3008,10 @@
     </row>
     <row r="10" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>82</v>
@@ -3049,7 +3029,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -3060,7 +3040,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>82</v>
@@ -3078,7 +3058,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
@@ -3089,7 +3069,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>82</v>
@@ -3115,10 +3095,10 @@
     </row>
     <row r="13" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>82</v>
@@ -3136,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
@@ -3147,7 +3127,7 @@
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>83</v>
@@ -3176,7 +3156,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>83</v>
@@ -3200,10 +3180,10 @@
     </row>
     <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>83</v>
@@ -3221,7 +3201,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -3230,7 +3210,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>83</v>
@@ -3257,7 +3237,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>84</v>
@@ -3283,7 +3263,7 @@
         <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>84</v>
@@ -3309,7 +3289,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>84</v>
@@ -3332,10 +3312,10 @@
     </row>
     <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>84</v>
@@ -3353,7 +3333,7 @@
         <v>58</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
@@ -3361,7 +3341,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>84</v>
@@ -3387,7 +3367,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>119</v>
@@ -3405,7 +3385,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>79</v>
@@ -3416,7 +3396,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>119</v>
@@ -3434,7 +3414,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>91</v>
@@ -3445,7 +3425,7 @@
         <v>135</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>137</v>
@@ -3463,7 +3443,7 @@
         <v>138</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>139</v>
@@ -3474,7 +3454,7 @@
         <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>117</v>
@@ -3492,7 +3472,7 @@
         <v>118</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>140</v>
@@ -3503,7 +3483,7 @@
         <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>141</v>
@@ -3521,7 +3501,7 @@
         <v>142</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>143</v>
@@ -3532,7 +3512,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>232</v>
@@ -3550,7 +3530,7 @@
         <v>227</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>228</v>
@@ -3562,7 +3542,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>232</v>
@@ -3580,7 +3560,7 @@
         <v>227</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>229</v>
@@ -3592,7 +3572,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>232</v>
@@ -3610,7 +3590,7 @@
         <v>227</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>230</v>
@@ -3622,7 +3602,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>232</v>
@@ -3640,7 +3620,7 @@
         <v>227</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>231</v>
@@ -3652,7 +3632,7 @@
         <v>233</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>232</v>
@@ -3670,7 +3650,7 @@
         <v>227</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>234</v>
@@ -3679,7 +3659,7 @@
     </row>
     <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
@@ -3700,16 +3680,16 @@
         <v>227</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>25</v>
@@ -3730,10 +3710,10 @@
         <v>113</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J34" s="6"/>
     </row>
@@ -3742,7 +3722,7 @@
         <v>144</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>141</v>
@@ -3760,7 +3740,7 @@
         <v>145</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>146</v>
@@ -3771,7 +3751,7 @@
         <v>148</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>141</v>
@@ -3789,7 +3769,7 @@
         <v>147</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>169</v>
@@ -3800,7 +3780,7 @@
         <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>141</v>
@@ -3818,7 +3798,7 @@
         <v>150</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>170</v>
@@ -3829,7 +3809,7 @@
         <v>151</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>141</v>
@@ -3847,7 +3827,7 @@
         <v>155</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>168</v>
@@ -3858,7 +3838,7 @@
         <v>154</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>141</v>
@@ -3876,7 +3856,7 @@
         <v>156</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>171</v>
@@ -3887,7 +3867,7 @@
         <v>153</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>141</v>
@@ -3905,7 +3885,7 @@
         <v>152</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>167</v>
@@ -3916,7 +3896,7 @@
         <v>157</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>141</v>
@@ -3934,7 +3914,7 @@
         <v>158</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>166</v>
@@ -3942,10 +3922,10 @@
     </row>
     <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>141</v>
@@ -3960,13 +3940,13 @@
         <v>11</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -3974,7 +3954,7 @@
         <v>159</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>141</v>
@@ -3992,7 +3972,7 @@
         <v>160</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>161</v>
@@ -4003,7 +3983,7 @@
         <v>162</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>141</v>
@@ -4021,7 +4001,7 @@
         <v>147</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>165</v>
@@ -4032,7 +4012,7 @@
         <v>163</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>141</v>
@@ -4050,7 +4030,7 @@
         <v>155</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>164</v>
@@ -4061,7 +4041,7 @@
         <v>172</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>141</v>
@@ -4079,7 +4059,7 @@
         <v>152</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>174</v>
@@ -4090,7 +4070,7 @@
         <v>173</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>141</v>
@@ -4108,7 +4088,7 @@
         <v>150</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>175</v>
@@ -4119,7 +4099,7 @@
         <v>176</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>141</v>
@@ -4137,7 +4117,7 @@
         <v>156</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>177</v>
@@ -4148,7 +4128,7 @@
         <v>178</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>141</v>
@@ -4166,7 +4146,7 @@
         <v>158</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>179</v>
@@ -4177,7 +4157,7 @@
         <v>188</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>141</v>
@@ -4195,10 +4175,10 @@
         <v>189</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4206,7 +4186,7 @@
         <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>141</v>
@@ -4224,10 +4204,10 @@
         <v>27</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4235,7 +4215,7 @@
         <v>237</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>235</v>
@@ -4253,7 +4233,7 @@
         <v>236</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>238</v>
@@ -4265,7 +4245,7 @@
         <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>141</v>
@@ -4283,10 +4263,10 @@
         <v>182</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4294,7 +4274,7 @@
         <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>141</v>
@@ -4312,10 +4292,10 @@
         <v>181</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4323,7 +4303,7 @@
         <v>183</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>141</v>
@@ -4341,10 +4321,10 @@
         <v>184</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4352,7 +4332,7 @@
         <v>185</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>141</v>
@@ -4370,7 +4350,7 @@
         <v>186</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>187</v>
@@ -4378,10 +4358,10 @@
     </row>
     <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>141</v>
@@ -4399,10 +4379,10 @@
         <v>186</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4410,7 +4390,7 @@
         <v>191</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>197</v>
@@ -4428,7 +4408,7 @@
         <v>190</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>199</v>
@@ -4439,7 +4419,7 @@
         <v>192</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>197</v>
@@ -4457,7 +4437,7 @@
         <v>190</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>198</v>
@@ -4465,10 +4445,10 @@
     </row>
     <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>197</v>
@@ -4486,10 +4466,10 @@
         <v>190</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4497,7 +4477,7 @@
         <v>194</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>197</v>
@@ -4515,7 +4495,7 @@
         <v>190</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>196</v>
@@ -4526,7 +4506,7 @@
         <v>193</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>197</v>
@@ -4544,7 +4524,7 @@
         <v>190</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>195</v>
@@ -4552,10 +4532,10 @@
     </row>
     <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A63" s="37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>197</v>
@@ -4573,18 +4553,18 @@
         <v>190</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>197</v>
@@ -4602,18 +4582,18 @@
         <v>190</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>197</v>
@@ -4631,18 +4611,18 @@
         <v>190</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>197</v>
@@ -4660,18 +4640,18 @@
         <v>190</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>197</v>
@@ -4689,18 +4669,18 @@
         <v>190</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>197</v>
@@ -4718,10 +4698,10 @@
         <v>190</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="144" x14ac:dyDescent="0.3">
@@ -4729,7 +4709,7 @@
         <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>197</v>
@@ -4747,7 +4727,7 @@
         <v>190</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>209</v>
@@ -4758,7 +4738,7 @@
         <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>98</v>
@@ -4776,10 +4756,10 @@
         <v>99</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4787,7 +4767,7 @@
         <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>98</v>
@@ -4805,10 +4785,10 @@
         <v>106</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4816,7 +4796,7 @@
         <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>98</v>
@@ -4834,10 +4814,10 @@
         <v>102</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.3">
@@ -4845,7 +4825,7 @@
         <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>98</v>
@@ -4863,18 +4843,18 @@
         <v>104</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>98</v>
@@ -4892,18 +4872,18 @@
         <v>100</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>98</v>
@@ -4921,10 +4901,10 @@
         <v>109</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -4932,7 +4912,7 @@
         <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>98</v>
@@ -4950,10 +4930,10 @@
         <v>108</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
@@ -4961,7 +4941,7 @@
         <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>98</v>
@@ -4973,16 +4953,16 @@
         <v>11</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -4990,7 +4970,7 @@
         <v>210</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>122</v>
@@ -5008,7 +4988,7 @@
         <v>123</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>211</v>
@@ -5019,7 +4999,7 @@
         <v>32</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>119</v>
@@ -5037,7 +5017,7 @@
         <v>33</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I79" s="14" t="s">
         <v>120</v>
@@ -5067,10 +5047,10 @@
         <v>212</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J80" s="6"/>
     </row>
@@ -5097,10 +5077,10 @@
         <v>212</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J81" s="6"/>
     </row>
@@ -5127,10 +5107,10 @@
         <v>212</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="J82" s="6"/>
     </row>
@@ -5157,10 +5137,10 @@
         <v>212</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J83" s="6"/>
     </row>
@@ -5187,10 +5167,10 @@
         <v>212</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J84" s="6"/>
     </row>
@@ -5199,7 +5179,7 @@
         <v>246</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>119</v>
@@ -5217,7 +5197,7 @@
         <v>247</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I85" s="14" t="s">
         <v>249</v>
@@ -5229,7 +5209,7 @@
         <v>248</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>119</v>
@@ -5247,7 +5227,7 @@
         <v>247</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I86" s="14" t="s">
         <v>250</v>
@@ -5259,7 +5239,7 @@
         <v>218</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>219</v>
@@ -5277,7 +5257,7 @@
         <v>220</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>221</v>
@@ -5293,7 +5273,7 @@
         <v>222</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>219</v>
@@ -5311,7 +5291,7 @@
         <v>220</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I88" s="14" t="s">
         <v>223</v>
@@ -5327,7 +5307,7 @@
         <v>224</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>219</v>
@@ -5345,7 +5325,7 @@
         <v>220</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I89" s="14" t="s">
         <v>225</v>
@@ -5361,7 +5341,7 @@
         <v>55</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>226</v>
@@ -5379,10 +5359,10 @@
         <v>56</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
@@ -5395,7 +5375,7 @@
         <v>34</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>122</v>
@@ -5413,7 +5393,7 @@
         <v>203</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I91" s="14" t="s">
         <v>204</v>
@@ -5424,7 +5404,7 @@
         <v>206</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>122</v>
@@ -5442,7 +5422,7 @@
         <v>203</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I92" s="14" t="s">
         <v>207</v>
@@ -5453,7 +5433,7 @@
         <v>35</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>122</v>
@@ -5471,7 +5451,7 @@
         <v>203</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I93" s="14" t="s">
         <v>205</v>
@@ -5482,7 +5462,7 @@
         <v>253</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>85</v>
@@ -5500,7 +5480,7 @@
         <v>63</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I94" s="14" t="s">
         <v>254</v>
@@ -5511,7 +5491,7 @@
         <v>255</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>85</v>
@@ -5529,7 +5509,7 @@
         <v>63</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I95" s="14" t="s">
         <v>256</v>
@@ -5540,7 +5520,7 @@
         <v>257</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>85</v>
@@ -5558,47 +5538,47 @@
         <v>63</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I96" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D97" s="16" t="s">
-        <v>26</v>
+      <c r="D97" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A98" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>85</v>
@@ -5610,24 +5590,24 @@
         <v>11</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>85</v>
@@ -5636,177 +5616,177 @@
         <v>10</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>299</v>
+        <v>396</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="18" t="s">
-        <v>66</v>
+      <c r="A100" t="s">
+        <v>338</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>300</v>
+        <v>396</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>340</v>
+      <c r="A101" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>26</v>
+      <c r="D101" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>341</v>
+        <v>396</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H102" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I102" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I102" s="12" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A103" s="18" t="s">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>303</v>
+        <v>396</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="18" t="s">
-        <v>69</v>
+      <c r="A104" t="s">
+        <v>340</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>342</v>
+      <c r="A105" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D105" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E105" s="9" t="s">
@@ -5816,21 +5796,21 @@
         <v>11</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>343</v>
+        <v>396</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>122</v>
@@ -5848,23 +5828,23 @@
         <v>123</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="18" t="s">
-        <v>121</v>
+      <c r="A107" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E107" s="9" t="s">
@@ -5874,26 +5854,26 @@
         <v>11</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>124</v>
+        <v>396</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>373</v>
+      <c r="A108" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D108" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E108" s="9" t="s">
@@ -5903,21 +5883,21 @@
         <v>11</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>374</v>
+        <v>396</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>95</v>
@@ -5932,21 +5912,21 @@
         <v>11</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H109" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>95</v>
@@ -5961,21 +5941,21 @@
         <v>11</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H110" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>95</v>
@@ -5990,21 +5970,21 @@
         <v>11</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H111" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I111" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="I111" s="14" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>95</v>
@@ -6019,140 +5999,140 @@
         <v>11</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>402</v>
+      <c r="A113" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="H113" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>26</v>
+        <v>126</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>405</v>
+        <v>396</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="33" t="s">
-        <v>125</v>
+      <c r="A115" t="s">
+        <v>329</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>21</v>
+        <v>122</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="33" t="s">
-        <v>129</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>330</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>40</v>
+        <v>122</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>122</v>
+        <v>9</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>26</v>
@@ -6163,25 +6143,26 @@
       <c r="F117" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>123</v>
+      <c r="G117" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="H117" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>332</v>
+        <v>396</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>122</v>
+        <v>9</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>26</v>
@@ -6192,22 +6173,23 @@
       <c r="F118" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>123</v>
+      <c r="G118" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="H118" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>334</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="18" t="s">
-        <v>131</v>
+      <c r="A119" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>119</v>
@@ -6222,22 +6204,22 @@
         <v>11</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J119" s="6"/>
     </row>
-    <row r="120" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="30" t="s">
-        <v>28</v>
+    <row r="120" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>119</v>
@@ -6252,22 +6234,22 @@
         <v>11</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="H120" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="J120" s="6"/>
     </row>
-    <row r="121" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="30" t="s">
-        <v>30</v>
+    <row r="121" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>119</v>
@@ -6282,22 +6264,22 @@
         <v>11</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="H121" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="J121" s="6"/>
     </row>
     <row r="122" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A122" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>119</v>
@@ -6312,10 +6294,10 @@
         <v>11</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I122" s="14" t="s">
         <v>267</v>
@@ -6327,7 +6309,7 @@
         <v>263</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>119</v>
@@ -6342,10 +6324,10 @@
         <v>11</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>268</v>
@@ -6357,7 +6339,7 @@
         <v>264</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>119</v>
@@ -6372,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>269</v>
@@ -6384,10 +6366,10 @@
     </row>
     <row r="125" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A125" s="18" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>119</v>
@@ -6402,22 +6384,22 @@
         <v>11</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="J125" s="6"/>
     </row>
     <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>119</v>
@@ -6432,22 +6414,22 @@
         <v>11</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>119</v>
@@ -6462,22 +6444,22 @@
         <v>11</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>119</v>
@@ -6492,25 +6474,25 @@
         <v>11</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H128" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>26</v>
@@ -6522,25 +6504,25 @@
         <v>11</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="H129" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>26</v>
@@ -6552,142 +6534,142 @@
         <v>11</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="H130" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="J130" s="6"/>
     </row>
     <row r="131" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>26</v>
+      <c r="D131" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E131" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>236</v>
       </c>
       <c r="H131" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D132" s="16" t="s">
-        <v>26</v>
+      <c r="D132" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E132" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="27" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G132" s="16" t="s">
         <v>236</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>10</v>
+      <c r="D133" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E133" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>236</v>
       </c>
       <c r="H133" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="J133" s="6"/>
     </row>
     <row r="134" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>10</v>
+      <c r="D134" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E134" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G134" s="16" t="s">
         <v>236</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="J134" s="6"/>
     </row>
     <row r="135" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>235</v>
@@ -6705,10 +6687,10 @@
         <v>236</v>
       </c>
       <c r="H135" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="J135" s="6"/>
     </row>
@@ -6717,7 +6699,7 @@
         <v>278</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>235</v>
@@ -6735,7 +6717,7 @@
         <v>236</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I136" s="14" t="s">
         <v>281</v>
@@ -6744,10 +6726,10 @@
     </row>
     <row r="137" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>235</v>
@@ -6765,19 +6747,19 @@
         <v>236</v>
       </c>
       <c r="H137" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="J137" s="6"/>
     </row>
     <row r="138" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>235</v>
@@ -6795,19 +6777,19 @@
         <v>236</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="J138" s="6"/>
     </row>
     <row r="139" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A139" s="18" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>235</v>
@@ -6825,19 +6807,19 @@
         <v>236</v>
       </c>
       <c r="H139" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="J139" s="6"/>
     </row>
     <row r="140" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>235</v>
@@ -6855,79 +6837,85 @@
         <v>236</v>
       </c>
       <c r="H140" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="J140" s="6"/>
     </row>
-    <row r="141" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
-        <v>245</v>
+    <row r="141" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>319</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>236</v>
+        <v>9</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
-        <v>241</v>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>320</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>236</v>
+        <v>9</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="J142" s="6"/>
-    </row>
-    <row r="143" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+    </row>
+    <row r="143" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>321</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C143" s="26" t="s">
         <v>119</v>
@@ -6945,10 +6933,10 @@
         <v>24</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -6960,109 +6948,109 @@
         <v>322</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C144" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D144" s="15" t="s">
-        <v>10</v>
+      <c r="D144" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
     </row>
-    <row r="145" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>323</v>
+    <row r="145" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="29" t="s">
+        <v>274</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D145" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>24</v>
+      <c r="D145" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I145" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-    </row>
-    <row r="146" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>324</v>
+        <v>396</v>
+      </c>
+      <c r="I145" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+    </row>
+    <row r="146" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="29" t="s">
+        <v>308</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D146" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>24</v>
+        <v>370</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>309</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I146" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
+        <v>396</v>
+      </c>
+      <c r="I146" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
     </row>
     <row r="147" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="D147" s="26" t="s">
         <v>26</v>
@@ -7074,13 +7062,13 @@
         <v>11</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I147" s="36" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="J147" s="24"/>
       <c r="K147" s="24"/>
@@ -7089,13 +7077,13 @@
     </row>
     <row r="148" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="29" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D148" s="26" t="s">
         <v>26</v>
@@ -7107,13 +7095,13 @@
         <v>11</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I148" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J148" s="24"/>
       <c r="K148" s="24"/>
@@ -7121,32 +7109,32 @@
       <c r="M148" s="24"/>
     </row>
     <row r="149" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="29" t="s">
-        <v>306</v>
+      <c r="A149" t="s">
+        <v>369</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>26</v>
+        <v>370</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I149" s="36" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J149" s="24"/>
       <c r="K149" s="24"/>
@@ -7154,260 +7142,260 @@
       <c r="M149" s="24"/>
     </row>
     <row r="150" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="29" t="s">
-        <v>307</v>
+      <c r="A150" t="s">
+        <v>419</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>372</v>
+        <v>9</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="D150" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E150" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="28" t="s">
+      <c r="E150" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I150" s="36" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="J150" s="24"/>
       <c r="K150" s="24"/>
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
     </row>
-    <row r="151" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="28" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I151" s="36" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="J151" s="24"/>
       <c r="K151" s="24"/>
       <c r="L151" s="24"/>
       <c r="M151" s="24"/>
     </row>
-    <row r="152" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>417</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="H152" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I152" s="36" t="s">
         <v>424</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E152" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="H152" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I152" s="36" t="s">
-        <v>415</v>
       </c>
       <c r="J152" s="24"/>
       <c r="K152" s="24"/>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
     </row>
-    <row r="153" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E153" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="27" t="s">
-        <v>11</v>
+        <v>415</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I153" s="36" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J153" s="24"/>
       <c r="K153" s="24"/>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
     </row>
-    <row r="154" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>422</v>
+    <row r="154" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E154" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" s="26" t="s">
-        <v>418</v>
+        <v>333</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I154" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="J154" s="24"/>
-      <c r="K154" s="24"/>
-      <c r="L154" s="24"/>
-      <c r="M154" s="24"/>
-    </row>
-    <row r="155" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>421</v>
+        <v>396</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="D155" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H155" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A156" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D156" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="H155" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I155" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="J155" s="24"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="24"/>
-      <c r="M155" s="24"/>
-    </row>
-    <row r="156" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="E156" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F156" s="27" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="G156" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H156" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I156" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
     </row>
-    <row r="157" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A157" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E157" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F157" s="27" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="G157" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H157" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I157" s="7" t="s">
         <v>395</v>
@@ -7417,201 +7405,197 @@
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
     </row>
-    <row r="158" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A158" s="30" t="s">
-        <v>44</v>
+    <row r="158" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C158" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H158" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I158" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D158" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="G158" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H158" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-    </row>
-    <row r="159" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A159" s="30" t="s">
-        <v>45</v>
+    </row>
+    <row r="159" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>335</v>
+        <v>9</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="G159" s="16" t="s">
-        <v>42</v>
+      <c r="E159" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H159" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-    </row>
-    <row r="160" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="I159" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E160" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="27" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="18" t="s">
-        <v>67</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>68</v>
+      <c r="E161" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I161" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="33" t="s">
-        <v>52</v>
+        <v>396</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A162" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E162" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H162" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I162" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E163" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-    </row>
-    <row r="164" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A164" s="30" t="s">
-        <v>46</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>26</v>
@@ -7626,76 +7610,14 @@
         <v>47</v>
       </c>
       <c r="H164" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D165" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E165" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H165" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I165" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D166" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E166" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H166" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>375</v>
+        <v>396</v>
+      </c>
+      <c r="I164" s="14" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L167" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L165" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B552AA-FAD0-4B84-9FA7-CDA778E68996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF761B97-FEB9-43A0-91DA-588BB85CD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$166</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="428">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2228,6 +2228,32 @@
 -pamount,
 -pmessage,
 -pcode1</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLogin,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pcode,
+-psecurityKey,
+-pattribute</t>
+  </si>
+  <si>
+    <t>Merchant Login View</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLoginView,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pcode,
+-psecurityKey,
+-pattribute,
+-pmessage</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2422,6 +2448,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2737,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2792,7 +2821,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>81</v>
@@ -2846,7 +2875,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>95</v>
@@ -2898,7 +2927,7 @@
         <v>358</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>82</v>
@@ -2919,12 +2948,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>82</v>
@@ -2942,15 +2971,15 @@
         <v>14</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>88</v>
+    <row r="8" spans="1:11" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>426</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -2959,30 +2988,30 @@
         <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>70</v>
+      <c r="H8" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>82</v>
@@ -2999,48 +3028,48 @@
       <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>71</v>
+      <c r="H9" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>351</v>
+    <row r="10" spans="1:11" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>15</v>
+    <row r="11" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>351</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>82</v>
@@ -3057,265 +3086,268 @@
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="I11" s="17"/>
+      <c r="H11" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>342</v>
+    <row r="13" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>407</v>
+      <c r="H13" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>90</v>
+    <row r="14" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>342</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>92</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>407</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>20</v>
+    <row r="15" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>343</v>
+      <c r="H15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>22</v>
+    <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>343</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>345</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>84</v>
@@ -3333,70 +3365,67 @@
         <v>58</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>345</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>119</v>
@@ -3416,48 +3445,48 @@
       <c r="H24" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>26</v>
@@ -3469,80 +3498,79 @@
         <v>11</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="D28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="H28" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+    <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>37</v>
-      </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>232</v>
@@ -3563,16 +3591,16 @@
         <v>396</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>232</v>
@@ -3593,28 +3621,28 @@
         <v>396</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>232</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>227</v>
@@ -3623,28 +3651,28 @@
         <v>396</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>233</v>
+      <c r="A32" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>232</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>227</v>
@@ -3653,13 +3681,13 @@
         <v>396</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>349</v>
+      <c r="A33" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
@@ -3683,75 +3711,76 @@
         <v>396</v>
       </c>
       <c r="I33" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="D35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="H35" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>141</v>
@@ -3766,21 +3795,21 @@
         <v>11</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>141</v>
@@ -3795,21 +3824,21 @@
         <v>11</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
-        <v>151</v>
+      <c r="A38" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>141</v>
@@ -3824,21 +3853,21 @@
         <v>11</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>154</v>
+      <c r="A39" s="38" t="s">
+        <v>151</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>141</v>
@@ -3853,50 +3882,50 @@
         <v>11</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>141</v>
@@ -3911,108 +3940,108 @@
         <v>21</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>353</v>
+      <c r="A42" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E42" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>354</v>
+        <v>158</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>355</v>
+      <c r="I42" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
-        <v>159</v>
+      <c r="A43" t="s">
+        <v>353</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="H43" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>161</v>
+      <c r="I43" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E44" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>141</v>
@@ -4027,79 +4056,79 @@
         <v>11</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H45" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E46" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H46" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E47" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H47" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>141</v>
@@ -4114,79 +4143,79 @@
         <v>11</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H49" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
-        <v>188</v>
+      <c r="A50" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>292</v>
+      <c r="I50" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>141</v>
@@ -4201,80 +4230,80 @@
         <v>11</v>
       </c>
       <c r="G51" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I51" s="14" t="s">
+      <c r="H52" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I52" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+    <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="16" t="s">
+      <c r="D53" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H52" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I52" s="14" t="s">
+      <c r="H53" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>180</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>141</v>
@@ -4289,21 +4318,21 @@
         <v>11</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H54" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
-        <v>183</v>
+      <c r="A55" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>141</v>
@@ -4318,21 +4347,21 @@
         <v>11</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H55" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>141</v>
@@ -4347,33 +4376,33 @@
         <v>11</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H56" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>347</v>
+      <c r="A57" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>186</v>
@@ -4382,18 +4411,18 @@
         <v>396</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>348</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>191</v>
+      <c r="A58" t="s">
+        <v>347</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>10</v>
@@ -4402,30 +4431,30 @@
         <v>11</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H58" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>199</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E59" s="27" t="s">
         <v>11</v>
@@ -4440,15 +4469,15 @@
         <v>396</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>360</v>
+      <c r="A60" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>197</v>
@@ -4469,15 +4498,15 @@
         <v>396</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>361</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
-        <v>194</v>
+      <c r="A61" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>197</v>
@@ -4498,15 +4527,15 @@
         <v>396</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>196</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>197</v>
@@ -4527,15 +4556,15 @@
         <v>396</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
-        <v>362</v>
+      <c r="A63" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>197</v>
@@ -4556,27 +4585,27 @@
         <v>396</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>363</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>190</v>
@@ -4585,15 +4614,15 @@
         <v>396</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>197</v>
@@ -4614,27 +4643,27 @@
         <v>396</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>384</v>
+      <c r="A66" s="37" t="s">
+        <v>366</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>190</v>
@@ -4643,15 +4672,15 @@
         <v>396</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>197</v>
@@ -4672,15 +4701,15 @@
         <v>396</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>197</v>
@@ -4701,27 +4730,27 @@
         <v>396</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
-        <v>208</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="35" t="s">
-        <v>10</v>
+      <c r="D69" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>190</v>
@@ -4729,190 +4758,190 @@
       <c r="H69" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
+    <row r="71" spans="1:10" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="18" t="s">
-        <v>105</v>
-      </c>
       <c r="B71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H71" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I71" s="20" t="s">
-        <v>324</v>
+      <c r="I71" s="5" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H72" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I72" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H73" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>408</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H74" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I74" s="23" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I74" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H75" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
-        <v>107</v>
+      <c r="I75" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>98</v>
@@ -4927,109 +4956,108 @@
         <v>11</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H76" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="E78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H77" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I77" s="5" t="s">
+      <c r="H78" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="18" t="s">
+    <row r="79" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="D79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H78" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I78" s="5" t="s">
+      <c r="H79" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J79" s="6"/>
     </row>
     <row r="80" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>119</v>
@@ -5044,22 +5072,22 @@
         <v>11</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="H80" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
-        <v>214</v>
+      <c r="A81" s="30" t="s">
+        <v>213</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>119</v>
@@ -5080,16 +5108,16 @@
         <v>396</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>119</v>
@@ -5110,16 +5138,16 @@
         <v>396</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>119</v>
@@ -5140,16 +5168,16 @@
         <v>396</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>119</v>
@@ -5170,46 +5198,46 @@
         <v>396</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>10</v>
+      <c r="D85" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E85" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="H85" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>249</v>
+        <v>423</v>
       </c>
       <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>119</v>
@@ -5230,50 +5258,46 @@
         <v>396</v>
       </c>
       <c r="I86" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I87" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="30" t="s">
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-    </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="B88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>219</v>
@@ -5294,7 +5318,7 @@
         <v>396</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -5304,10 +5328,10 @@
     </row>
     <row r="89" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>219</v>
@@ -5328,7 +5352,7 @@
         <v>396</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
@@ -5338,13 +5362,13 @@
     </row>
     <row r="90" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>26</v>
@@ -5356,13 +5380,13 @@
         <v>11</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="H90" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
@@ -5370,41 +5394,46 @@
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
     </row>
-    <row r="91" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+    </row>
+    <row r="92" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H91" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>206</v>
-      </c>
       <c r="B92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>122</v>
@@ -5425,15 +5454,15 @@
         <v>396</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
-        <v>35</v>
+      <c r="A93" t="s">
+        <v>206</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>122</v>
@@ -5454,44 +5483,44 @@
         <v>396</v>
       </c>
       <c r="I93" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I94" s="14" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H94" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>85</v>
@@ -5512,15 +5541,15 @@
         <v>396</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>85</v>
@@ -5541,44 +5570,44 @@
         <v>396</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>10</v>
+      <c r="D97" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H97" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I97" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="I97" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A98" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>85</v>
@@ -5590,7 +5619,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>63</v>
@@ -5598,16 +5627,16 @@
       <c r="H98" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I98" s="11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I98" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>85</v>
@@ -5616,10 +5645,10 @@
         <v>10</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>63</v>
@@ -5627,28 +5656,28 @@
       <c r="H99" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I99" s="12" t="s">
-        <v>298</v>
+      <c r="I99" s="11" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>338</v>
+      <c r="A100" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>63</v>
@@ -5656,28 +5685,28 @@
       <c r="H100" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I100" s="5" t="s">
-        <v>339</v>
+      <c r="I100" s="12" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="18" t="s">
-        <v>273</v>
+      <c r="A101" t="s">
+        <v>338</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>10</v>
+      <c r="D101" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>63</v>
@@ -5685,28 +5714,28 @@
       <c r="H101" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I101" s="14" t="s">
-        <v>299</v>
+      <c r="I101" s="5" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>63</v>
@@ -5714,28 +5743,28 @@
       <c r="H102" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>301</v>
+      <c r="I102" s="14" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A103" s="18" t="s">
-        <v>69</v>
+        <v>300</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>63</v>
@@ -5743,28 +5772,28 @@
       <c r="H103" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I103" s="14" t="s">
-        <v>302</v>
+      <c r="I103" s="12" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>340</v>
+      <c r="A104" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>63</v>
@@ -5773,44 +5802,44 @@
         <v>396</v>
       </c>
       <c r="I104" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>340</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I105" s="14" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H105" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>122</v>
@@ -5831,44 +5860,44 @@
         <v>396</v>
       </c>
       <c r="I106" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I107" s="5" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H107" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>95</v>
@@ -5889,15 +5918,15 @@
         <v>396</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>95</v>
@@ -5918,15 +5947,15 @@
         <v>396</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>95</v>
@@ -5947,15 +5976,15 @@
         <v>396</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>95</v>
@@ -5976,15 +6005,15 @@
         <v>396</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>400</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>95</v>
@@ -6005,44 +6034,44 @@
         <v>396</v>
       </c>
       <c r="I112" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I113" s="14" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="33" t="s">
+    <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D113" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H113" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="33" t="s">
-        <v>129</v>
-      </c>
       <c r="B114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>126</v>
@@ -6054,7 +6083,7 @@
         <v>11</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>127</v>
@@ -6063,44 +6092,44 @@
         <v>396</v>
       </c>
       <c r="I114" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>329</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H115" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>122</v>
@@ -6121,45 +6150,44 @@
         <v>396</v>
       </c>
       <c r="I116" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>330</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I117" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="18" t="s">
+    <row r="118" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H117" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="30" t="s">
-        <v>28</v>
-      </c>
       <c r="B118" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>119</v>
@@ -6174,22 +6202,22 @@
         <v>11</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="H118" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A119" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>119</v>
@@ -6204,22 +6232,22 @@
         <v>11</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H119" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J119" s="6"/>
     </row>
-    <row r="120" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="18" t="s">
-        <v>259</v>
+    <row r="120" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>119</v>
@@ -6234,22 +6262,22 @@
         <v>11</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="H120" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="J120" s="6"/>
     </row>
     <row r="121" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A121" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>119</v>
@@ -6270,16 +6298,16 @@
         <v>396</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J121" s="6"/>
     </row>
     <row r="122" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A122" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>119</v>
@@ -6300,16 +6328,16 @@
         <v>396</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J122" s="6"/>
     </row>
     <row r="123" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A123" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>119</v>
@@ -6330,16 +6358,16 @@
         <v>396</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J123" s="6"/>
     </row>
     <row r="124" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A124" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>119</v>
@@ -6360,16 +6388,16 @@
         <v>396</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J124" s="6"/>
     </row>
     <row r="125" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A125" s="18" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>119</v>
@@ -6390,16 +6418,16 @@
         <v>396</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="J125" s="6"/>
     </row>
     <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>119</v>
@@ -6420,16 +6448,16 @@
         <v>396</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>119</v>
@@ -6450,16 +6478,16 @@
         <v>396</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>119</v>
@@ -6480,19 +6508,19 @@
         <v>396</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>26</v>
@@ -6504,22 +6532,22 @@
         <v>11</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>235</v>
@@ -6540,28 +6568,28 @@
         <v>396</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J130" s="6"/>
     </row>
     <row r="131" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>10</v>
+      <c r="D131" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E131" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>236</v>
@@ -6570,16 +6598,16 @@
         <v>396</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>235</v>
@@ -6600,28 +6628,28 @@
         <v>396</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D133" s="16" t="s">
-        <v>26</v>
+      <c r="D133" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E133" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>236</v>
@@ -6630,16 +6658,16 @@
         <v>396</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="J133" s="6"/>
     </row>
     <row r="134" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>235</v>
@@ -6660,16 +6688,16 @@
         <v>396</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J134" s="6"/>
     </row>
     <row r="135" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>235</v>
@@ -6690,16 +6718,16 @@
         <v>396</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J135" s="6"/>
     </row>
     <row r="136" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>235</v>
@@ -6720,16 +6748,16 @@
         <v>396</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J136" s="6"/>
     </row>
     <row r="137" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>235</v>
@@ -6750,16 +6778,16 @@
         <v>396</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="J137" s="6"/>
     </row>
     <row r="138" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>235</v>
@@ -6780,16 +6808,16 @@
         <v>396</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J138" s="6"/>
     </row>
     <row r="139" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A139" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>235</v>
@@ -6810,16 +6838,16 @@
         <v>396</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>382</v>
+        <v>244</v>
       </c>
       <c r="J139" s="6"/>
     </row>
     <row r="140" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>235</v>
@@ -6840,61 +6868,58 @@
         <v>396</v>
       </c>
       <c r="I140" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H141" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I141" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>319</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H141" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I141" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-    </row>
-    <row r="142" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>320</v>
-      </c>
       <c r="B142" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C142" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D142" s="15" t="s">
-        <v>10</v>
+      <c r="D142" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G142" s="15" t="s">
         <v>24</v>
@@ -6903,7 +6928,7 @@
         <v>396</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
@@ -6912,22 +6937,22 @@
     </row>
     <row r="143" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C143" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D143" s="24" t="s">
-        <v>26</v>
+      <c r="D143" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>24</v>
@@ -6936,7 +6961,7 @@
         <v>396</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -6945,10 +6970,10 @@
     </row>
     <row r="144" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C144" s="26" t="s">
         <v>119</v>
@@ -6969,55 +6994,55 @@
         <v>396</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
     </row>
-    <row r="145" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="29" t="s">
-        <v>274</v>
+    <row r="145" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>322</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D145" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="26" t="s">
-        <v>275</v>
+      <c r="D145" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H145" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I145" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="J145" s="24"/>
-      <c r="K145" s="24"/>
-      <c r="L145" s="24"/>
-      <c r="M145" s="24"/>
+      <c r="I145" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
     </row>
     <row r="146" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="29" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>370</v>
+        <v>119</v>
       </c>
       <c r="D146" s="26" t="s">
         <v>26</v>
@@ -7029,13 +7054,13 @@
         <v>11</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="H146" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I146" s="36" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="J146" s="24"/>
       <c r="K146" s="24"/>
@@ -7044,10 +7069,10 @@
     </row>
     <row r="147" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="29" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C147" s="26" t="s">
         <v>370</v>
@@ -7062,13 +7087,13 @@
         <v>11</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="H147" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I147" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J147" s="24"/>
       <c r="K147" s="24"/>
@@ -7077,10 +7102,10 @@
     </row>
     <row r="148" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C148" s="26" t="s">
         <v>370</v>
@@ -7095,13 +7120,13 @@
         <v>11</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="H148" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I148" s="36" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="J148" s="24"/>
       <c r="K148" s="24"/>
@@ -7109,32 +7134,32 @@
       <c r="M148" s="24"/>
     </row>
     <row r="149" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>369</v>
+      <c r="A149" s="29" t="s">
+        <v>305</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C149" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="D149" s="16" t="s">
-        <v>10</v>
+      <c r="D149" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H149" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I149" s="36" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="J149" s="24"/>
       <c r="K149" s="24"/>
@@ -7143,43 +7168,43 @@
     </row>
     <row r="150" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="D150" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E150" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="27" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="H150" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I150" s="36" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="J150" s="24"/>
       <c r="K150" s="24"/>
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
     </row>
-    <row r="151" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" s="25" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>415</v>
@@ -7200,19 +7225,19 @@
         <v>396</v>
       </c>
       <c r="I151" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J151" s="24"/>
       <c r="K151" s="24"/>
       <c r="L151" s="24"/>
       <c r="M151" s="24"/>
     </row>
-    <row r="152" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" s="25" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>415</v>
@@ -7220,10 +7245,10 @@
       <c r="D152" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E152" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="28" t="s">
+      <c r="E152" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G152" s="26" t="s">
@@ -7233,31 +7258,31 @@
         <v>396</v>
       </c>
       <c r="I152" s="36" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="J152" s="24"/>
       <c r="K152" s="24"/>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
     </row>
-    <row r="153" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" s="25" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D153" s="16" t="s">
-        <v>10</v>
+      <c r="D153" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="E153" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G153" s="26" t="s">
         <v>414</v>
@@ -7266,52 +7291,52 @@
         <v>396</v>
       </c>
       <c r="I153" s="36" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="J153" s="24"/>
       <c r="K153" s="24"/>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
     </row>
-    <row r="154" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="30" t="s">
+    <row r="154" spans="1:13" s="25" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>416</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="H154" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I154" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
+      <c r="M154" s="24"/>
+    </row>
+    <row r="155" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E154" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H154" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I154" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-    </row>
-    <row r="155" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="30" t="s">
-        <v>43</v>
-      </c>
       <c r="B155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>333</v>
@@ -7331,32 +7356,32 @@
       <c r="H155" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I155" s="7" t="s">
-        <v>391</v>
+      <c r="I155" s="14" t="s">
+        <v>393</v>
       </c>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
     </row>
-    <row r="156" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A156" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>333</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E156" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F156" s="27" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="G156" s="16" t="s">
         <v>42</v>
@@ -7365,7 +7390,7 @@
         <v>396</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
@@ -7374,10 +7399,10 @@
     </row>
     <row r="157" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A157" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>333</v>
@@ -7398,77 +7423,81 @@
         <v>396</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
     </row>
-    <row r="158" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="33" t="s">
+    <row r="158" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A158" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="D158" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E158" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H158" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I158" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="B159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C159" s="19" t="s">
         <v>334</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
+      </c>
+      <c r="E159" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="H159" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I159" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="33" t="s">
-        <v>52</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>334</v>
@@ -7476,28 +7505,28 @@
       <c r="D160" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G160" s="16" t="s">
-        <v>47</v>
+      <c r="E160" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H160" s="20" t="s">
         <v>396</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C161" s="19" t="s">
         <v>334</v>
@@ -7509,7 +7538,7 @@
         <v>11</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G161" s="16" t="s">
         <v>47</v>
@@ -7517,32 +7546,28 @@
       <c r="H161" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I161" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-    </row>
-    <row r="162" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A162" s="30" t="s">
-        <v>46</v>
+      <c r="I161" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>334</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E162" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>47</v>
@@ -7551,19 +7576,19 @@
         <v>396</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
     </row>
-    <row r="163" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="33" t="s">
-        <v>50</v>
+    <row r="163" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A163" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C163" s="19" t="s">
         <v>334</v>
@@ -7584,15 +7609,19 @@
         <v>396</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C164" s="19" t="s">
         <v>334</v>
@@ -7612,12 +7641,41 @@
       <c r="H164" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="I164" s="14" t="s">
+      <c r="I164" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H165" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I165" s="14" t="s">
         <v>371</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L165" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L166" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_16_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC59D8-879B-4C6D-B76A-43EEE9AE43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096290B8-53A4-4853-9310-14221F09BC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$129</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="336">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -973,15 +973,7 @@
 -pquery</t>
   </si>
   <si>
-    <t>Verify Reserve History</t>
-  </si>
-  <si>
     <t>Verify PayOutHistory</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantActivityTest,
-testDashBoardFullReserveHistory,
--pheading</t>
   </si>
   <si>
     <t>Verify Reserve History Exports</t>
@@ -2171,28 +2163,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="53.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="41.88671875" customWidth="1"/>
-    <col min="12" max="12" width="41.44140625" customWidth="1"/>
+    <col min="1" max="1" width="76.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>79</v>
       </c>
@@ -2248,7 +2240,7 @@
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>66</v>
       </c>
@@ -2271,12 +2263,12 @@
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2297,10 +2289,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
@@ -2323,15 +2315,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2352,13 +2344,13 @@
         <v>14</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>73</v>
       </c>
@@ -2387,7 +2379,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>74</v>
       </c>
@@ -2416,9 +2408,9 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2439,13 +2431,13 @@
         <v>14</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -2468,13 +2460,13 @@
         <v>14</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
@@ -2503,12 +2495,12 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>68</v>
@@ -2526,18 +2518,18 @@
         <v>14</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>69</v>
@@ -2561,12 +2553,12 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>69</v>
@@ -2588,12 +2580,12 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>69</v>
@@ -2611,16 +2603,16 @@
         <v>18</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>69</v>
@@ -2642,12 +2634,12 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>70</v>
@@ -2668,12 +2660,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>70</v>
@@ -2694,12 +2686,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>70</v>
@@ -2720,12 +2712,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>70</v>
@@ -2743,15 +2735,15 @@
         <v>46</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>70</v>
@@ -2772,7 +2764,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>23</v>
       </c>
@@ -2795,13 +2787,13 @@
         <v>24</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>41</v>
       </c>
@@ -2824,13 +2816,13 @@
         <v>24</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>116</v>
       </c>
@@ -2853,13 +2845,13 @@
         <v>119</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>97</v>
       </c>
@@ -2882,13 +2874,13 @@
         <v>99</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>117</v>
       </c>
@@ -2911,13 +2903,13 @@
         <v>122</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>36</v>
       </c>
@@ -2940,14 +2932,14 @@
         <v>207</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>208</v>
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>37</v>
       </c>
@@ -2970,14 +2962,14 @@
         <v>207</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>209</v>
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>38</v>
       </c>
@@ -3000,14 +2992,14 @@
         <v>207</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>210</v>
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>39</v>
       </c>
@@ -3030,14 +3022,14 @@
         <v>207</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>211</v>
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>213</v>
       </c>
@@ -3060,14 +3052,14 @@
         <v>207</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>214</v>
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>124</v>
       </c>
@@ -3090,13 +3082,13 @@
         <v>125</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>128</v>
       </c>
@@ -3119,13 +3111,13 @@
         <v>127</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>129</v>
       </c>
@@ -3148,13 +3140,13 @@
         <v>130</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>131</v>
       </c>
@@ -3177,13 +3169,13 @@
         <v>135</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>134</v>
       </c>
@@ -3206,13 +3198,13 @@
         <v>136</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>133</v>
       </c>
@@ -3235,13 +3227,13 @@
         <v>132</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>137</v>
       </c>
@@ -3264,15 +3256,15 @@
         <v>138</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
@@ -3290,16 +3282,16 @@
         <v>11</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>139</v>
       </c>
@@ -3322,13 +3314,13 @@
         <v>140</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>142</v>
       </c>
@@ -3351,13 +3343,13 @@
         <v>127</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>143</v>
       </c>
@@ -3380,13 +3372,13 @@
         <v>135</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>152</v>
       </c>
@@ -3409,13 +3401,13 @@
         <v>132</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>153</v>
       </c>
@@ -3438,13 +3430,13 @@
         <v>130</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>156</v>
       </c>
@@ -3467,13 +3459,13 @@
         <v>136</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>158</v>
       </c>
@@ -3496,13 +3488,13 @@
         <v>138</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>168</v>
       </c>
@@ -3525,13 +3517,13 @@
         <v>169</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>102</v>
       </c>
@@ -3554,13 +3546,13 @@
         <v>27</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>217</v>
       </c>
@@ -3583,14 +3575,14 @@
         <v>216</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>218</v>
       </c>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>96</v>
       </c>
@@ -3613,13 +3605,13 @@
         <v>162</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>160</v>
       </c>
@@ -3642,13 +3634,13 @@
         <v>161</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>163</v>
       </c>
@@ -3671,13 +3663,13 @@
         <v>164</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>165</v>
       </c>
@@ -3700,15 +3692,15 @@
         <v>166</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
@@ -3729,18 +3721,18 @@
         <v>166</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>171</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>177</v>
@@ -3758,18 +3750,18 @@
         <v>170</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>177</v>
@@ -3787,18 +3779,18 @@
         <v>170</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>177</v>
@@ -3816,18 +3808,18 @@
         <v>170</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>174</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>177</v>
@@ -3845,18 +3837,18 @@
         <v>170</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>173</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>177</v>
@@ -3874,18 +3866,18 @@
         <v>170</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>177</v>
@@ -3903,18 +3895,18 @@
         <v>170</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>177</v>
@@ -3932,18 +3924,18 @@
         <v>170</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>177</v>
@@ -3961,18 +3953,18 @@
         <v>170</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>177</v>
@@ -3990,18 +3982,18 @@
         <v>170</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>177</v>
@@ -4019,18 +4011,18 @@
         <v>170</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>177</v>
@@ -4048,18 +4040,18 @@
         <v>170</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>188</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>177</v>
@@ -4077,18 +4069,18 @@
         <v>170</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>83</v>
@@ -4106,18 +4098,18 @@
         <v>84</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>83</v>
@@ -4135,18 +4127,18 @@
         <v>90</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>83</v>
@@ -4164,18 +4156,18 @@
         <v>86</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>83</v>
@@ -4193,18 +4185,18 @@
         <v>88</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>83</v>
@@ -4222,18 +4214,18 @@
         <v>92</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>83</v>
@@ -4245,24 +4237,24 @@
         <v>11</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>190</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>103</v>
@@ -4280,18 +4272,18 @@
         <v>104</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>100</v>
@@ -4309,19 +4301,19 @@
         <v>33</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>101</v>
       </c>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>193</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>100</v>
@@ -4339,19 +4331,19 @@
         <v>192</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>194</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>100</v>
@@ -4369,19 +4361,19 @@
         <v>192</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>195</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>100</v>
@@ -4399,19 +4391,19 @@
         <v>192</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>100</v>
@@ -4429,19 +4421,19 @@
         <v>192</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>197</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>100</v>
@@ -4459,19 +4451,19 @@
         <v>192</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>100</v>
@@ -4486,22 +4478,22 @@
         <v>40</v>
       </c>
       <c r="G80" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="I80" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="H80" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>229</v>
-      </c>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>100</v>
@@ -4516,22 +4508,22 @@
         <v>40</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>198</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>199</v>
@@ -4549,7 +4541,7 @@
         <v>200</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I82" s="14" t="s">
         <v>201</v>
@@ -4560,12 +4552,12 @@
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>202</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>199</v>
@@ -4583,7 +4575,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I83" s="14" t="s">
         <v>203</v>
@@ -4594,12 +4586,12 @@
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>199</v>
@@ -4617,7 +4609,7 @@
         <v>200</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I84" s="14" t="s">
         <v>205</v>
@@ -4628,12 +4620,12 @@
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>206</v>
@@ -4651,10 +4643,10 @@
         <v>44</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
@@ -4662,12 +4654,12 @@
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
     </row>
-    <row r="86" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>103</v>
@@ -4685,18 +4677,18 @@
         <v>183</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I86" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>186</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>103</v>
@@ -4714,18 +4706,18 @@
         <v>183</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>103</v>
@@ -4743,18 +4735,18 @@
         <v>183</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I88" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>71</v>
@@ -4772,18 +4764,18 @@
         <v>51</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>71</v>
@@ -4801,18 +4793,18 @@
         <v>51</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>71</v>
@@ -4830,18 +4822,18 @@
         <v>51</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>71</v>
@@ -4859,18 +4851,18 @@
         <v>51</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>71</v>
@@ -4888,18 +4880,18 @@
         <v>51</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>71</v>
@@ -4917,18 +4909,18 @@
         <v>51</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>71</v>
@@ -4946,18 +4938,18 @@
         <v>51</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>71</v>
@@ -4975,18 +4967,18 @@
         <v>51</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>71</v>
@@ -5004,18 +4996,18 @@
         <v>51</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>71</v>
@@ -5033,18 +5025,18 @@
         <v>51</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>71</v>
@@ -5062,18 +5054,18 @@
         <v>51</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>103</v>
@@ -5091,18 +5083,18 @@
         <v>104</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>103</v>
@@ -5120,18 +5112,18 @@
         <v>104</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>107</v>
@@ -5149,18 +5141,18 @@
         <v>108</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>107</v>
@@ -5178,18 +5170,18 @@
         <v>108</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>103</v>
@@ -5207,18 +5199,18 @@
         <v>104</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>103</v>
@@ -5236,18 +5228,18 @@
         <v>104</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>100</v>
@@ -5265,19 +5257,19 @@
         <v>113</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I106" s="14" t="s">
         <v>180</v>
       </c>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>100</v>
@@ -5295,19 +5287,19 @@
         <v>29</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I107" s="14" t="s">
         <v>181</v>
       </c>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>100</v>
@@ -5325,19 +5317,19 @@
         <v>31</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I108" s="14" t="s">
         <v>182</v>
       </c>
       <c r="J108" s="6"/>
     </row>
-    <row r="109" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>100</v>
@@ -5352,22 +5344,22 @@
         <v>11</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J109" s="6"/>
     </row>
-    <row r="110" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>100</v>
@@ -5382,22 +5374,22 @@
         <v>11</v>
       </c>
       <c r="G110" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="H110" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="J110" s="6"/>
-    </row>
-    <row r="111" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
-        <v>242</v>
-      </c>
       <c r="B111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>100</v>
@@ -5412,22 +5404,22 @@
         <v>11</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>100</v>
@@ -5442,22 +5434,22 @@
         <v>11</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J112" s="6"/>
     </row>
-    <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>100</v>
@@ -5472,22 +5464,22 @@
         <v>11</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J113" s="6"/>
     </row>
-    <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>100</v>
@@ -5502,22 +5494,22 @@
         <v>11</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J114" s="6"/>
     </row>
-    <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>100</v>
@@ -5532,22 +5524,22 @@
         <v>11</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>100</v>
@@ -5562,22 +5554,22 @@
         <v>11</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J116" s="6"/>
     </row>
-    <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>100</v>
@@ -5592,22 +5584,22 @@
         <v>11</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J117" s="6"/>
     </row>
-    <row r="118" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>217</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>215</v>
@@ -5625,19 +5617,19 @@
         <v>216</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I118" s="14" t="s">
         <v>218</v>
       </c>
       <c r="J118" s="6"/>
     </row>
-    <row r="119" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>215</v>
@@ -5655,19 +5647,19 @@
         <v>216</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>219</v>
       </c>
       <c r="J119" s="6"/>
     </row>
-    <row r="120" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>215</v>
@@ -5685,19 +5677,19 @@
         <v>216</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J120" s="6"/>
     </row>
-    <row r="121" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>215</v>
@@ -5715,19 +5707,19 @@
         <v>216</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J121" s="6"/>
     </row>
-    <row r="122" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>215</v>
@@ -5745,19 +5737,19 @@
         <v>216</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J122" s="6"/>
     </row>
-    <row r="123" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>215</v>
@@ -5775,19 +5767,19 @@
         <v>216</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J123" s="6"/>
     </row>
-    <row r="124" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>215</v>
@@ -5805,19 +5797,19 @@
         <v>216</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J124" s="6"/>
     </row>
-    <row r="125" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>215</v>
@@ -5835,19 +5827,19 @@
         <v>216</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>215</v>
@@ -5865,19 +5857,19 @@
         <v>216</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>222</v>
       </c>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>223</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>215</v>
@@ -5895,19 +5887,19 @@
         <v>216</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="J127" s="6"/>
     </row>
-    <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>215</v>
@@ -5925,45 +5917,15 @@
         <v>216</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H129" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="J129" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L130" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L129" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -5995,12 +5957,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -6008,7 +5970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6016,7 +5978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant - Sanity Testing\clone_Merchant_sanity_27_12_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56F1DAC-1CA1-4B6E-A8DA-2CBB47AB1BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A00025-6886-4659-8EFC-3E9D9B3136C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -359,11 +359,6 @@
     <t>Export Files</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportFiles,
--pheading</t>
-  </si>
-  <si>
     <t>Verify merchant settings</t>
   </si>
   <si>
@@ -371,11 +366,6 @@
   </si>
   <si>
     <t>Merchant Settings</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testMerchantSettingsLinks,
--pheading</t>
   </si>
   <si>
     <t>Verify Get Help</t>
@@ -392,9 +382,33 @@
 -pheading</t>
   </si>
   <si>
+    <t>coyni.merchant.tests.ExportFilesTest,
+testExportFiles,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testMerchantSettingsLinks,
+-pheading,
+-pcompanyInformationHeading,
+-pdbaInformationHeading,
+-pbeneficiaryOwnersHeading,
+-ppaymentMethodsHeading,
+-ppreferencesHeading,
+-pagreementsHeading,
+-pfeesHeading,
+-paccountLimitsHeading,
+-pteamSharedHeading,
+-papiKeysHeading</t>
+  </si>
+  <si>
     <t>coyni.merchant.tests.MerchantProfileTest,
 testUserDetailsLinks,
--pheading</t>
+-pheading,
+-ppreferencesHeading,
+-pagreementsHeading,
+-pchangePasswordHeading,
+-ptwoStepAuthenticationHeading</t>
   </si>
 </sst>
 </file>
@@ -832,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +926,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -941,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>18</v>
@@ -971,7 +985,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>18</v>
@@ -1001,7 +1015,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
@@ -1031,7 +1045,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>18</v>
@@ -1061,7 +1075,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
@@ -1091,7 +1105,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>18</v>
@@ -1121,7 +1135,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>18</v>
@@ -1151,7 +1165,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>18</v>
@@ -1181,7 +1195,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>18</v>
@@ -1211,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>52</v>
@@ -1241,7 +1255,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>52</v>
@@ -1271,7 +1285,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>52</v>
@@ -1301,7 +1315,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>52</v>
@@ -1331,7 +1345,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
@@ -1364,7 +1378,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>44</v>
@@ -1397,7 +1411,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -1455,7 +1469,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>52</v>
@@ -1484,7 +1498,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>18</v>
@@ -1513,7 +1527,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>71</v>
@@ -1534,65 +1548,65 @@
         <v>38</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="H24" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="H25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant - Sanity Testing\clone_Merchant_sanity_27_12_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A00025-6886-4659-8EFC-3E9D9B3136C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEAA2A0-C17D-42D1-9991-49473B5D45C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -338,11 +338,6 @@
     <t>Verify Merchant Activity Links</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.MerchantActivityTest,
-testMerchantActivityLinks,
--pheading</t>
-  </si>
-  <si>
     <t>Verify Available Balance in Token Account</t>
   </si>
   <si>
@@ -409,6 +404,14 @@
 -pagreementsHeading,
 -pchangePasswordHeading,
 -ptwoStepAuthenticationHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantActivityTest,
+testMerchantActivityLinks,
+-pheading,
+-ptransactionHeading,
+-ppayOutHistoryHeading,
+-preserveHistoryHeading</t>
   </si>
 </sst>
 </file>
@@ -846,26 +849,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="53.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="41.88671875" customWidth="1"/>
-    <col min="12" max="12" width="41.44140625" customWidth="1"/>
+    <col min="1" max="1" width="76.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -894,7 +897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="256.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>47</v>
       </c>
@@ -921,12 +924,12 @@
       </c>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -950,12 +953,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>18</v>
@@ -980,12 +983,12 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>18</v>
@@ -1010,12 +1013,12 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
@@ -1040,12 +1043,12 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>18</v>
@@ -1070,12 +1073,12 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
@@ -1100,12 +1103,12 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>18</v>
@@ -1130,12 +1133,12 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>18</v>
@@ -1160,12 +1163,12 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>18</v>
@@ -1190,12 +1193,12 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>18</v>
@@ -1220,12 +1223,12 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>52</v>
@@ -1250,12 +1253,12 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>52</v>
@@ -1280,12 +1283,12 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>52</v>
@@ -1310,12 +1313,12 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>52</v>
@@ -1340,12 +1343,12 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
@@ -1373,12 +1376,12 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>44</v>
@@ -1406,12 +1409,12 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -1435,7 +1438,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1461,15 +1464,15 @@
         <v>38</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>52</v>
@@ -1490,15 +1493,15 @@
         <v>38</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>18</v>
@@ -1519,94 +1522,94 @@
         <v>38</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="8" t="s">
+    <row r="25" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1642,12 +1645,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_14-03-2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83596CD0-AF01-4439-A946-B27846E5BA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3FE386-70BB-496E-A19D-6D784F6565CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="lists" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="lists" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$167</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="417">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1303,18 +1304,6 @@
 -pcompanyInformationHeading,</t>
   </si>
   <si>
-    <t>Verify Login With Unverified User</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLoginWithUnverifiedUser,
--ploginHeading,
--pemail,
--ppassword,
--ptoastMessage,
--ptoastTitle</t>
-  </si>
-  <si>
     <t>Verify Add Team Member With Added Credentials</t>
   </si>
   <si>
@@ -1466,13 +1455,6 @@
     <t>Verify Buy Token Bank Account</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testBuyTokenTransactionBankAccount,
--pnumber,
--pamount,
--pcode</t>
-  </si>
-  <si>
     <t>Verify Buy Token Bank Account With Invalid Data</t>
   </si>
   <si>
@@ -1550,17 +1532,6 @@
   </si>
   <si>
     <t>External Bank Account</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDExternalBankAccount,
--pheading,
--pexternalBankHeading,
--pexternalBankDescription,
--pamount,
--pmessage,
--pverifyYourIdentityHeading,
--pcode</t>
   </si>
   <si>
     <t>test withdrawn to External Bank invalid amount</t>
@@ -1745,18 +1716,6 @@
     <t>Verify Instant Pay</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDViaInstantPay,
--pwithdrawToUSDHeading,
--pinstantPayHeading,
--pnumber,
--pamount,
--pmessage,
--pauthyVerificationHeading,
--pcode1,
--pexpTransactionInProgressHeading</t>
-  </si>
-  <si>
     <t>Verify Instant Pay with Edit Debit Card</t>
   </si>
   <si>
@@ -1831,9 +1790,6 @@
 -pagreementsHeading,
 -pexpColor,
 -pcolorName</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>Cogent Account</t>
@@ -2079,14 +2035,6 @@
 -pzipCode</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDCogentAccount,
--pheading,
--pcogentNumber,
--pamount,
--pcode1</t>
-  </si>
-  <si>
     <t>Verify DBA Account</t>
   </si>
   <si>
@@ -2153,6 +2101,123 @@
 -psearchKey,
 -psearchKey1,
 -purl</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testAdminTransactionBuyBankAccount,
+-plistHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testBuyTokenTransactionBankAccount,
+-pnumber,
+-pamount,
+-pcode,
+-purl</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testAdminExternalBankTransaction,
+-plistHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDExternalBankAccount,
+-pheading,
+-pexternalBankHeading,
+-pexternalBankDescription,
+-pamount,
+-pmessage,
+-pverifyYourIdentityHeading,
+-pcode,
+-purl</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccount,
+-pheading,
+-pcogentNumber,
+-pamount,
+-pcode1,
+-purl</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testAdminTransactionCogentAccount,
+-plistHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDViaInstantPay,
+-pwithdrawToUSDHeading,
+-pinstantPayHeading,
+-pnumber,
+-pamount,
+-pmessage,
+-pauthyVerificationHeading,
+-pcode1,
+-pexpTransactionInProgressHeading,
+-purl</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testAdminTransactionInstantPay,
+-plistHeading</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Forgot Email With Resend Option</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotEmailWithResendOption,
+-ploginHeading,
+-pforgotHeading,
+-pphoneNumber,
+-pfirstName,
+-plastName</t>
+  </si>
+  <si>
+    <t>Verify Forgot Password With Resend Option</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotPasswordWithResendOption,
+-ploginHeading,
+-pforgotHeading,
+-pemail</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Forgot email with phone number</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotEmailWithPhoneNumber,
+-ploginHeading,
+-pforgotHeading,
+-pphoneNumber,
+-perrMessage,
+-pcolour,
+-pverificationHeading,
+-pcode</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantProfileTest,
+testUserDetailsAddImageMore,
+-paccountProfileHeading,
+-pcropYourImageHeading,
+-pfolderName,
+-pfileName,
+-ptoastMessage,
+-ptoastTitle</t>
+  </si>
+  <si>
+    <t>Verify User Details Add Image more</t>
   </si>
 </sst>
 </file>
@@ -2657,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J134" sqref="J134"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2707,9 +2772,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>271</v>
+    <row r="2" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -2718,24 +2783,27 @@
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>69</v>
+        <v>292</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>293</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -2744,13 +2812,13 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -2762,9 +2830,9 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>295</v>
+    <row r="4" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -2773,27 +2841,27 @@
         <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>407</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>296</v>
+      <c r="H4" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -2808,21 +2876,21 @@
         <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>361</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>55</v>
+      <c r="H5" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>71</v>
+    <row r="6" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>266</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -2831,27 +2899,27 @@
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>266</v>
+    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -2871,16 +2939,16 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="I7" s="18"/>
+      <c r="H7" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -2889,27 +2957,27 @@
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>292</v>
+        <v>57</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>15</v>
+    <row r="9" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>262</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -2918,56 +2986,56 @@
         <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>57</v>
+      <c r="H9" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>262</v>
+    <row r="10" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>293</v>
+      <c r="C10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>72</v>
+    <row r="11" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -2976,27 +3044,25 @@
         <v>66</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>19</v>
+      <c r="H11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>413</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -3005,19 +3071,19 @@
         <v>66</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>58</v>
+        <v>414</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -3038,7 +3104,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>16</v>
+        <v>412</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>17</v>
@@ -3050,7 +3116,7 @@
     </row>
     <row r="14" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -3071,39 +3137,40 @@
         <v>17</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -3112,24 +3179,24 @@
         <v>67</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -3138,24 +3205,24 @@
         <v>67</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
@@ -3164,199 +3231,193 @@
         <v>67</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="16" t="s">
+      <c r="D21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="H21" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J21" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="D24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="H24" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -3377,15 +3438,15 @@
         <v>50</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -3393,57 +3454,57 @@
       <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
+      <c r="D26" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>51</v>
+        <v>286</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>416</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>244</v>
+        <v>286</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -3451,28 +3512,28 @@
       <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
+      <c r="D28" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>258</v>
+        <v>286</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
@@ -3481,27 +3542,27 @@
         <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -3509,28 +3570,28 @@
       <c r="C30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>246</v>
+        <v>286</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -3542,24 +3603,24 @@
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>54</v>
+      <c r="A32" t="s">
+        <v>258</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -3567,28 +3628,28 @@
       <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>10</v>
+      <c r="D32" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>260</v>
+        <v>286</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
@@ -3597,143 +3658,143 @@
         <v>68</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I33" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>253</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>24</v>
@@ -3741,28 +3802,28 @@
       <c r="C38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="D38" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>254</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
@@ -3770,233 +3831,231 @@
       <c r="C39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="D39" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I39" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="D44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H40" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I40" s="14" t="s">
+      <c r="H44" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="16" t="s">
+      <c r="B45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="D45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H41" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I41" s="14" t="s">
+      <c r="H45" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+    <row r="46" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="B46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="D46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H42" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I42" s="14" t="s">
+      <c r="H46" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I46" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+    <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>24</v>
@@ -4014,19 +4073,18 @@
         <v>11</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
-        <v>31</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>24</v>
@@ -4044,19 +4102,18 @@
         <v>11</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>399</v>
+        <v>286</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>24</v>
@@ -4074,19 +4131,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>204</v>
+      <c r="A50" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>24</v>
@@ -4094,29 +4151,29 @@
       <c r="C50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>10</v>
+      <c r="D50" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>206</v>
+      <c r="A51" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>24</v>
@@ -4124,29 +4181,29 @@
       <c r="C51" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>10</v>
+      <c r="D51" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>215</v>
+      <c r="A52" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>24</v>
@@ -4164,19 +4221,19 @@
         <v>11</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>217</v>
+      <c r="A53" s="23" t="s">
+        <v>392</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>24</v>
@@ -4194,19 +4251,19 @@
         <v>11</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>24</v>
@@ -4214,29 +4271,29 @@
       <c r="C54" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="16" t="s">
-        <v>25</v>
+      <c r="D54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>24</v>
@@ -4244,29 +4301,29 @@
       <c r="C55" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>25</v>
+      <c r="D55" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>24</v>
@@ -4287,16 +4344,16 @@
         <v>216</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>24</v>
@@ -4317,16 +4374,16 @@
         <v>216</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>24</v>
@@ -4347,16 +4404,16 @@
         <v>216</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>24</v>
@@ -4377,16 +4434,16 @@
         <v>216</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>24</v>
@@ -4407,138 +4464,142 @@
         <v>216</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I60" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I64" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>392</v>
-      </c>
+      <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>25</v>
@@ -4550,163 +4611,163 @@
         <v>11</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I67" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="2" t="s">
+    </row>
+    <row r="68" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="H66" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="B68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>115</v>
+      <c r="C68" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>136</v>
+        <v>286</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
-        <v>117</v>
+      <c r="A69" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>118</v>
+      <c r="C69" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>137</v>
+        <v>286</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="29" t="s">
-        <v>119</v>
+      <c r="A70" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>123</v>
+      <c r="C70" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>135</v>
+        <v>286</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>24</v>
@@ -4724,18 +4785,18 @@
         <v>11</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>138</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>24</v>
@@ -4744,27 +4805,27 @@
         <v>110</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>24</v>
@@ -4773,27 +4834,27 @@
         <v>110</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>268</v>
+      <c r="A74" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>24</v>
@@ -4811,18 +4872,18 @@
         <v>11</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>270</v>
+        <v>286</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>24</v>
@@ -4831,27 +4892,27 @@
         <v>110</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>373</v>
+        <v>286</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>24</v>
@@ -4860,27 +4921,27 @@
         <v>110</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>24</v>
@@ -4889,27 +4950,27 @@
         <v>110</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
-        <v>139</v>
+      <c r="A78" t="s">
+        <v>268</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>24</v>
@@ -4918,27 +4979,27 @@
         <v>110</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>141</v>
+        <v>286</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>24</v>
@@ -4947,27 +5008,27 @@
         <v>110</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>142</v>
+        <v>286</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>24</v>
@@ -4985,18 +5046,18 @@
         <v>11</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>24</v>
@@ -5005,27 +5066,27 @@
         <v>110</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
-        <v>154</v>
+      <c r="A82" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>24</v>
@@ -5034,143 +5095,143 @@
         <v>110</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G82" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="H82" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="18" t="s">
+      <c r="H86" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I85" s="37" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>24</v>
@@ -5179,27 +5240,27 @@
         <v>76</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>24</v>
@@ -5208,27 +5269,27 @@
         <v>76</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>78</v>
+        <v>286</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>24</v>
@@ -5243,137 +5304,137 @@
         <v>11</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="H89" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I89" s="37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>148</v>
+      <c r="G92" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I92" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>24</v>
@@ -5391,18 +5452,18 @@
         <v>11</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>263</v>
+      <c r="A95" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>24</v>
@@ -5411,143 +5472,143 @@
         <v>110</v>
       </c>
       <c r="D95" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="21" t="s">
+      <c r="E99" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G99" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H95" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I95" s="14" t="s">
+      <c r="H99" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I99" s="14" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H96" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I96" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H97" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H98" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H99" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>24</v>
@@ -5556,7 +5617,7 @@
         <v>163</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E100" s="21" t="s">
         <v>11</v>
@@ -5568,15 +5629,15 @@
         <v>156</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="28" t="s">
-        <v>275</v>
+      <c r="A101" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>24</v>
@@ -5597,15 +5658,15 @@
         <v>156</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="28" t="s">
-        <v>277</v>
+      <c r="A102" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>24</v>
@@ -5614,27 +5675,27 @@
         <v>163</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E102" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="28" t="s">
-        <v>278</v>
+      <c r="A103" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>24</v>
@@ -5643,27 +5704,27 @@
         <v>163</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>280</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>286</v>
+      <c r="A104" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>24</v>
@@ -5684,15 +5745,15 @@
         <v>156</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>281</v>
+      <c r="A105" s="28" t="s">
+        <v>273</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>24</v>
@@ -5713,15 +5774,15 @@
         <v>156</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>283</v>
+      <c r="A106" s="28" t="s">
+        <v>275</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>24</v>
@@ -5730,27 +5791,27 @@
         <v>163</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A107" s="18" t="s">
-        <v>173</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="28" t="s">
+        <v>276</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>24</v>
@@ -5758,147 +5819,144 @@
       <c r="C107" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I107" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I111" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H108" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="18" t="s">
+    <row r="112" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H109" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J109" s="6"/>
-    </row>
-    <row r="110" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H110" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J110" s="6"/>
-    </row>
-    <row r="111" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>366</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H111" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I111" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="J111" s="6"/>
-    </row>
-    <row r="112" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>24</v>
@@ -5906,29 +5964,29 @@
       <c r="C112" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>10</v>
+      <c r="D112" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E112" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>196</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="J112" s="6"/>
     </row>
-    <row r="113" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>24</v>
@@ -5936,29 +5994,29 @@
       <c r="C113" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>10</v>
+      <c r="D113" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E113" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G113" s="16" t="s">
         <v>196</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>381</v>
+        <v>199</v>
       </c>
       <c r="J113" s="6"/>
     </row>
     <row r="114" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="18" t="s">
-        <v>226</v>
+      <c r="A114" t="s">
+        <v>360</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>24</v>
@@ -5979,16 +6037,16 @@
         <v>196</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="J114" s="6"/>
     </row>
-    <row r="115" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A115" s="18" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>24</v>
@@ -5996,29 +6054,29 @@
       <c r="C115" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D115" s="16" t="s">
-        <v>25</v>
+      <c r="D115" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E115" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>196</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>233</v>
+        <v>374</v>
       </c>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>24</v>
@@ -6026,29 +6084,29 @@
       <c r="C116" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D116" s="16" t="s">
-        <v>25</v>
+      <c r="D116" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E116" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>196</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="J116" s="6"/>
     </row>
     <row r="117" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A117" s="18" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>24</v>
@@ -6069,16 +6127,16 @@
         <v>196</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J117" s="6"/>
     </row>
     <row r="118" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A118" s="18" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>24</v>
@@ -6099,16 +6157,16 @@
         <v>196</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="18" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>24</v>
@@ -6129,16 +6187,16 @@
         <v>196</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="J119" s="6"/>
     </row>
     <row r="120" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A120" s="18" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>24</v>
@@ -6159,115 +6217,106 @@
         <v>196</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I120" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I123" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>298</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I121" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-    </row>
-    <row r="122" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>300</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I122" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-    </row>
-    <row r="123" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>302</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H123" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>303</v>
-      </c>
       <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-    </row>
-    <row r="124" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>24</v>
@@ -6288,19 +6337,23 @@
         <v>23</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
+        <v>400</v>
+      </c>
+      <c r="J124" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="K124" s="14" t="s">
+        <v>399</v>
+      </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
-        <v>306</v>
+    <row r="125" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>297</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>24</v>
@@ -6308,104 +6361,104 @@
       <c r="C125" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D125" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>307</v>
+      <c r="D125" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I125" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="J125" s="31"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="31"/>
-      <c r="M125" s="31"/>
-    </row>
-    <row r="126" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="22" t="s">
-        <v>309</v>
+        <v>286</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>299</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="20" t="s">
-        <v>311</v>
+        <v>90</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I126" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="J126" s="31"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="31"/>
-      <c r="M126" s="31"/>
-    </row>
-    <row r="127" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="22" t="s">
-        <v>313</v>
+        <v>286</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>301</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I127" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="J127" s="31"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="31"/>
+        <v>286</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
     </row>
     <row r="128" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>25</v>
@@ -6417,13 +6470,13 @@
         <v>11</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I128" s="32" t="s">
-        <v>317</v>
+        <v>286</v>
+      </c>
+      <c r="I128" s="34" t="s">
+        <v>305</v>
       </c>
       <c r="J128" s="31"/>
       <c r="K128" s="31"/>
@@ -6431,80 +6484,80 @@
       <c r="M128" s="31"/>
     </row>
     <row r="129" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>318</v>
+      <c r="A129" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>10</v>
+        <v>307</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="E129" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I129" s="32" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J129" s="31"/>
       <c r="K129" s="31"/>
       <c r="L129" s="31"/>
       <c r="M129" s="31"/>
     </row>
-    <row r="130" spans="1:13" s="35" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>350</v>
+    <row r="130" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="16" t="s">
-        <v>353</v>
+      <c r="C130" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="D130" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E130" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="21" t="s">
+      <c r="E130" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I130" s="32" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="J130" s="31"/>
       <c r="K130" s="31"/>
       <c r="L130" s="31"/>
       <c r="M130" s="31"/>
     </row>
-    <row r="131" spans="1:13" s="35" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>349</v>
+    <row r="131" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C131" s="16" t="s">
-        <v>353</v>
+      <c r="C131" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="D131" s="20" t="s">
         <v>25</v>
@@ -6516,28 +6569,32 @@
         <v>11</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I131" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="J131" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="J131" s="31"/>
-      <c r="K131" s="31"/>
+      <c r="K131" s="14" t="s">
+        <v>401</v>
+      </c>
       <c r="L131" s="31"/>
       <c r="M131" s="31"/>
     </row>
-    <row r="132" spans="1:13" s="35" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="16" t="s">
-        <v>353</v>
+      <c r="C132" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>10</v>
@@ -6549,28 +6606,28 @@
         <v>18</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I132" s="32" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="J132" s="31"/>
       <c r="K132" s="31"/>
       <c r="L132" s="31"/>
       <c r="M132" s="31"/>
     </row>
-    <row r="133" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" s="35" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D133" s="20" t="s">
         <v>25</v>
@@ -6582,164 +6639,168 @@
         <v>11</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I133" s="32" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="J133" s="31"/>
       <c r="K133" s="31"/>
       <c r="L133" s="31"/>
       <c r="M133" s="31"/>
     </row>
-    <row r="134" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="23" t="s">
-        <v>322</v>
+    <row r="134" spans="1:13" s="35" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>344</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>324</v>
+        <v>348</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>405</v>
+        <v>286</v>
+      </c>
+      <c r="I134" s="32" t="s">
+        <v>403</v>
       </c>
       <c r="J134" s="38" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K134" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-    </row>
-    <row r="135" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="23" t="s">
-        <v>325</v>
+      <c r="L134" s="31"/>
+      <c r="M134" s="31"/>
+    </row>
+    <row r="135" spans="1:13" s="35" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>346</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>324</v>
+        <v>10</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-    </row>
-    <row r="136" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="23" t="s">
-        <v>327</v>
+        <v>286</v>
+      </c>
+      <c r="I135" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
+      <c r="L135" s="31"/>
+      <c r="M135" s="31"/>
+    </row>
+    <row r="136" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>347</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>10</v>
+        <v>348</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="E136" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>324</v>
+        <v>11</v>
+      </c>
+      <c r="G136" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-    </row>
-    <row r="137" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="I136" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
+      <c r="L136" s="31"/>
+      <c r="M136" s="31"/>
+    </row>
+    <row r="137" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E137" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="I137" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="J137" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="K137" s="14" t="s">
+        <v>397</v>
+      </c>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="26" t="s">
-        <v>332</v>
+    <row r="138" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="23" t="s">
+        <v>321</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C138" s="36" t="s">
-        <v>333</v>
+      <c r="C138" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>25</v>
@@ -6751,290 +6812,303 @@
         <v>11</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I138" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="26" t="s">
-        <v>336</v>
+        <v>286</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+    </row>
+    <row r="139" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A139" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C139" s="36" t="s">
-        <v>333</v>
+      <c r="C139" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E139" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I139" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="18" t="s">
-        <v>338</v>
+        <v>286</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A140" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C140" s="36" t="s">
-        <v>333</v>
+      <c r="C140" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="9" t="s">
+      <c r="E140" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H140" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H141" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G143" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="H140" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I140" s="14" t="s">
+      <c r="B145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I145" s="7" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="26" t="s">
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="H141" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I141" s="14" t="s">
+      <c r="B146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H146" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J146" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="K146" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="26" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="26" t="s">
+      <c r="B147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I147" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="H142" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-    </row>
-    <row r="143" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A143" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="H143" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-    </row>
-    <row r="144" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="18" t="s">
+    </row>
+    <row r="148" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H145" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I145" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D146" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H146" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I146" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="J146" s="6"/>
-    </row>
-    <row r="147" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H147" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I147" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="J147" s="6"/>
-    </row>
-    <row r="148" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>24</v>
@@ -7043,28 +7117,28 @@
         <v>192</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E148" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G148" s="16" t="s">
         <v>187</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J148" s="6"/>
     </row>
     <row r="149" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="18" t="s">
-        <v>193</v>
+      <c r="A149" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>24</v>
@@ -7085,142 +7159,130 @@
         <v>187</v>
       </c>
       <c r="H149" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I149" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I150" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I151" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I152" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="J149" s="6"/>
-    </row>
-    <row r="150" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="23" t="s">
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C150" s="16" t="s">
+      <c r="B153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D150" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="16" t="s">
+      <c r="D153" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="H150" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I150" s="14" t="s">
+      <c r="H153" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I153" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
-    </row>
-    <row r="151" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H151" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I151" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
-      <c r="N151" s="15"/>
-    </row>
-    <row r="152" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H152" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I152" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15"/>
-    </row>
-    <row r="153" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H153" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I153" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="J153" s="15"/>
       <c r="K153" s="15"/>
@@ -7228,8 +7290,110 @@
       <c r="M153" s="15"/>
       <c r="N153" s="15"/>
     </row>
+    <row r="154" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
+    </row>
+    <row r="155" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+    </row>
+    <row r="156" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L164" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L167" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -7254,6 +7418,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FC315B-BFE2-442B-88D6-16D6DD66BE25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621ECD84-1FD9-4C9B-A216-6F85DAE3E9BF}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_14-03-2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3FE386-70BB-496E-A19D-6D784F6565CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81157FB9-4049-476E-9063-091D576CC656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="lists" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$183</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="449">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -343,10 +343,6 @@
     <t>Forgot email with valid credentials</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTokenAccountActivityDetails</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.LoginTest,
 testForgotEmail,
 -ploginHeading,
@@ -562,13 +558,6 @@
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testDBAInfoEditPhoneNumber,
--pheading,
--pdbaInformationHeading,
--pdbaInfoPhoneNumber</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
 testCompanyInfoInavlidEmail,
 -pheading,
 -pcompanyInformationHeading,
@@ -667,9 +656,6 @@
   </si>
   <si>
     <t>Account Limits</t>
-  </si>
-  <si>
-    <t>Verify API Keys</t>
   </si>
   <si>
     <t>API Keys</t>
@@ -718,17 +704,6 @@
 -plastName,
 -pemail1,
 -pphone</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testPayOutsReceivedList,
--pheading,
--pexpHeading,
--pqueryToday,
--pqueryYesterday,
--pqueryLast7Days,
--pqueryMonthToDate,
--pqueryLastMonth</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -754,10 +729,6 @@
   </si>
   <si>
     <t>Notifications</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantProfileTest,
-testNotifications</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantProfileTest,
@@ -920,28 +891,6 @@
     <t>Verify Transaction Reset Filters</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionListFilters,
--pstartdate,
--penddate,
--pfilterType,
--pfilterType1,
--pamount,
--ptoAmount,
--pfilterType2</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionListResetFilters,
--pstartdate,
--penddate,
--pfilterType,
--pfilterType1,
--pamount,
--ptoAmount,
--pfilterType2</t>
-  </si>
-  <si>
     <t>Verify User Details View</t>
   </si>
   <si>
@@ -980,48 +929,10 @@
     <t>Verify TransactionDetails Withdraw Bank</t>
   </si>
   <si>
-    <t>Verify TransactionDetails Withdraw Signet</t>
-  </si>
-  <si>
     <t>Verify TransactionDetails Withdraw Instant Pay</t>
   </si>
   <si>
     <t>Verify TransactionDetails Withdraw Gift Card</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsBankAccount,
--pfilterType,
--pfilterType1,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsWithdrawExternalBankAccount,
--pfilterType,
--pfilterType1,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsWithdrawSignetAccount,
--pfilterType,
--pfilterType1,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailWithdrawInstantPay,
--pfilterType,
--pfilterType1,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsWithdrawGiftCard,
--pfilterType,
--pfilterType1,
--pheading</t>
   </si>
   <si>
     <t>Verify TransactionDetails Merchant PayOut</t>
@@ -1101,22 +1012,6 @@
   </si>
   <si>
     <t>Verify Transaction Details Cancelled Withdraw Bank</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsWithdrawFailedBankAccount,
--pfilterType,
--pfilterType1,
--pfilterType2,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsWithdrawCancelledBankAccount,
--pfilterType,
--pfilterType1,
--pfilterType2,
--pheading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantProfileTest,
@@ -1377,22 +1272,9 @@
 -pfilterType</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLogin,
--ploginHeading,
--pemail,
--ppassword,
--pauthyHeading,
--pcode,
--psecurityKey</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.GetHelpTest,
 testGetHelp,
 -pheading</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -1428,21 +1310,6 @@
 -pcode,
 -psecurityKey,
 -pattribute</t>
-  </si>
-  <si>
-    <t>Merchant Login View</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLoginView,
--ploginHeading,
--pemail,
--ppassword,
--pauthyHeading,
--pcode,
--psecurityKey,
--pattribute,
--pmessage</t>
   </si>
   <si>
     <t>coyni.merchant.tests.SideMenuBarTest,
@@ -1831,74 +1698,6 @@
 -pfilterType3</t>
   </si>
   <si>
-    <t xml:space="preserve">verify Registrartion Tracker </t>
-  </si>
-  <si>
-    <t>testdata-merchant.xlsx,merchantApplication</t>
-  </si>
-  <si>
-    <t>Merchant Application</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantApplicationTest,
-testRegistrationTracker,
--pstartPageHeading,
--pstartPageDescription,
--pcompanyInfoHeading,
--pcompanyInfoDescription,
--pcompanyName,
--pssn_ein_tin,
--pcompanyEmail,
--pcompanyPhoneNumber,
--paddressline1,
--paddressline2,
--pcity,
--pstate,
--pzipCode,
--pcountry,
--pfolderName,
--pfileName,
--pbusinessEntity,
--pstartPageHeading,
--pdbaHeading,
--pdbaName,
--pbusinessType,
--pcompanyEmail,
--pcompanyPhoneNumber,
--pwebsite,
--pmonthlyProcessingVolume,
--phighTicket,
--paverageTicket,
--paddressline1,
--paddressline2,
--pcity,
--pstate,
--pzipCode,
--ptimezone,
--pheading,
--pdescription,
--pexpOwnerLabels,
--pownerName,
--pownerShip,
--pownerShipLabel,
--pfirstName,
--plastName,
--pdateOfBirth,
--pssn_ein_tin,
--pownerShip,
--paddressline1,
--paddressline2,
--pcity,
--pstate,
--pzipCode,
--pcountry,
--pid,
--pfolderName,
--pfileName,
--pstartPageHeading,
--psignature</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
 testCompanyInfoPage,
 -pheading,
@@ -1915,12 +1714,6 @@
 testBeneficiaryOwners,
 -pheading,
 -pbeneficiaryOwnersHeading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testPreferences,
--pheading,
--ppreferencesHeading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -1937,38 +1730,9 @@
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testAPIKeys,
--pheading,
--papiKeysHeading,
--pcode</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
 testMerchantSettingsTeamMember,
 -pheading,
 -pteamSharedHeading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.MerchantActivityTest,
-testTransactionListFilters,
--pfilterType,
--pamount,
--ptoAmount,
--pfilterType2,
--pfilterType3,
--psenderName
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.MerchantActivityTest,
-testTransactionListResetFilters,
--pfilterType,
--pamount,
--ptoAmount,
--pfilterType2,
--pfilterType3,
--psenderName
-</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -2009,11 +1773,6 @@
   </si>
   <si>
     <t>Verify Switching Accounts</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.SignupTest,
-testSwitchingAccounts,
--pheading</t>
   </si>
   <si>
     <t>Verify DBA Under Business Account</t>
@@ -2050,21 +1809,6 @@
     <t>coyni.merchant.tests.TokenAccountTest,
 testWithdrawToUSDDeleteCogentAccount,
 -pcogentNumber</t>
-  </si>
-  <si>
-    <t>Forgot email with Spaces first and last name</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testForgotEmailWithInvalidFirstAndLastNameDetails,
--ploginHeading,
--pforgotHeading,
--pphoneNumber,
--pfirstName,
--plastName,
--perrMessage,
--pcolour,
--pelementName</t>
   </si>
   <si>
     <t>coyni.admin.tests.LoginTest,
@@ -2193,20 +1937,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>Forgot email with phone number</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testForgotEmailWithPhoneNumber,
--ploginHeading,
--pforgotHeading,
--pphoneNumber,
--perrMessage,
--pcolour,
--pverificationHeading,
--pcode</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.MerchantProfileTest,
 testUserDetailsAddImageMore,
 -paccountProfileHeading,
@@ -2218,6 +1948,432 @@
   </si>
   <si>
     <t>Verify User Details Add Image more</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAPIKeysEcommerce,
+-pheading,
+-papiKeysHeading,
+-pcode</t>
+  </si>
+  <si>
+    <t>Verify API Keys for ecommerce</t>
+  </si>
+  <si>
+    <t>Verify IP Address</t>
+  </si>
+  <si>
+    <t>Verify Additional IP Address</t>
+  </si>
+  <si>
+    <t>Verify IP Address Invalid Data</t>
+  </si>
+  <si>
+    <t>Verify Delete IP Address</t>
+  </si>
+  <si>
+    <t>API Keys - IP Address</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddIpAddress,
+-pnoIPExist,
+-pipAddress,
+-pipDescription,
+-psuccessHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAdditionalIpAddress,
+-pnoIPExist,
+-pipAddress,
+-pipDescription</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddIpAddressInvalidData,
+-pnoIPExist,
+-pipAddress,
+-pipDescription,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testDeleteIpAddress,
+-premoveHeading,
+-pipDescription</t>
+  </si>
+  <si>
+    <t>Verify Webhook View</t>
+  </si>
+  <si>
+    <t>Verify Create Webhooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Edit Webhook </t>
+  </si>
+  <si>
+    <t>API Keys - Webhook</t>
+  </si>
+  <si>
+    <t>Merchant Login View</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLogin,
+-ploginHeading,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testCreateWebhook,
+-pheading,
+-pendpointURL,
+-pdescription</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testEditWebhook,
+-pheading,
+-pendpointURL,
+-pdescription,
+-ptitle,
+-pmessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testWebhookView,
+-pheading</t>
+  </si>
+  <si>
+    <t>Verify API Keys InActiveAndExpiredKeys</t>
+  </si>
+  <si>
+    <t>API Keys - Inactive</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAPIKeysEcommerceInActiveAndExpiredKeysData,
+-pheading,
+-papiKeysHeading</t>
+  </si>
+  <si>
+    <t>Verify API Keys POS</t>
+  </si>
+  <si>
+    <t>API Keys - POS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAPIKeysPOS,
+-pheading,
+-papiKeysHeading,
+-pcode1</t>
+  </si>
+  <si>
+    <t>Verify API Keys POS InActiveAndExpired</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAPIKeysInactiveAndExpiredKeysPOS,
+-pheading,
+-papiKeysHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsWithdrawFailedBankAccount,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pheading,
+-pamount,
+-ptoAmount</t>
+  </si>
+  <si>
+    <t>VerifyTransaction Details Sale Order</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsSaleOrder,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pheading,
+-pamount,
+-ptoamount</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.SignupTest,
+testSignUpBusinessViaCustomer,
+-pheading</t>
+  </si>
+  <si>
+    <t>Verify SignUp Business via Individual</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantProfileTest,
+testNotifications,
+-ptodayquery,
+-pyesterdayquery,
+-polderquery</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testDBAInfoEditPhoneNumber,
+-pheading,
+-pdbaInformationHeading,
+-pdbaInfoPhoneNumber,
+-pfolderName,
+-pfileName</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testPayOutsReceivedList,
+-pheading,
+-pexpHeading,
+-pquery,
+-pquery1,
+-pquery2,
+-pquery3,
+-pquery4,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth,
+-pquery5</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTokenAccountActivityDetails,
+-pstartDate,
+-pendDate</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantActivityTest,
+testTransactionListFilters,
+-pfilterType,
+-pamount,
+-ptoAmount,
+-pfilterType1,
+-pfilterType2,
+-pfilterType3,
+-pfilterType4,
+-pquery1,
+-pquery2,
+-pquery3,
+-pquery4,
+-pquery5</t>
+  </si>
+  <si>
+    <t>Verify TransactionDetails Withdraw Cogent</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.SignupTest,
+testSwitchingAccounts,
+-pheading,
+-pdefaultAccount,
+-pdefaultAccount1</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testPreferences,
+-pheading,
+-ppreferencesHeading,
+-pdefaultTimeZone</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsBankAccount,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pamount,
+-ptoAmount,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsWithdrawExternalBankAccount,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pamount,
+-ptoAmount,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsWithdrawCogentAccount,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pamount,
+-ptoAmount,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailWithdrawInstantPay,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pamount,
+-ptoAmount,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsWithdrawGiftCard,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pamount,
+-ptoAmount,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsWithdrawCancelledBankAccount,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pamount,
+-ptoAmount,
+-pheading</t>
+  </si>
+  <si>
+    <t>Verify Buy Token Bank Account with SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testBuyTokenTransactionBankAccountWithSMS,
+-pnumber,
+-pamount,
+-pcode,
+-purl</t>
+  </si>
+  <si>
+    <t>verify withdraw to usd external bank account SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDExternalBankAccountSMS,
+-pheading,
+-pexternalBankHeading,
+-pexternalBankDescription,
+-pamount,
+-pmessage,
+-pverifyYourIdentityHeading,
+-pcode,
+-purl</t>
+  </si>
+  <si>
+    <t>test withdrawnToUSDCogent SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccountWithSMS,
+-pheading,
+-pcogentNumber,
+-pamount,
+-pcode1,
+-purl</t>
+  </si>
+  <si>
+    <t>test gift card with Amazon SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDGiftCardWithAmazonSMS,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pemail,
+-pemail1,
+-pamount,
+-porderHeading,
+-pauthyHeading1,
+-pcode,
+-psuccessHeading,
+-psearchKey,
+-psearchKey1,
+-purl</t>
+  </si>
+  <si>
+    <t>Verify Edit Phone Number With Valid Data SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantProfileTest,
+testEditPhoneNumberWithValidDataWithSMS,
+-pauthyEditPhoneHeading,
+-pexpEditPhoneNumberHeading,
+-pexpNumber,
+-pheadingCurrentPhoneNumber,
+-pheadingNewPhoneNumber,
+-pcode</t>
+  </si>
+  <si>
+    <t>Verify Edit Email With User Details SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantProfileTest,
+testEditEmailSMS,
+-pverifyEmail,
+-pauthiHeading,
+-pheading,
+-pmessage,
+-pcode,
+-pnewEmailAddress,
+-pcurrentEmailHeading,
+-pcurrentEmail,
+-pfillPinEmail,
+-pnewEmailHeading,
+-pnewEmail,
+-pfillPinNewEmail</t>
+  </si>
+  <si>
+    <t>Verify Change Password SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionListFilters,
+-pstartdate,
+-penddate,
+-pamount,
+-ptoAmount,
+-pquery1,
+-pquery2,
+-pquery3,
+-pquery4,
+-pquery5,
+-pquery6,
+-pquery7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.MerchantActivityTest,
+testTransactionListResetFilters,
+-pfilterType,
+-pamount,
+-ptoAmount,
+-pfilterType1,
+-pfilterType2
+</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionListResetFilters,
+-pstartdate,
+-penddate,
+-pamount,
+-ptoAmount</t>
   </si>
 </sst>
 </file>
@@ -2385,9 +2541,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2407,6 +2560,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2722,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2783,27 +2939,27 @@
         <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>292</v>
+        <v>401</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>293</v>
+    <row r="3" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>400</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -2824,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2847,7 +3003,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -2890,7 +3046,7 @@
     </row>
     <row r="6" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -2911,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -2940,7 +3096,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
@@ -2977,7 +3133,7 @@
     </row>
     <row r="9" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -2998,7 +3154,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
@@ -3027,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
@@ -3050,7 +3206,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>17</v>
@@ -3060,9 +3216,9 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>413</v>
+    <row r="12" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -3071,25 +3227,25 @@
         <v>66</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>414</v>
+        <v>59</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>21</v>
+    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>378</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -3098,79 +3254,77 @@
         <v>66</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>412</v>
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>394</v>
+    <row r="14" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -3191,12 +3345,12 @@
         <v>45</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -3211,18 +3365,18 @@
         <v>11</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>380</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
@@ -3233,54 +3387,57 @@
       <c r="D18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>48</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>358</v>
+        <v>25</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>410</v>
+        <v>108</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>25</v>
@@ -3292,13 +3449,16 @@
         <v>11</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>106</v>
       </c>
@@ -3306,7 +3466,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>25</v>
@@ -3318,106 +3478,105 @@
         <v>11</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>87</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>88</v>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>362</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>363</v>
+        <v>68</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>364</v>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>107</v>
+        <v>401</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>110</v>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>209</v>
+        <v>401</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>384</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -3426,27 +3585,27 @@
         <v>68</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -3454,36 +3613,36 @@
       <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>25</v>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -3492,19 +3651,19 @@
       <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -3512,28 +3671,28 @@
       <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>25</v>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
@@ -3545,24 +3704,24 @@
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>51</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>243</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -3571,27 +3730,27 @@
         <v>68</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>412</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I30" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -3599,28 +3758,28 @@
       <c r="C31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>441</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -3628,7 +3787,7 @@
       <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -3641,15 +3800,15 @@
         <v>50</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>259</v>
+        <v>401</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
@@ -3657,28 +3816,28 @@
       <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>246</v>
+        <v>401</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>24</v>
@@ -3686,28 +3845,28 @@
       <c r="C34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>248</v>
+        <v>401</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>54</v>
+      <c r="A35" t="s">
+        <v>245</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
@@ -3716,33 +3875,33 @@
         <v>68</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>260</v>
+      <c r="A36" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>25</v>
@@ -3754,111 +3913,111 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>261</v>
+        <v>401</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="H37" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>92</v>
+      <c r="A39" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>25</v>
+        <v>96</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>10</v>
@@ -3870,24 +4029,24 @@
         <v>20</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>10</v>
@@ -3899,71 +4058,71 @@
         <v>52</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="H42" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="H43" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -3974,7 +4133,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>25</v>
@@ -3986,24 +4145,24 @@
         <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>169</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>25</v>
@@ -4015,13 +4174,13 @@
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -4032,7 +4191,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>25</v>
@@ -4044,13 +4203,13 @@
         <v>11</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -4061,7 +4220,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>25</v>
@@ -4076,7 +4235,7 @@
         <v>23</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>64</v>
@@ -4090,7 +4249,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>25</v>
@@ -4105,39 +4264,39 @@
         <v>23</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>103</v>
-      </c>
       <c r="H49" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>165</v>
+        <v>421</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -4149,7 +4308,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>25</v>
@@ -4164,10 +4323,10 @@
         <v>28</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J50" s="6"/>
     </row>
@@ -4179,7 +4338,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>25</v>
@@ -4194,10 +4353,10 @@
         <v>30</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J51" s="6"/>
     </row>
@@ -4209,7 +4368,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>25</v>
@@ -4224,22 +4383,22 @@
         <v>32</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>25</v>
@@ -4251,85 +4410,85 @@
         <v>11</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>207</v>
+        <v>446</v>
       </c>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>25</v>
@@ -4341,25 +4500,25 @@
         <v>11</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>221</v>
+        <v>427</v>
       </c>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>25</v>
@@ -4371,25 +4530,25 @@
         <v>11</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>218</v>
+        <v>424</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>25</v>
@@ -4401,25 +4560,25 @@
         <v>11</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>25</v>
@@ -4431,25 +4590,25 @@
         <v>11</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>224</v>
+        <v>430</v>
       </c>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>25</v>
@@ -4461,25 +4620,25 @@
         <v>11</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>225</v>
+        <v>431</v>
       </c>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>25</v>
@@ -4491,25 +4650,25 @@
         <v>11</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>25</v>
@@ -4521,25 +4680,25 @@
         <v>11</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>25</v>
@@ -4551,25 +4710,25 @@
         <v>11</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>242</v>
+        <v>413</v>
       </c>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>25</v>
@@ -4581,54 +4740,55 @@
         <v>11</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>243</v>
+        <v>432</v>
       </c>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>377</v>
+    <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>414</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>379</v>
+      <c r="C65" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>25</v>
@@ -4640,24 +4800,24 @@
         <v>11</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>25</v>
@@ -4669,24 +4829,24 @@
         <v>11</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>25</v>
@@ -4698,24 +4858,24 @@
         <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>25</v>
@@ -4727,24 +4887,24 @@
         <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>25</v>
@@ -4756,256 +4916,256 @@
         <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="16" t="s">
+      <c r="H73" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H71" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="H74" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I72" s="7" t="s">
+      <c r="B75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I77" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
+    <row r="78" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="16" t="s">
+      <c r="H78" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H75" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>268</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="B79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>10</v>
@@ -5017,24 +5177,24 @@
         <v>20</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="22" t="s">
-        <v>129</v>
+        <v>401</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>253</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>25</v>
@@ -5046,82 +5206,82 @@
         <v>11</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>132</v>
+        <v>401</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>131</v>
+        <v>401</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>141</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>25</v>
@@ -5133,169 +5293,169 @@
         <v>11</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D85" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="21" t="s">
+      <c r="E87" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="18" t="s">
+      <c r="G87" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>10</v>
@@ -5307,24 +5467,24 @@
         <v>39</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I89" s="37" t="s">
-        <v>352</v>
+        <v>401</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>354</v>
+      <c r="A90" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>25</v>
@@ -5336,343 +5496,343 @@
         <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I91" s="36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="H93" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H91" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="18" t="s">
+      <c r="B94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="H94" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="E96" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="H92" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="16" t="s">
+      <c r="B97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H95" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I95" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H96" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I96" s="14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="24" t="s">
+      <c r="H99" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>386</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H97" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H98" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>263</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D99" s="16" t="s">
+      <c r="H100" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="21" t="s">
+      <c r="E101" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G99" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H99" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H100" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="G101" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>271</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>405</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>25</v>
@@ -5684,24 +5844,24 @@
         <v>11</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="25" t="s">
-        <v>160</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>408</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>25</v>
@@ -5713,24 +5873,24 @@
         <v>11</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>156</v>
+        <v>409</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="25" t="s">
-        <v>159</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>411</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>25</v>
@@ -5742,24 +5902,24 @@
         <v>11</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>156</v>
+        <v>409</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="28" t="s">
-        <v>273</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>387</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>25</v>
@@ -5771,53 +5931,53 @@
         <v>11</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>156</v>
+        <v>391</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="28" t="s">
-        <v>275</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>388</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>156</v>
+        <v>391</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="28" t="s">
-        <v>276</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>389</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>10</v>
@@ -5826,1574 +5986,2070 @@
         <v>11</v>
       </c>
       <c r="F107" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>390</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>397</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>398</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>396</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H107" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H108" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H109" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H110" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D111" s="27" t="s">
+      <c r="G118" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="21" t="s">
+      <c r="E119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A123" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H111" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="18" t="s">
+      <c r="G123" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>341</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I133" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="16" t="s">
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D112" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H112" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J112" s="6"/>
-    </row>
-    <row r="113" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H113" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J113" s="6"/>
-    </row>
-    <row r="114" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>360</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H115" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="J115" s="6"/>
-    </row>
-    <row r="116" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H116" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="J116" s="6"/>
-    </row>
-    <row r="117" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H117" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I118" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="J118" s="6"/>
-    </row>
-    <row r="119" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H120" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I120" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I121" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="J121" s="6"/>
-    </row>
-    <row r="122" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I122" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A123" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H123" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="J123" s="6"/>
-    </row>
-    <row r="124" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>296</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="15" t="s">
+      <c r="B135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H124" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I124" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="J124" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="K124" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-    </row>
-    <row r="125" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>297</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" s="15" t="s">
+      <c r="H136" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I136" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="J136" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K136" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>433</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H125" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I125" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-    </row>
-    <row r="126" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>299</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H126" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I126" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-    </row>
-    <row r="127" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>301</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H127" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-    </row>
-    <row r="128" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="H128" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I128" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="J128" s="31"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-    </row>
-    <row r="129" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="H129" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I129" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="J129" s="31"/>
-      <c r="K129" s="31"/>
-      <c r="L129" s="31"/>
-      <c r="M129" s="31"/>
-    </row>
-    <row r="130" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I130" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="J130" s="31"/>
-      <c r="K130" s="31"/>
-      <c r="L130" s="31"/>
-      <c r="M130" s="31"/>
-    </row>
-    <row r="131" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H131" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I131" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="J131" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="K131" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="L131" s="31"/>
-      <c r="M131" s="31"/>
-    </row>
-    <row r="132" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>314</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="H132" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I132" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="J132" s="31"/>
-      <c r="K132" s="31"/>
-      <c r="L132" s="31"/>
-      <c r="M132" s="31"/>
-    </row>
-    <row r="133" spans="1:13" s="35" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>345</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="H133" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I133" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="J133" s="31"/>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31"/>
-      <c r="M133" s="31"/>
-    </row>
-    <row r="134" spans="1:13" s="35" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>344</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H134" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I134" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="J134" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="K134" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="L134" s="31"/>
-      <c r="M134" s="31"/>
-    </row>
-    <row r="135" spans="1:13" s="35" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>346</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H135" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I135" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="J135" s="31"/>
-      <c r="K135" s="31"/>
-      <c r="L135" s="31"/>
-      <c r="M135" s="31"/>
-    </row>
-    <row r="136" spans="1:13" s="35" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>347</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="H136" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I136" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="J136" s="31"/>
-      <c r="K136" s="31"/>
-      <c r="L136" s="31"/>
-      <c r="M136" s="31"/>
-    </row>
-    <row r="137" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>320</v>
-      </c>
       <c r="H137" s="19" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="J137" s="38" t="s">
-        <v>396</v>
+        <v>434</v>
+      </c>
+      <c r="J137" s="37" t="s">
+        <v>366</v>
       </c>
       <c r="K137" s="14" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="23" t="s">
-        <v>321</v>
+    <row r="138" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>278</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="16" t="s">
-        <v>320</v>
+      <c r="C138" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>322</v>
+        <v>401</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="23" t="s">
-        <v>323</v>
+    <row r="139" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>280</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C139" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>320</v>
+      <c r="C139" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>325</v>
+        <v>401</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="23" t="s">
-        <v>326</v>
+    <row r="140" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>282</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C140" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>320</v>
+      <c r="C140" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H140" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>327</v>
+        <v>401</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
     </row>
-    <row r="141" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="26" t="s">
+    <row r="141" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H141" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I141" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J141" s="30"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+      <c r="M141" s="30"/>
+    </row>
+    <row r="142" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I142" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J142" s="30"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="30"/>
+      <c r="M142" s="30"/>
+    </row>
+    <row r="143" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I143" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="J143" s="30"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="30"/>
+      <c r="M143" s="30"/>
+    </row>
+    <row r="144" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I144" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="J144" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K144" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="L144" s="30"/>
+      <c r="M144" s="30"/>
+    </row>
+    <row r="145" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I145" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="J145" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K145" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="L145" s="30"/>
+      <c r="M145" s="30"/>
+    </row>
+    <row r="146" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>295</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H146" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I146" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
+      <c r="M146" s="30"/>
+    </row>
+    <row r="147" spans="1:13" s="34" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I147" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
+      <c r="M147" s="30"/>
+    </row>
+    <row r="148" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>325</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I148" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="J148" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K148" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="L148" s="30"/>
+      <c r="M148" s="30"/>
+    </row>
+    <row r="149" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>437</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I149" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="J149" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K149" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="L149" s="30"/>
+      <c r="M149" s="30"/>
+    </row>
+    <row r="150" spans="1:13" s="34" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>327</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I150" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="J150" s="30"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="30"/>
+      <c r="M150" s="30"/>
+    </row>
+    <row r="151" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>328</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" s="36" t="s">
+      <c r="B151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="D141" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="H141" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I141" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="H142" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D143" s="16" t="s">
+      <c r="D151" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I151" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="J151" s="30"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="30"/>
+      <c r="M151" s="30"/>
+    </row>
+    <row r="152" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I152" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="J152" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K152" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+    </row>
+    <row r="153" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>439</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="H153" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I153" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="J153" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K153" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A155" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D155" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="9" t="s">
+      <c r="E155" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A156" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H157" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H158" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I158" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H143" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D144" s="16" t="s">
+      <c r="G159" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H159" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I159" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D160" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="21" t="s">
+      <c r="E160" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G144" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I144" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D145" s="16" t="s">
+      <c r="G160" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H160" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I160" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="21" t="s">
+      <c r="E161" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G145" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="H145" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-    </row>
-    <row r="146" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D146" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="H146" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="J146" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="K146" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-    </row>
-    <row r="147" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="H147" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="18" t="s">
+      <c r="G161" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H162" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J162" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K162" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H163" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="16" t="s">
+      <c r="B164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H148" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I148" s="14" t="s">
+      <c r="D164" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I164" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H165" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I165" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H166" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I166" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H167" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I167" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A168" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="J148" s="6"/>
-    </row>
-    <row r="149" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" s="16" t="s">
+      <c r="B168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H149" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I149" s="14" t="s">
+      <c r="D168" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I168" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="J149" s="6"/>
-    </row>
-    <row r="150" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H150" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I150" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="J150" s="6"/>
-    </row>
-    <row r="151" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H151" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I151" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="J151" s="6"/>
-    </row>
-    <row r="152" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D152" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H152" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I152" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J152" s="6"/>
-    </row>
-    <row r="153" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="23" t="s">
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H169" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I169" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+    </row>
+    <row r="170" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H170" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I170" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="16" t="s">
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="15"/>
+    </row>
+    <row r="171" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A171" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D153" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="16" t="s">
+      <c r="B171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H171" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I171" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="H153" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I153" s="14" t="s">
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
+      <c r="N171" s="15"/>
+    </row>
+    <row r="172" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
-      <c r="N153" s="15"/>
-    </row>
-    <row r="154" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A154" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H154" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I154" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
-      <c r="M154" s="15"/>
-      <c r="N154" s="15"/>
-    </row>
-    <row r="155" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A155" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H155" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I155" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="15"/>
-      <c r="M155" s="15"/>
-      <c r="N155" s="15"/>
-    </row>
-    <row r="156" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" s="16" t="s">
+      <c r="D172" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H156" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="I156" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-      <c r="N156" s="15"/>
+      <c r="H172" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I172" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="15"/>
+      <c r="N172" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L167" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L183" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_14-03-2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81157FB9-4049-476E-9063-091D576CC656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7C87D9-E4D7-4F05-872A-3FC1751B80A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="lists" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$186</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="456">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -420,12 +420,6 @@
     <t>Profile</t>
   </si>
   <si>
-    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
-testPreferences,
--pdefaultAccount
-</t>
-  </si>
-  <si>
     <t>Verify Change Password</t>
   </si>
   <si>
@@ -704,28 +698,6 @@
 -plastName,
 -pemail1,
 -pphone</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionPurchasedDetailsList,
--pheading,
--pexpHeading,
--pqueryToday,
--pqueryYesterday,
--pqueryLast7Days,
--pqueryMonthToDate,
--pqueryLastMonth</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionWithdrawDetailsList,
--pheading,
--pexpHeading,
--pqueryToday,
--pqueryYesterday,
--pqueryLast7Days,
--pqueryMonthToDate,
--pqueryLastMonth</t>
   </si>
   <si>
     <t>Notifications</t>
@@ -994,12 +966,6 @@
   </si>
   <si>
     <t>Verify Transaction Details MerchantPayOut</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsReserveRelease,
--pfilterType,
--pheading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -1277,12 +1243,6 @@
 -pheading</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionToday,
--pheading,
--pnotificationText</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.LoginTest,
 testLoginWithPhoneNumber,
 -ploginHeading,
@@ -1688,16 +1648,6 @@
     <t>Verify Filter</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.MerchantActivityTest,
-testFilter,
--pfilterType,
--pamount,
--perrMessage,
--ptoAmount,
--pfilterType2,
--pfilterType3</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
 testCompanyInfoPage,
 -pheading,
@@ -2030,22 +1980,6 @@
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testCreateWebhook,
--pheading,
--pendpointURL,
--pdescription</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testEditWebhook,
--pheading,
--pendpointURL,
--pdescription,
--ptitle,
--pmessage</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
 testWebhookView,
 -pheading</t>
   </si>
@@ -2097,16 +2031,6 @@
     <t>VerifyTransaction Details Sale Order</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsSaleOrder,
--pfilterType,
--pfilterType1,
--pfilterType2,
--pheading,
--pamount,
--ptoamount</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.SignupTest,
 testSignUpBusinessViaCustomer,
 -pheading</t>
@@ -2132,23 +2056,6 @@
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testPayOutsReceivedList,
--pheading,
--pexpHeading,
--pquery,
--pquery1,
--pquery2,
--pquery3,
--pquery4,
--pqueryToday,
--pqueryYesterday,
--pqueryLast7Days,
--pqueryMonthToDate,
--pqueryLastMonth,
--pquery5</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -2374,6 +2281,135 @@
 -penddate,
 -pamount,
 -ptoAmount</t>
+  </si>
+  <si>
+    <t>Verify Buy Token Feature Controls</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.SystemSettingsTest,
+testFeatureControlEnable,
+-pexpActivityHeading,
+-pexpHeading,
+-pexpDescription,
+-psuccess,
+-pmessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionPurchasedDetailsList,
+-pheading,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryCustomDateRange,
+-pqueryLastMonth</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionWithdrawDetailsList,
+-pheading,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryCustomDateRange,
+-pqueryLastMonth</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testPayOutsReceivedList,
+-pheading,
+-pexpHeading,
+-pnotificationText,
+-pquery,
+-pquery1,
+-pquery2,
+-pquery3,
+-pquery4,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth,
+-pqueryCustomDateRange,
+-pquery5</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings AddDebitCard Count</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddDebitCardFifth,
+-pheading</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings AddExternalBankOATH</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddBankAccountWithOutOATHPaymentMethod,
+-pexpUserName,
+-pexpPassword,
+-paccountType</t>
+  </si>
+  <si>
+    <t>Change Password - SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsSaleOrder,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pheading,
+-pamount,
+-ptoAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
+testPreferences,
+-pdefaultAccount,
+-pdefaultAccount1
+</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testEditWebhook,
+-pheading,
+-pendpointURL,
+-pendpointDesc,
+-ptitle,
+-pmessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testCreateWebhook,
+-pheading,
+-pendpointURL,
+-pendpointDesc</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantActivityTest,
+testFilter,
+-perrMessage,
+-pfilterType3</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testExportSelectedTransactionToday,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsReserveRelease,
+-pfilterType,
+-pfilterType2,
+-pamount,
+-ptoAmount,
+-pheading</t>
   </si>
 </sst>
 </file>
@@ -2878,28 +2914,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="53.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" customWidth="1"/>
-    <col min="11" max="11" width="41.88671875" customWidth="1"/>
-    <col min="12" max="12" width="41.44140625" customWidth="1"/>
+    <col min="1" max="1" width="76.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>69</v>
       </c>
@@ -2951,15 +2987,15 @@
         <v>13</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -2980,13 +3016,13 @@
         <v>13</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>70</v>
       </c>
@@ -3003,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -3015,7 +3051,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>71</v>
       </c>
@@ -3044,9 +3080,9 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -3067,13 +3103,13 @@
         <v>13</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
@@ -3096,13 +3132,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -3131,9 +3167,9 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -3154,13 +3190,13 @@
         <v>13</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>72</v>
       </c>
@@ -3189,7 +3225,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
@@ -3206,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>17</v>
@@ -3216,7 +3252,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3269,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>17</v>
@@ -3243,9 +3279,9 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -3266,11 +3302,11 @@
         <v>17</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>44</v>
       </c>
@@ -3296,7 +3332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>46</v>
       </c>
@@ -3322,7 +3358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>47</v>
       </c>
@@ -3348,7 +3384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>48</v>
       </c>
@@ -3365,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>45</v>
@@ -3374,9 +3410,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
@@ -3397,39 +3433,39 @@
         <v>45</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="H19" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>86</v>
       </c>
@@ -3452,44 +3488,44 @@
         <v>88</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="H21" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -3510,15 +3546,15 @@
         <v>50</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -3539,15 +3575,15 @@
         <v>50</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -3568,15 +3604,15 @@
         <v>50</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -3597,13 +3633,13 @@
         <v>50</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>49</v>
       </c>
@@ -3626,15 +3662,15 @@
         <v>50</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -3655,13 +3691,13 @@
         <v>50</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>51</v>
       </c>
@@ -3678,19 +3714,19 @@
         <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>53</v>
       </c>
@@ -3713,15 +3749,15 @@
         <v>50</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -3742,15 +3778,15 @@
         <v>50</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -3771,15 +3807,15 @@
         <v>50</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -3800,15 +3836,15 @@
         <v>50</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
@@ -3823,19 +3859,19 @@
         <v>11</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>377</v>
+        <v>52</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>54</v>
       </c>
@@ -3858,15 +3894,15 @@
         <v>50</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
@@ -3887,15 +3923,15 @@
         <v>50</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -3916,15 +3952,15 @@
         <v>93</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
@@ -3945,13 +3981,13 @@
         <v>93</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>91</v>
       </c>
@@ -3974,21 +4010,21 @@
         <v>93</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I38" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>10</v>
@@ -4000,24 +4036,24 @@
         <v>20</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>10</v>
@@ -4029,24 +4065,24 @@
         <v>20</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I40" s="5" t="s">
+    </row>
+    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>99</v>
-      </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>10</v>
@@ -4058,18 +4094,18 @@
         <v>52</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>24</v>
@@ -4090,15 +4126,15 @@
         <v>93</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>24</v>
@@ -4119,13 +4155,13 @@
         <v>93</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
@@ -4145,18 +4181,18 @@
         <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
@@ -4174,16 +4210,16 @@
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>34</v>
       </c>
@@ -4203,16 +4239,16 @@
         <v>11</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>22</v>
       </c>
@@ -4235,13 +4271,13 @@
         <v>23</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>40</v>
       </c>
@@ -4264,15 +4300,15 @@
         <v>23</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="216" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>24</v>
@@ -4290,17 +4326,17 @@
         <v>11</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>27</v>
       </c>
@@ -4323,14 +4359,14 @@
         <v>28</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>29</v>
       </c>
@@ -4353,14 +4389,14 @@
         <v>30</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>163</v>
+        <v>442</v>
       </c>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>31</v>
       </c>
@@ -4383,16 +4419,16 @@
         <v>32</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>90</v>
       </c>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>24</v>
@@ -4410,19 +4446,19 @@
         <v>11</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>272</v>
+        <v>454</v>
       </c>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>24</v>
@@ -4440,19 +4476,19 @@
         <v>11</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>24</v>
@@ -4470,19 +4506,19 @@
         <v>11</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>24</v>
@@ -4500,19 +4536,19 @@
         <v>11</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>24</v>
@@ -4530,19 +4566,19 @@
         <v>11</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>24</v>
@@ -4560,19 +4596,19 @@
         <v>11</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>24</v>
@@ -4590,19 +4626,19 @@
         <v>11</v>
       </c>
       <c r="G59" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>209</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>212</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>24</v>
@@ -4620,19 +4656,19 @@
         <v>11</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>24</v>
@@ -4650,19 +4686,19 @@
         <v>11</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>225</v>
+        <v>455</v>
       </c>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
@@ -4680,19 +4716,19 @@
         <v>11</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>24</v>
@@ -4710,19 +4746,19 @@
         <v>11</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>24</v>
@@ -4740,22 +4776,22 @@
         <v>11</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>89</v>
@@ -4770,373 +4806,373 @@
         <v>20</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I65" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I70" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+    </row>
+    <row r="71" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I67" s="14" t="s">
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I72" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="16" t="s">
+      <c r="H73" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H73" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
+      <c r="H74" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="B75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="16" t="s">
+    <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H75" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I75" s="7" t="s">
+      <c r="B76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I77" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>10</v>
@@ -5148,24 +5184,24 @@
         <v>20</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>10</v>
@@ -5177,53 +5213,53 @@
         <v>20</v>
       </c>
       <c r="G79" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H79" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>253</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="H80" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="B81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>10</v>
@@ -5235,82 +5271,82 @@
         <v>20</v>
       </c>
       <c r="G81" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H81" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+      <c r="B82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+      <c r="B83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>10</v>
@@ -5322,82 +5358,82 @@
         <v>20</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I84" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I85" s="7" t="s">
+    <row r="86" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="22" t="s">
+      <c r="B86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I86" s="7" t="s">
+    </row>
+    <row r="87" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>10</v>
@@ -5409,45 +5445,45 @@
         <v>20</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>152</v>
-      </c>
       <c r="H88" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>74</v>
       </c>
@@ -5470,15 +5506,15 @@
         <v>76</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
-        <v>79</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>24</v>
@@ -5496,18 +5532,18 @@
         <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>24</v>
@@ -5516,27 +5552,27 @@
         <v>75</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I91" s="36" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>335</v>
+        <v>395</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>325</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>24</v>
@@ -5545,27 +5581,27 @@
         <v>75</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="18" t="s">
-        <v>81</v>
+        <v>395</v>
+      </c>
+      <c r="I92" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>24</v>
@@ -5583,18 +5619,18 @@
         <v>11</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>24</v>
@@ -5603,27 +5639,27 @@
         <v>75</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>77</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>24</v>
@@ -5631,382 +5667,382 @@
       <c r="C95" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>11</v>
+      <c r="D95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="H95" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A101" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>380</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>397</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>400</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H96" s="19" t="s">
+      <c r="H105" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>403</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="I96" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H97" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H98" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H99" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>386</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H100" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>248</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H101" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>405</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>408</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="H103" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I103" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>411</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="H104" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>387</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="H105" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>388</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>391</v>
-      </c>
       <c r="H106" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>25</v>
@@ -6018,887 +6054,871 @@
         <v>11</v>
       </c>
       <c r="G108" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>383</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>384</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>391</v>
       </c>
-      <c r="H108" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>397</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="B111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>390</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A117" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A118" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A119" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A121" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="H109" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>398</v>
-      </c>
-      <c r="B110" s="2" t="s">
+      <c r="C127" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="H110" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>396</v>
-      </c>
-      <c r="B111" s="2" t="s">
+      <c r="C128" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="H111" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I111" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H112" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H113" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H115" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H116" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H117" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I118" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H120" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I120" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+      <c r="C130" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I136" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I121" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I122" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A123" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D123" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H123" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="18" t="s">
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H124" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I124" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J124" s="6"/>
-    </row>
-    <row r="125" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H125" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I125" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>341</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H126" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I126" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H127" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H128" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I128" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H129" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I130" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H131" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E132" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H132" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H133" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H134" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H135" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>277</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H136" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I136" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="J136" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K136" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-    </row>
-    <row r="137" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>433</v>
-      </c>
       <c r="B137" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D137" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>23</v>
+      <c r="C137" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="J137" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K137" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-    </row>
-    <row r="138" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>24</v>
@@ -6906,32 +6926,36 @@
       <c r="C138" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D138" s="15" t="s">
-        <v>10</v>
+      <c r="D138" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G138" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
+        <v>364</v>
+      </c>
+      <c r="J138" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K138" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>24</v>
@@ -6952,19 +6976,21 @@
         <v>23</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I139" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
+        <v>395</v>
+      </c>
+      <c r="I139" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="J139" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="K139" s="14"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>423</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>24</v>
@@ -6985,19 +7011,23 @@
         <v>23</v>
       </c>
       <c r="H140" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
+        <v>424</v>
+      </c>
+      <c r="J140" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K140" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
     </row>
-    <row r="141" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="22" t="s">
-        <v>284</v>
+    <row r="141" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>273</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>24</v>
@@ -7005,104 +7035,104 @@
       <c r="C141" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D141" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="20" t="s">
-        <v>285</v>
+      <c r="D141" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H141" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I141" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="J141" s="30"/>
-      <c r="K141" s="30"/>
-      <c r="L141" s="30"/>
-      <c r="M141" s="30"/>
-    </row>
-    <row r="142" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="22" t="s">
-        <v>287</v>
+        <v>395</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>275</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="20" t="s">
-        <v>289</v>
+        <v>89</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I142" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="J142" s="30"/>
-      <c r="K142" s="30"/>
-      <c r="L142" s="30"/>
-      <c r="M142" s="30"/>
-    </row>
-    <row r="143" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="22" t="s">
-        <v>291</v>
+        <v>395</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+    </row>
+    <row r="143" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>277</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E143" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="20" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I143" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="J143" s="30"/>
-      <c r="K143" s="30"/>
-      <c r="L143" s="30"/>
-      <c r="M143" s="30"/>
-    </row>
-    <row r="144" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>25</v>
@@ -7114,32 +7144,28 @@
         <v>11</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I144" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="J144" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K144" s="14" t="s">
-        <v>371</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="I144" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J144" s="30"/>
+      <c r="K144" s="30"/>
       <c r="L144" s="30"/>
       <c r="M144" s="30"/>
     </row>
-    <row r="145" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
-        <v>435</v>
+        <v>282</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>25</v>
@@ -7151,98 +7177,98 @@
         <v>11</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H145" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I145" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="J145" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K145" s="14" t="s">
-        <v>371</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
       <c r="L145" s="30"/>
       <c r="M145" s="30"/>
     </row>
-    <row r="146" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>295</v>
+    <row r="146" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D146" s="16" t="s">
-        <v>10</v>
+        <v>283</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>11</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I146" s="31" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J146" s="30"/>
       <c r="K146" s="30"/>
       <c r="L146" s="30"/>
       <c r="M146" s="30"/>
     </row>
-    <row r="147" spans="1:13" s="34" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>326</v>
+    <row r="147" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C147" s="16" t="s">
-        <v>329</v>
+      <c r="C147" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E147" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="21" t="s">
+      <c r="E147" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="32" t="s">
         <v>11</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I147" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="J147" s="30"/>
-      <c r="K147" s="30"/>
+        <v>366</v>
+      </c>
+      <c r="J147" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K147" s="14" t="s">
+        <v>365</v>
+      </c>
       <c r="L147" s="30"/>
       <c r="M147" s="30"/>
     </row>
-    <row r="148" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>325</v>
+    <row r="148" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C148" s="16" t="s">
-        <v>329</v>
+      <c r="C148" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>25</v>
@@ -7254,211 +7280,207 @@
         <v>11</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I148" s="31" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="J148" s="37" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K148" s="14" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L148" s="30"/>
       <c r="M148" s="30"/>
     </row>
-    <row r="149" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C149" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D149" s="20" t="s">
-        <v>25</v>
+      <c r="C149" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="E149" s="32" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="H149" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I149" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="J149" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K149" s="14" t="s">
-        <v>374</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J149" s="30"/>
+      <c r="K149" s="30"/>
       <c r="L149" s="30"/>
       <c r="M149" s="30"/>
     </row>
-    <row r="150" spans="1:13" s="34" customFormat="1" ht="187.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" s="34" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="32" t="s">
-        <v>18</v>
+        <v>324</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I150" s="31" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="J150" s="30"/>
       <c r="K150" s="30"/>
       <c r="L150" s="30"/>
       <c r="M150" s="30"/>
     </row>
-    <row r="151" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D151" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E151" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="21" t="s">
+      <c r="E151" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="32" t="s">
         <v>11</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I151" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="J151" s="30"/>
-      <c r="K151" s="30"/>
+        <v>367</v>
+      </c>
+      <c r="J151" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K151" s="14" t="s">
+        <v>368</v>
+      </c>
       <c r="L151" s="30"/>
       <c r="M151" s="30"/>
     </row>
-    <row r="152" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="23" t="s">
-        <v>299</v>
+    <row r="152" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>427</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D152" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="16" t="s">
-        <v>301</v>
+        <v>324</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I152" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="I152" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="J152" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K152" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J152" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K152" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
-    </row>
-    <row r="153" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L152" s="30"/>
+      <c r="M152" s="30"/>
+    </row>
+    <row r="153" spans="1:13" s="34" customFormat="1" ht="187.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>439</v>
+        <v>322</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="16" t="s">
-        <v>301</v>
+        <v>10</v>
+      </c>
+      <c r="E153" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="H153" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I153" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="J153" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K153" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-    </row>
-    <row r="154" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="23" t="s">
-        <v>302</v>
+        <v>395</v>
+      </c>
+      <c r="I153" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="J153" s="30"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="30"/>
+      <c r="M153" s="30"/>
+    </row>
+    <row r="154" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>323</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D154" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D154" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E154" s="21" t="s">
@@ -7467,95 +7489,103 @@
       <c r="F154" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G154" s="16" t="s">
-        <v>301</v>
+      <c r="G154" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I154" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-    </row>
-    <row r="155" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="I154" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="J154" s="30"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="30"/>
+      <c r="M154" s="30"/>
+    </row>
+    <row r="155" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E155" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H155" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I155" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
+        <v>395</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="J155" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K155" s="14" t="s">
+        <v>361</v>
+      </c>
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
     </row>
-    <row r="156" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="23" t="s">
-        <v>307</v>
+    <row r="156" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>429</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E156" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
+        <v>395</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="J156" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K156" s="14" t="s">
+        <v>361</v>
+      </c>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
     </row>
-    <row r="157" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="26" t="s">
-        <v>309</v>
+    <row r="157" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A157" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C157" s="35" t="s">
-        <v>310</v>
+      <c r="C157" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>25</v>
@@ -7567,480 +7597,477 @@
         <v>11</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H157" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I157" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A158" s="26" t="s">
-        <v>313</v>
+        <v>395</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C158" s="35" t="s">
-        <v>310</v>
+      <c r="C158" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E158" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H158" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I158" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="18" t="s">
-        <v>315</v>
+        <v>395</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A159" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C159" s="35" t="s">
-        <v>310</v>
+      <c r="C159" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="9" t="s">
+      <c r="E159" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H159" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H160" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I160" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I161" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="283.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G162" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H162" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I162" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H163" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I163" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A164" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I164" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H159" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I159" s="14" t="s">
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+    </row>
+    <row r="165" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="26" t="s">
+      <c r="B165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H165" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J165" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="K165" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+    </row>
+    <row r="166" spans="1:14" ht="255" x14ac:dyDescent="0.25">
+      <c r="A166" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C160" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D160" s="16" t="s">
+      <c r="B166" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H166" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A167" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H167" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I167" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A168" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I168" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A169" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H169" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I169" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A170" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D170" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G160" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="H160" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I160" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="21" t="s">
+      <c r="E170" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G161" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="H161" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I161" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-    </row>
-    <row r="162" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C162" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="H162" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="J162" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K162" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-    </row>
-    <row r="163" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="H163" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H164" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I164" s="14" t="s">
+      <c r="G170" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H170" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I170" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="J164" s="6"/>
-    </row>
-    <row r="165" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A165" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D165" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H165" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I165" s="14" t="s">
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="J165" s="6"/>
-    </row>
-    <row r="166" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D166" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H166" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="J166" s="6"/>
-    </row>
-    <row r="167" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A167" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H167" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I167" s="14" t="s">
+      <c r="D171" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H171" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I171" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J167" s="6"/>
-    </row>
-    <row r="168" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H168" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I168" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="J168" s="6"/>
-    </row>
-    <row r="169" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A169" s="23" t="s">
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A172" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H172" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I172" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E169" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H169" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I169" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J169" s="15"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="15"/>
-      <c r="M169" s="15"/>
-      <c r="N169" s="15"/>
-    </row>
-    <row r="170" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H170" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I170" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J170" s="15"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="15"/>
-      <c r="M170" s="15"/>
-      <c r="N170" s="15"/>
-    </row>
-    <row r="171" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A171" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H171" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I171" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J171" s="15"/>
-      <c r="K171" s="15"/>
-      <c r="L171" s="15"/>
-      <c r="M171" s="15"/>
-      <c r="N171" s="15"/>
-    </row>
-    <row r="172" spans="1:14" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D172" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H172" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="I172" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="J172" s="15"/>
       <c r="K172" s="15"/>
@@ -8048,8 +8075,110 @@
       <c r="M172" s="15"/>
       <c r="N172" s="15"/>
     </row>
+    <row r="173" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H173" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I173" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+    </row>
+    <row r="174" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H174" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I174" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
+    </row>
+    <row r="175" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A175" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H175" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I175" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L183" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L186" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -8079,7 +8208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8093,12 +8222,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -8106,7 +8235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8114,7 +8243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_14-03-2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7C87D9-E4D7-4F05-872A-3FC1751B80A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0280C7C-8729-43F4-9676-C3DBF3C388D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="lists" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$178</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="438">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Verify My QR code with Navigation Option</t>
-  </si>
-  <si>
-    <t>Verify My QR code With Phone Number</t>
   </si>
   <si>
     <t>Verify My QR code With negative option</t>
@@ -366,9 +363,6 @@
     <t>Verify MerchantSettings AddExternalBank</t>
   </si>
   <si>
-    <t>Add External Bank Account</t>
-  </si>
-  <si>
     <t>Verify MerchantSettings DeleteDebitCard</t>
   </si>
   <si>
@@ -789,15 +783,6 @@
     <t>coyni.merchant.tests.SideMenuBarTest,
 testMyQRCodeWithNavigationOption,
 -pphoneNumber,
--pcontaint</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.SideMenuBarTest,
-testShareQRCodeWithPhoneNumber,
--pcopy,
--pcopyToClipBoard,
--pphoneNumber,
--pemail,
 -pcontaint</t>
   </si>
   <si>
@@ -1205,37 +1190,10 @@
 -pfilterType</t>
   </si>
   <si>
-    <t>Verify Expired Filter</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testMerchantSettingsTeamInvitationExpiredFilters,
--pheading,
--pfilterType</t>
-  </si>
-  <si>
-    <t>Verify Pending Filter</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testMerchantSettingsTeamInvitationPendingFilters,
--pheading,
--pfilterType</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.MerchantActivityTest,
 testReserveHistoryIDDetails,
 -pheading,
 -psearch</t>
-  </si>
-  <si>
-    <t>Verify Active Filter</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testMerchantSettingsTeamActiveFilters,
--pheading,
--pfilterType</t>
   </si>
   <si>
     <t>coyni.merchant.tests.GetHelpTest,
@@ -1292,27 +1250,6 @@
 -perrMessage</t>
   </si>
   <si>
-    <t>Verify Buy Token Delete Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
-testBuyTokenDeleteBank,
--pheading,
--pnumber
-</t>
-  </si>
-  <si>
-    <t>Verify Buy Token Add Bank</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testBuyTokenAddBank,
--proutingNumber,
--pconfirmRoutingNumber,
--paccountNumber,
--pconfirmAccountNumber</t>
-  </si>
-  <si>
     <t>Verify Withdraw Coyni To Usd</t>
   </si>
   <si>
@@ -1324,35 +1261,7 @@
 -pheading</t>
   </si>
   <si>
-    <t>remove external bank account</t>
-  </si>
-  <si>
     <t>testdata-merchant.xlsx,withdrawnToUSDExternalBank</t>
-  </si>
-  <si>
-    <t>remove bank account</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDRemoveExternalBankAccount,
--pheading,
--pnumber,
--pexternalBankHeading,
--pexternalBankDescription,
--premovePaymentMethodHeading,
--ppaymentMethodRemovedHeading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify withdraw to usd Add external bank account </t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDAddExternalBankAccount,
--pheading,
--proutingNumber,
--pconfirmRoutingNumber,
--paccountNumber,
--pconfirmAccountNumber</t>
   </si>
   <si>
     <t>verify withdraw to usd external bank account</t>
@@ -1376,9 +1285,6 @@
 -pamount,
 -perrMessage,
 -pmessage</t>
-  </si>
-  <si>
-    <t>Signet Account</t>
   </si>
   <si>
     <t>test gift card with Amazon</t>
@@ -1828,15 +1734,6 @@
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDCogentAccount,
--pheading,
--pcogentNumber,
--pamount,
--pcode1,
--purl</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
 testAdminTransactionCogentAccount,
 -plistHeading</t>
   </si>
@@ -1913,9 +1810,6 @@
     <t>Verify IP Address</t>
   </si>
   <si>
-    <t>Verify Additional IP Address</t>
-  </si>
-  <si>
     <t>Verify IP Address Invalid Data</t>
   </si>
   <si>
@@ -1923,29 +1817,6 @@
   </si>
   <si>
     <t>API Keys - IP Address</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testAddIpAddress,
--pnoIPExist,
--pipAddress,
--pipDescription,
--psuccessHeading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testAdditionalIpAddress,
--pnoIPExist,
--pipAddress,
--pipDescription</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testAddIpAddressInvalidData,
--pnoIPExist,
--pipAddress,
--pipDescription,
--perrMessage</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -1955,9 +1826,6 @@
   </si>
   <si>
     <t>Verify Webhook View</t>
-  </si>
-  <si>
-    <t>Verify Create Webhooks</t>
   </si>
   <si>
     <t xml:space="preserve">Verify Edit Webhook </t>
@@ -2053,9 +1921,6 @@
 -pdbaInfoPhoneNumber,
 -pfolderName,
 -pfileName</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -2184,15 +2049,6 @@
   </si>
   <si>
     <t>test withdrawnToUSDCogent SMS</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDCogentAccountWithSMS,
--pheading,
--pcogentNumber,
--pamount,
--pcode1,
--purl</t>
   </si>
   <si>
     <t>test gift card with Amazon SMS</t>
@@ -2295,35 +2151,133 @@
 -pmessage</t>
   </si>
   <si>
+    <t>Verify MerchantSettings AddDebitCard Count</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddDebitCardFifth,
+-pheading</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings AddExternalBankOATH</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddBankAccountWithOutOATHPaymentMethod,
+-pexpUserName,
+-pexpPassword,
+-paccountType</t>
+  </si>
+  <si>
+    <t>Change Password - SMS</t>
+  </si>
+  <si>
     <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionPurchasedDetailsList,
+testTransactionDetailsSaleOrder,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
 -pheading,
--pexpHeading,
--pqueryToday,
--pqueryYesterday,
--pqueryLast7Days,
--pqueryMonthToDate,
--pqueryCustomDateRange,
--pqueryLastMonth</t>
+-pamount,
+-ptoAmount</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testEditWebhook,
+-pheading,
+-pendpointURL,
+-pendpointDesc,
+-ptitle,
+-pmessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantActivityTest,
+testFilter,
+-perrMessage,
+-pfilterType3</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionWithdrawDetailsList,
+testExportSelectedTransactionToday,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsReserveRelease,
+-pfilterType,
+-pfilterType2,
+-pamount,
+-ptoAmount,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccount,
 -pheading,
--pexpHeading,
--pqueryToday,
--pqueryYesterday,
--pqueryLast7Days,
--pqueryMonthToDate,
--pqueryCustomDateRange,
--pqueryLastMonth</t>
+-pcogentNumber,
+-pamount,
+-pcode1,
+-purl,
+-pfilterType,
+-pfilterType1</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccountWithSMS,
+-pheading,
+-pcogentNumber,
+-pamount,
+-pcode1,
+-purl,
+-pfilterType,
+-pfilterType1</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginHeading1,
+-ploginDescription1,
+-pemail2,
+-ppassword1,
+-pattribute1,
+-pauthyHeading2,
+-pauthyDescription1,
+-pcode1,
+-pmessage1,
+-psecurityKey1</t>
+  </si>
+  <si>
+    <t>Verify Instant Pay SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDViaInstantPayWithSMS,
+-pwithdrawToUSDHeading,
+-pinstantPayHeading,
+-pnumber,
+-pamount,
+-pmessage,
+-pauthyVerificationHeading,
+-pcode1,
+-pexpTransactionInProgressHeading,
+-purl</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
+testPreferences,
+-pdefaultAccount,
+-pdefaultAccount1,
+-pheading
+</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
 testPayOutsReceivedList,
 -pheading,
 -pexpHeading,
--pnotificationText,
 -pquery,
 -pquery1,
 -pquery2,
@@ -2334,82 +2288,65 @@
 -pqueryLast7Days,
 -pqueryMonthToDate,
 -pqueryLastMonth,
--pqueryCustomDateRange,
+-pstartdate,
+-penddate,
 -pquery5</t>
   </si>
   <si>
-    <t>Verify MerchantSettings AddDebitCard Count</t>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionWithdrawDetailsList,
+-pheading,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth,
+-penddate,
+-pstartdate</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionPurchasedDetailsList,
+-pheading,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth,
+-penddate,
+-pstartdate</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testAddDebitCardFifth,
--pheading</t>
-  </si>
-  <si>
-    <t>Verify MerchantSettings AddExternalBankOATH</t>
+testAddIpAddress,
+-pipAddress,
+-pipDescription,
+-pipAddress1,
+-pipDescription1,
+-pipAddress2,
+-pipDescription2,
+-psuccessHeading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testAddBankAccountWithOutOATHPaymentMethod,
--pexpUserName,
--pexpPassword,
--paccountType</t>
-  </si>
-  <si>
-    <t>Change Password - SMS</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsSaleOrder,
--pfilterType,
--pfilterType1,
--pfilterType2,
--pheading,
--pamount,
--ptoAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
-testPreferences,
--pdefaultAccount,
--pdefaultAccount1
-</t>
+testAddIpAddressInvalidData,
+-pnoIPExist,
+-pipAddress,
+-pipDescription,
+-perrMessage,
+-ptoastTitle,
+-ptoastMessage</t>
+  </si>
+  <si>
+    <t>Verify Additional IP Address</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testEditWebhook,
--pheading,
--pendpointURL,
--pendpointDesc,
--ptitle,
--pmessage</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testCreateWebhook,
--pheading,
--pendpointURL,
--pendpointDesc</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantActivityTest,
-testFilter,
--perrMessage,
--pfilterType3</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionToday,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsReserveRelease,
--pfilterType,
--pfilterType2,
--pamount,
--ptoAmount,
--pheading</t>
+testAdditionalIpAddress,
+-pipAddress,
+-pipDescription</t>
   </si>
 </sst>
 </file>
@@ -2914,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,13 +2903,13 @@
     </row>
     <row r="2" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -2987,7 +2924,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -2995,13 +2932,13 @@
     </row>
     <row r="3" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -3016,7 +2953,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -3024,13 +2961,13 @@
     </row>
     <row r="4" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -3039,13 +2976,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -3053,13 +2990,13 @@
     </row>
     <row r="5" spans="1:11" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -3074,7 +3011,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -3082,13 +3019,13 @@
     </row>
     <row r="6" spans="1:11" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
@@ -3103,7 +3040,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -3117,7 +3054,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -3132,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
@@ -3146,7 +3083,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -3161,7 +3098,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -3169,13 +3106,13 @@
     </row>
     <row r="9" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -3190,7 +3127,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
@@ -3198,13 +3135,13 @@
     </row>
     <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>25</v>
@@ -3219,7 +3156,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
@@ -3233,7 +3170,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>10</v>
@@ -3242,13 +3179,13 @@
         <v>11</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -3260,7 +3197,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>10</v>
@@ -3269,25 +3206,25 @@
         <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>25</v>
@@ -3302,45 +3239,45 @@
         <v>17</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>10</v>
@@ -3352,21 +3289,21 @@
         <v>18</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>25</v>
@@ -3378,21 +3315,21 @@
         <v>11</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>10</v>
@@ -3401,24 +3338,24 @@
         <v>11</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>25</v>
@@ -3430,22 +3367,22 @@
         <v>11</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="D19" s="16" t="s">
         <v>25</v>
       </c>
@@ -3456,82 +3393,82 @@
         <v>11</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="H20" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>25</v>
@@ -3543,24 +3480,24 @@
         <v>11</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>25</v>
@@ -3572,24 +3509,24 @@
         <v>11</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>25</v>
@@ -3601,24 +3538,24 @@
         <v>11</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>10</v>
@@ -3630,24 +3567,24 @@
         <v>20</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
@@ -3659,24 +3596,24 @@
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -3688,24 +3625,24 @@
         <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>10</v>
@@ -3714,27 +3651,27 @@
         <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
@@ -3746,24 +3683,24 @@
         <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>25</v>
@@ -3775,24 +3712,24 @@
         <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>10</v>
@@ -3804,24 +3741,24 @@
         <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>25</v>
@@ -3833,24 +3770,24 @@
         <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
@@ -3859,27 +3796,27 @@
         <v>11</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>10</v>
@@ -3891,24 +3828,24 @@
         <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>25</v>
@@ -3920,24 +3857,24 @@
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>25</v>
@@ -3949,24 +3886,24 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>25</v>
@@ -3978,53 +3915,53 @@
         <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="H38" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>10</v>
@@ -4036,24 +3973,24 @@
         <v>20</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>10</v>
@@ -4065,24 +4002,24 @@
         <v>20</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>10</v>
@@ -4091,27 +4028,27 @@
         <v>11</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>25</v>
@@ -4123,24 +4060,24 @@
         <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>25</v>
@@ -4152,13 +4089,13 @@
         <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4169,7 +4106,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>25</v>
@@ -4181,24 +4118,24 @@
         <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>25</v>
@@ -4210,13 +4147,13 @@
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4227,7 +4164,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>25</v>
@@ -4239,13 +4176,13 @@
         <v>11</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4256,7 +4193,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>25</v>
@@ -4271,21 +4208,21 @@
         <v>23</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>25</v>
@@ -4300,21 +4237,21 @@
         <v>23</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>25</v>
@@ -4326,17 +4263,17 @@
         <v>11</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>27</v>
       </c>
@@ -4344,7 +4281,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>25</v>
@@ -4359,14 +4296,14 @@
         <v>28</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>29</v>
       </c>
@@ -4374,7 +4311,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>25</v>
@@ -4389,10 +4326,10 @@
         <v>30</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="J51" s="6"/>
     </row>
@@ -4404,7 +4341,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>25</v>
@@ -4419,22 +4356,22 @@
         <v>32</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>25</v>
@@ -4446,25 +4383,25 @@
         <v>11</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>25</v>
@@ -4476,25 +4413,25 @@
         <v>11</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>25</v>
@@ -4506,25 +4443,25 @@
         <v>11</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>25</v>
@@ -4536,25 +4473,25 @@
         <v>11</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>25</v>
@@ -4566,25 +4503,25 @@
         <v>11</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>25</v>
@@ -4596,25 +4533,25 @@
         <v>11</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>25</v>
@@ -4626,25 +4563,25 @@
         <v>11</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>25</v>
@@ -4656,25 +4593,25 @@
         <v>11</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H60" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I60" s="14" t="s">
         <v>395</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>421</v>
       </c>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>25</v>
@@ -4686,25 +4623,25 @@
         <v>11</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>25</v>
@@ -4716,25 +4653,25 @@
         <v>11</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>25</v>
@@ -4746,25 +4683,25 @@
         <v>11</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>25</v>
@@ -4776,25 +4713,25 @@
         <v>11</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>10</v>
@@ -4806,25 +4743,25 @@
         <v>20</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>25</v>
@@ -4836,24 +4773,24 @@
         <v>11</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>25</v>
@@ -4865,24 +4802,24 @@
         <v>11</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>25</v>
@@ -4894,24 +4831,24 @@
         <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>25</v>
@@ -4923,24 +4860,24 @@
         <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>25</v>
@@ -4952,24 +4889,24 @@
         <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>25</v>
@@ -4981,24 +4918,24 @@
         <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>25</v>
@@ -5010,24 +4947,24 @@
         <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>25</v>
@@ -5039,24 +4976,24 @@
         <v>11</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>25</v>
@@ -5068,24 +5005,24 @@
         <v>11</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>25</v>
@@ -5097,24 +5034,24 @@
         <v>11</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>25</v>
@@ -5126,53 +5063,53 @@
         <v>11</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>122</v>
-      </c>
       <c r="H77" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>10</v>
@@ -5184,24 +5121,24 @@
         <v>20</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>10</v>
@@ -5213,24 +5150,24 @@
         <v>20</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>25</v>
@@ -5242,24 +5179,24 @@
         <v>11</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>10</v>
@@ -5271,24 +5208,24 @@
         <v>20</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>25</v>
@@ -5300,24 +5237,24 @@
         <v>11</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>25</v>
@@ -5329,24 +5266,24 @@
         <v>11</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>10</v>
@@ -5358,53 +5295,53 @@
         <v>20</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>25</v>
@@ -5416,24 +5353,24 @@
         <v>11</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>10</v>
@@ -5445,24 +5382,24 @@
         <v>20</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>25</v>
@@ -5474,24 +5411,24 @@
         <v>11</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>10</v>
@@ -5500,27 +5437,27 @@
         <v>11</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>25</v>
@@ -5532,24 +5469,24 @@
         <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>25</v>
@@ -5561,24 +5498,24 @@
         <v>11</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>10</v>
@@ -5587,27 +5524,27 @@
         <v>11</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>25</v>
@@ -5619,24 +5556,24 @@
         <v>11</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>25</v>
@@ -5648,24 +5585,24 @@
         <v>11</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>10</v>
@@ -5674,27 +5611,27 @@
         <v>11</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>25</v>
@@ -5706,24 +5643,24 @@
         <v>11</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>25</v>
@@ -5735,24 +5672,24 @@
         <v>11</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>10</v>
@@ -5761,27 +5698,27 @@
         <v>11</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>25</v>
@@ -5793,24 +5730,24 @@
         <v>11</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>25</v>
@@ -5822,24 +5759,24 @@
         <v>11</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>25</v>
@@ -5851,24 +5788,24 @@
         <v>11</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>25</v>
@@ -5880,24 +5817,24 @@
         <v>11</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>10</v>
@@ -5909,24 +5846,24 @@
         <v>16</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>25</v>
@@ -5938,24 +5875,24 @@
         <v>11</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>25</v>
@@ -5967,24 +5904,24 @@
         <v>11</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>25</v>
@@ -5996,24 +5933,24 @@
         <v>11</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>25</v>
@@ -6025,24 +5962,24 @@
         <v>11</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>25</v>
@@ -6054,24 +5991,24 @@
         <v>11</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>10</v>
@@ -6080,27 +6017,27 @@
         <v>11</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>25</v>
@@ -6112,24 +6049,24 @@
         <v>11</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>25</v>
@@ -6141,24 +6078,24 @@
         <v>11</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>25</v>
@@ -6170,27 +6107,27 @@
         <v>11</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>451</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>390</v>
+      <c r="A113" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E113" s="21" t="s">
         <v>11</v>
@@ -6199,256 +6136,256 @@
         <v>11</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>393</v>
+        <v>150</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>396</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D114" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H115" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="E116" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
-        <v>156</v>
+      <c r="A117" s="28" t="s">
+        <v>254</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E117" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A119" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I119" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I118" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D120" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D121" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H120" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I120" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>10</v>
-      </c>
       <c r="E121" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I121" s="14" t="s">
-        <v>259</v>
+        <v>370</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>265</v>
+      <c r="A122" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>25</v>
@@ -6460,24 +6397,25 @@
         <v>11</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>266</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J122" s="6"/>
     </row>
     <row r="123" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>260</v>
+      <c r="A123" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>25</v>
@@ -6489,24 +6427,25 @@
         <v>11</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>261</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J123" s="6"/>
     </row>
     <row r="124" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>262</v>
+      <c r="A124" t="s">
+        <v>317</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>25</v>
@@ -6518,53 +6457,55 @@
         <v>11</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>10</v>
+        <v>184</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E125" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>166</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="J125" s="6"/>
     </row>
     <row r="126" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>25</v>
@@ -6576,25 +6517,25 @@
         <v>11</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>25</v>
@@ -6606,25 +6547,25 @@
         <v>11</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>336</v>
+      <c r="A128" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>25</v>
@@ -6636,25 +6577,25 @@
         <v>11</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>25</v>
@@ -6666,25 +6607,25 @@
         <v>11</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
       <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>25</v>
@@ -6696,25 +6637,25 @@
         <v>11</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>437</v>
+        <v>216</v>
       </c>
       <c r="J130" s="6"/>
     </row>
     <row r="131" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>25</v>
@@ -6726,25 +6667,25 @@
         <v>11</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>25</v>
@@ -6756,25 +6697,25 @@
         <v>11</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>25</v>
@@ -6786,353 +6727,377 @@
         <v>11</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="J133" s="6"/>
     </row>
-    <row r="134" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
-        <v>216</v>
+    <row r="134" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>263</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C134" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>188</v>
+      <c r="C134" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
-        <v>193</v>
+        <v>345</v>
+      </c>
+      <c r="J134" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K134" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>412</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>188</v>
+      <c r="C135" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
-        <v>195</v>
+        <v>370</v>
+      </c>
+      <c r="I135" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K135" s="14"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>397</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>188</v>
+      <c r="C136" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I136" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="J136" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K136" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>264</v>
       </c>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
-        <v>192</v>
-      </c>
       <c r="B137" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>188</v>
+      <c r="C137" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H138" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I138" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J138" s="30"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+      <c r="M138" s="30"/>
+    </row>
+    <row r="139" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I139" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="J139" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K139" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="L139" s="30"/>
+      <c r="M139" s="30"/>
+    </row>
+    <row r="140" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H140" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I140" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="J140" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K140" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="L140" s="30"/>
+      <c r="M140" s="30"/>
+    </row>
+    <row r="141" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D138" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H138" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I138" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="J138" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K138" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-    </row>
-    <row r="139" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>439</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H139" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I139" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="J139" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="K139" s="14"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-    </row>
-    <row r="140" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>423</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D140" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H140" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I140" s="14" t="s">
+      <c r="B141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H141" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I141" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J141" s="30"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+      <c r="M141" s="30"/>
+    </row>
+    <row r="142" spans="1:13" s="34" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I142" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="J142" s="30"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="30"/>
+      <c r="M142" s="30"/>
+    </row>
+    <row r="143" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>301</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I143" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="J140" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K140" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-    </row>
-    <row r="141" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>273</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H141" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I141" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-    </row>
-    <row r="142" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>275</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D142" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-    </row>
-    <row r="143" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>277</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D143" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H143" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-    </row>
-    <row r="144" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="22" t="s">
-        <v>279</v>
+      <c r="J143" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K143" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="L143" s="30"/>
+      <c r="M143" s="30"/>
+    </row>
+    <row r="144" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>401</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C144" s="20" t="s">
-        <v>89</v>
+      <c r="C144" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>25</v>
@@ -7144,46 +7109,50 @@
         <v>11</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I144" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="J144" s="30"/>
-      <c r="K144" s="30"/>
+        <v>370</v>
+      </c>
+      <c r="I144" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="J144" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K144" s="14" t="s">
+        <v>348</v>
+      </c>
       <c r="L144" s="30"/>
       <c r="M144" s="30"/>
     </row>
-    <row r="145" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="22" t="s">
-        <v>282</v>
+    <row r="145" spans="1:13" s="34" customFormat="1" ht="187.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>303</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C145" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>25</v>
+      <c r="C145" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="E145" s="32" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="H145" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I145" s="31" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="J145" s="30"/>
       <c r="K145" s="30"/>
@@ -7191,401 +7160,369 @@
       <c r="M145" s="30"/>
     </row>
     <row r="146" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
-        <v>286</v>
+      <c r="A146" t="s">
+        <v>304</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="20" t="s">
-        <v>283</v>
+      <c r="C146" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E146" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="32" t="s">
+      <c r="E146" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I146" s="31" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="J146" s="30"/>
       <c r="K146" s="30"/>
       <c r="L146" s="30"/>
       <c r="M146" s="30"/>
     </row>
-    <row r="147" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
+    <row r="147" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="J147" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="K147" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>402</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I148" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="J148" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="K148" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A149" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A150" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A151" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I152" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" s="20" t="s">
+    </row>
+    <row r="153" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="H147" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I147" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="J147" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K147" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="L147" s="30"/>
-      <c r="M147" s="30"/>
-    </row>
-    <row r="148" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D148" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E148" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="H148" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I148" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="J148" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K148" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="L148" s="30"/>
-      <c r="M148" s="30"/>
-    </row>
-    <row r="149" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H153" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I153" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D149" s="16" t="s">
+    </row>
+    <row r="154" spans="1:13" ht="283.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D154" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="32" t="s">
+      <c r="E154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G149" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="H149" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I149" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="J149" s="30"/>
-      <c r="K149" s="30"/>
-      <c r="L149" s="30"/>
-      <c r="M149" s="30"/>
-    </row>
-    <row r="150" spans="1:13" s="34" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>321</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="H150" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I150" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="J150" s="30"/>
-      <c r="K150" s="30"/>
-      <c r="L150" s="30"/>
-      <c r="M150" s="30"/>
-    </row>
-    <row r="151" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>320</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E151" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="H151" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I151" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="J151" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K151" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="L151" s="30"/>
-      <c r="M151" s="30"/>
-    </row>
-    <row r="152" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>427</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E152" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="H152" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I152" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="J152" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K152" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="L152" s="30"/>
-      <c r="M152" s="30"/>
-    </row>
-    <row r="153" spans="1:13" s="34" customFormat="1" ht="187.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>322</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E153" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="H153" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I153" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="J153" s="30"/>
-      <c r="K153" s="30"/>
-      <c r="L153" s="30"/>
-      <c r="M153" s="30"/>
-    </row>
-    <row r="154" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>323</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="H154" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I154" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="J154" s="30"/>
-      <c r="K154" s="30"/>
-      <c r="L154" s="30"/>
-      <c r="M154" s="30"/>
-    </row>
-    <row r="155" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H155" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I155" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="J155" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K155" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-    </row>
-    <row r="156" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>429</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="G156" s="16" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I156" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="J156" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K156" s="14" t="s">
-        <v>361</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
     </row>
     <row r="157" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C157" s="16" t="s">
-        <v>295</v>
+      <c r="C157" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>25</v>
@@ -7597,94 +7534,98 @@
         <v>11</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H157" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="J157" s="6"/>
-      <c r="K157" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="J157" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K157" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
     </row>
-    <row r="158" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A158" s="23" t="s">
-        <v>299</v>
+    <row r="158" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>427</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C158" s="16" t="s">
-        <v>295</v>
+      <c r="C158" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E158" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H158" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I158" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
+        <v>428</v>
+      </c>
+      <c r="J158" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K158" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
     </row>
-    <row r="159" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A159" s="23" t="s">
-        <v>302</v>
+    <row r="159" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
+        <v>299</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C159" s="16" t="s">
-        <v>295</v>
+      <c r="C159" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E159" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F159" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="H159" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I159" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G159" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H159" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-    </row>
-    <row r="160" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="26" t="s">
-        <v>304</v>
+    </row>
+    <row r="160" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A160" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C160" s="35" t="s">
-        <v>305</v>
+      <c r="C160" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>25</v>
@@ -7696,24 +7637,25 @@
         <v>11</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>306</v>
+        <v>177</v>
       </c>
       <c r="H160" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>307</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="J160" s="6"/>
     </row>
     <row r="161" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
-        <v>308</v>
+      <c r="A161" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C161" s="35" t="s">
-        <v>305</v>
+      <c r="C161" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>25</v>
@@ -7725,115 +7667,119 @@
         <v>11</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>306</v>
+        <v>177</v>
       </c>
       <c r="H161" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I161" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="283.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
-        <v>310</v>
+        <v>179</v>
+      </c>
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A162" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C162" s="35" t="s">
-        <v>305</v>
+      <c r="C162" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>311</v>
+      <c r="E162" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="H162" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I162" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="26" t="s">
-        <v>313</v>
+        <v>180</v>
+      </c>
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C163" s="35" t="s">
-        <v>305</v>
+      <c r="C163" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E163" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>306</v>
+        <v>177</v>
       </c>
       <c r="H163" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I163" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="180" x14ac:dyDescent="0.25">
-      <c r="A164" s="26" t="s">
-        <v>315</v>
+        <v>183</v>
+      </c>
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A164" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C164" s="35" t="s">
-        <v>305</v>
+      <c r="C164" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E164" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="H164" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="1:14" ht="180" x14ac:dyDescent="0.25">
-      <c r="A165" s="23" t="s">
-        <v>317</v>
+        <v>370</v>
+      </c>
+      <c r="I164" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
+    </row>
+    <row r="165" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A165" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C165" s="35" t="s">
-        <v>305</v>
+      <c r="C165" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>25</v>
@@ -7845,32 +7791,29 @@
         <v>11</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="H165" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I165" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="J165" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="K165" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-    </row>
-    <row r="166" spans="1:14" ht="255" x14ac:dyDescent="0.25">
-      <c r="A166" s="26" t="s">
-        <v>318</v>
+        <v>370</v>
+      </c>
+      <c r="I165" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+    </row>
+    <row r="166" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A166" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C166" s="35" t="s">
-        <v>305</v>
+      <c r="C166" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>25</v>
@@ -7882,24 +7825,29 @@
         <v>11</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I166" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="I166" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+      <c r="N166" s="15"/>
+    </row>
+    <row r="167" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>25</v>
@@ -7911,274 +7859,22 @@
         <v>11</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J167" s="6"/>
-    </row>
-    <row r="168" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A168" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H168" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I168" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J168" s="6"/>
-    </row>
-    <row r="169" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A169" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E169" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H169" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I169" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="J169" s="6"/>
-    </row>
-    <row r="170" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A170" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H170" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I170" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="J170" s="6"/>
-    </row>
-    <row r="171" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H171" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I171" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J171" s="6"/>
-    </row>
-    <row r="172" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A172" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D172" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="H172" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I172" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J172" s="15"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="15"/>
-      <c r="M172" s="15"/>
-      <c r="N172" s="15"/>
-    </row>
-    <row r="173" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D173" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E173" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="H173" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I173" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J173" s="15"/>
-      <c r="K173" s="15"/>
-      <c r="L173" s="15"/>
-      <c r="M173" s="15"/>
-      <c r="N173" s="15"/>
-    </row>
-    <row r="174" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D174" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="H174" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I174" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="J174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="15"/>
-      <c r="M174" s="15"/>
-      <c r="N174" s="15"/>
-    </row>
-    <row r="175" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A175" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E175" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H175" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="I175" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="J175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="15"/>
-      <c r="M175" s="15"/>
-      <c r="N175" s="15"/>
+        <v>258</v>
+      </c>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L186" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:L178" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -8245,7 +7941,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_14-03-2023\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_24_04_2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0280C7C-8729-43F4-9676-C3DBF3C388D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A4D81-8302-4FFB-B252-5D71C5AB75B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="lists" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$187</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="465">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -363,6 +363,9 @@
     <t>Verify MerchantSettings AddExternalBank</t>
   </si>
   <si>
+    <t>Add External Bank Account</t>
+  </si>
+  <si>
     <t>Verify MerchantSettings DeleteDebitCard</t>
   </si>
   <si>
@@ -412,6 +415,12 @@
   </si>
   <si>
     <t>Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
+testPreferences,
+-pdefaultAccount
+</t>
   </si>
   <si>
     <t>Verify Change Password</t>
@@ -683,15 +692,6 @@
   </si>
   <si>
     <t>testdata-merchant.xlsx,merchantSettings-Team</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testMerchantSettingsAddTeamMember,
--pheading,
--pfirstName,
--plastName,
--pemail1,
--pphone</t>
   </si>
   <si>
     <t>Notifications</t>
@@ -951,6 +951,12 @@
   </si>
   <si>
     <t>Verify Transaction Details MerchantPayOut</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsReserveRelease,
+-pfilterType,
+-pheading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -1190,15 +1196,48 @@
 -pfilterType</t>
   </si>
   <si>
+    <t>Verify Expired Filter</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testMerchantSettingsTeamInvitationExpiredFilters,
+-pheading,
+-pfilterType</t>
+  </si>
+  <si>
+    <t>Verify Pending Filter</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testMerchantSettingsTeamInvitationPendingFilters,
+-pheading,
+-pfilterType</t>
+  </si>
+  <si>
     <t>coyni.merchant.tests.MerchantActivityTest,
 testReserveHistoryIDDetails,
 -pheading,
 -psearch</t>
   </si>
   <si>
+    <t>Verify Active Filter</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testMerchantSettingsTeamActiveFilters,
+-pheading,
+-pfilterType</t>
+  </si>
+  <si>
     <t>coyni.merchant.tests.GetHelpTest,
 testGetHelp,
 -pheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testExportSelectedTransactionToday,
+-pheading,
+-pnotificationText</t>
   </si>
   <si>
     <t>coyni.merchant.tests.LoginTest,
@@ -1219,17 +1258,6 @@
 -pphoneHeading</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLogin,
--ploginHeading,
--pemail,
--ppassword,
--pauthyHeading,
--pcode,
--psecurityKey,
--pattribute</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.SideMenuBarTest,
 testSideMenuBar,
 -pcssProp, 
@@ -1250,6 +1278,27 @@
 -perrMessage</t>
   </si>
   <si>
+    <t>Verify Buy Token Delete Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.TokenAccountTest,
+testBuyTokenDeleteBank,
+-pheading,
+-pnumber
+</t>
+  </si>
+  <si>
+    <t>Verify Buy Token Add Bank</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testBuyTokenAddBank,
+-proutingNumber,
+-pconfirmRoutingNumber,
+-paccountNumber,
+-pconfirmAccountNumber</t>
+  </si>
+  <si>
     <t>Verify Withdraw Coyni To Usd</t>
   </si>
   <si>
@@ -1261,7 +1310,35 @@
 -pheading</t>
   </si>
   <si>
+    <t>remove external bank account</t>
+  </si>
+  <si>
     <t>testdata-merchant.xlsx,withdrawnToUSDExternalBank</t>
+  </si>
+  <si>
+    <t>remove bank account</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDRemoveExternalBankAccount,
+-pheading,
+-pnumber,
+-pexternalBankHeading,
+-pexternalBankDescription,
+-premovePaymentMethodHeading,
+-ppaymentMethodRemovedHeading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify withdraw to usd Add external bank account </t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDAddExternalBankAccount,
+-pheading,
+-proutingNumber,
+-pconfirmRoutingNumber,
+-paccountNumber,
+-pconfirmAccountNumber</t>
   </si>
   <si>
     <t>verify withdraw to usd external bank account</t>
@@ -1285,6 +1362,9 @@
 -pamount,
 -perrMessage,
 -pmessage</t>
+  </si>
+  <si>
+    <t>Signet Account</t>
   </si>
   <si>
     <t>test gift card with Amazon</t>
@@ -1554,6 +1634,16 @@
     <t>Verify Filter</t>
   </si>
   <si>
+    <t>coyni.merchant.tests.MerchantActivityTest,
+testFilter,
+-pfilterType,
+-pamount,
+-perrMessage,
+-ptoAmount,
+-pfilterType2,
+-pfilterType3</t>
+  </si>
+  <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
 testCompanyInfoPage,
 -pheading,
@@ -1734,6 +1824,15 @@
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccount,
+-pheading,
+-pcogentNumber,
+-pamount,
+-pcode1,
+-purl</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
 testAdminTransactionCogentAccount,
 -plistHeading</t>
   </si>
@@ -1810,6 +1909,9 @@
     <t>Verify IP Address</t>
   </si>
   <si>
+    <t>Verify Additional IP Address</t>
+  </si>
+  <si>
     <t>Verify IP Address Invalid Data</t>
   </si>
   <si>
@@ -1828,6 +1930,9 @@
     <t>Verify Webhook View</t>
   </si>
   <si>
+    <t>Verify Create Webhooks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify Edit Webhook </t>
   </si>
   <si>
@@ -1837,14 +1942,20 @@
     <t>Merchant Login View</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLogin,
--ploginHeading,
--pemail,
--ppassword,
--pauthyHeading,
--pcode,
--psecurityKey</t>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testCreateWebhook,
+-pheading,
+-pendpointURL,
+-pdescription</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testEditWebhook,
+-pheading,
+-pendpointURL,
+-pdescription,
+-ptitle,
+-pmessage</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -1899,6 +2010,16 @@
     <t>VerifyTransaction Details Sale Order</t>
   </si>
   <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsSaleOrder,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pheading,
+-pamount,
+-ptoamount</t>
+  </si>
+  <si>
     <t>coyni.merchant.tests.SignupTest,
 testSignUpBusinessViaCustomer,
 -pheading</t>
@@ -1921,6 +2042,9 @@
 -pdbaInfoPhoneNumber,
 -pfolderName,
 -pfileName</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -2049,6 +2173,15 @@
   </si>
   <si>
     <t>test withdrawnToUSDCogent SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDCogentAccountWithSMS,
+-pheading,
+-pcogentNumber,
+-pamount,
+-pcode1,
+-purl</t>
   </si>
   <si>
     <t>test gift card with Amazon SMS</t>
@@ -2139,139 +2272,87 @@
 -ptoAmount</t>
   </si>
   <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>testdata-merchant1.xlsx,merchantSettings-Team</t>
+  </si>
+  <si>
     <t>Verify Buy Token Feature Controls</t>
   </si>
   <si>
-    <t>coyni.admin.tests.SystemSettingsTest,
-testFeatureControlEnable,
--pexpActivityHeading,
--pexpHeading,
--pexpDescription,
--psuccess,
--pmessage</t>
-  </si>
-  <si>
-    <t>Verify MerchantSettings AddDebitCard Count</t>
+    <t>coyni.merchant.tests.LoginTest,
+testLogin,
+-ploginHeading,
+-pmerchEmail,
+-pmerchPassword,
+-pauthyHeading,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLogin,
+-ploginHeading,
+-pmerchEmail,
+-pmerchPassword,
+-pauthyHeading,
+-pcode,
+-psecurityKey,
+-pattribute</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>testdata-merchant1.xlsx,tokenAccount</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testProfileMerchantPreferencesControls,
+-psearch,
+-purl</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testBuyTokenTransactionFeatureControls,
+-pFeatureControlheading</t>
+  </si>
+  <si>
+    <t>Verify Withdraw Token Feature Controls</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawTransactionFeatureControls,
+-pFeatureControlheading</t>
+  </si>
+  <si>
+    <t>Verify Merchant Settings Payment Method Feature Controls</t>
+  </si>
+  <si>
+    <t>Debit Card - Feature Controls</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testAddDebitCardFifth,
--pheading</t>
-  </si>
-  <si>
-    <t>Verify MerchantSettings AddExternalBankOATH</t>
+testPaymentMethodFeatureControls,
+-pFeatureControlheading</t>
+  </si>
+  <si>
+    <t>testdata-merchant1.xlsx,merchantSettings-Payment Method</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
-testAddBankAccountWithOutOATHPaymentMethod,
--pexpUserName,
--pexpPassword,
--paccountType</t>
-  </si>
-  <si>
-    <t>Change Password - SMS</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsSaleOrder,
--pfilterType,
--pfilterType1,
--pfilterType2,
+testMerchantSettingsAddTeamMember,
 -pheading,
--pamount,
--ptoAmount</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testEditWebhook,
--pheading,
--pendpointURL,
--pendpointDesc,
--ptitle,
--pmessage</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantActivityTest,
-testFilter,
--perrMessage,
--pfilterType3</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testExportSelectedTransactionToday,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsReserveRelease,
--pfilterType,
--pfilterType2,
--pamount,
--ptoAmount,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDCogentAccount,
--pheading,
--pcogentNumber,
--pamount,
--pcode1,
--purl,
--pfilterType,
--pfilterType1</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDCogentAccountWithSMS,
--pheading,
--pcogentNumber,
--pamount,
--pcode1,
--purl,
--pfilterType,
--pfilterType1</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.LoginTest,
-testAdminLogin,
--ploginHeading1,
--ploginDescription1,
--pemail2,
--ppassword1,
--pattribute1,
--pauthyHeading2,
--pauthyDescription1,
--pcode1,
--pmessage1,
--psecurityKey1</t>
-  </si>
-  <si>
-    <t>Verify Instant Pay SMS</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDViaInstantPayWithSMS,
--pwithdrawToUSDHeading,
--pinstantPayHeading,
--pnumber,
--pamount,
--pmessage,
--pauthyVerificationHeading,
--pcode1,
--pexpTransactionInProgressHeading,
--purl</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
-testPreferences,
--pdefaultAccount,
--pdefaultAccount1,
--pheading
-</t>
+-pfirstName,
+-plastName,
+-pemail1,
+-pphone,
+-ptoastTitle,
+-ptoastMessage</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -2288,9 +2369,20 @@
 -pqueryLast7Days,
 -pqueryMonthToDate,
 -pqueryLastMonth,
--pstartdate,
--penddate,
+-pqueryCustomDateRange,
 -pquery5</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionPurchasedDetailsList,
+-pheading,
+-pexpHeading,
+-pqueryToday,
+-pqueryYesterday,
+-pqueryLast7Days,
+-pqueryMonthToDate,
+-pqueryLastMonth,
+-pqueryCustomDateRange</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -2302,21 +2394,15 @@
 -pqueryLast7Days,
 -pqueryMonthToDate,
 -pqueryLastMonth,
--penddate,
--pstartdate</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionPurchasedDetailsList,
--pheading,
--pexpHeading,
--pqueryToday,
--pqueryYesterday,
--pqueryLast7Days,
--pqueryMonthToDate,
--pqueryLastMonth,
--penddate,
--pstartdate</t>
+-pqueryCustomDateRange</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings AddDebitCard Count</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddDebitCardFifth,
+-pheading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -2331,6 +2417,12 @@
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
+testAdditionalIpAddress,
+-pipAddress,
+-pipDescription</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
 testAddIpAddressInvalidData,
 -pnoIPExist,
 -pipAddress,
@@ -2340,13 +2432,20 @@
 -ptoastMessage</t>
   </si>
   <si>
-    <t>Verify Additional IP Address</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testAdditionalIpAddress,
--pipAddress,
--pipDescription</t>
+    <t>Verify Instant Pay SMS</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDViaInstantPayWithSMS,
+-pwithdrawToUSDHeading,
+-pinstantPayHeading,
+-pnumber,
+-pamount,
+-pmessage,
+-pauthyVerificationHeading,
+-pcode1,
+-pexpTransactionInProgressHeading,
+-purl</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2535,6 +2634,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2851,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,14 +2967,15 @@
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" customWidth="1"/>
-    <col min="11" max="11" width="41.85546875" customWidth="1"/>
-    <col min="12" max="12" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" customWidth="1"/>
+    <col min="10" max="10" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" customWidth="1"/>
+    <col min="12" max="12" width="41.85546875" customWidth="1"/>
+    <col min="13" max="13" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2895,13 +2998,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>68</v>
       </c>
@@ -2923,16 +3029,19 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I2" s="18"/>
+      <c r="H2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>442</v>
+      </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -2952,14 +3061,17 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" s="18"/>
+      <c r="H3" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>443</v>
+      </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="136.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="136.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>69</v>
       </c>
@@ -2976,19 +3088,22 @@
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>70</v>
       </c>
@@ -3010,16 +3125,19 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -3039,14 +3157,17 @@
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="18"/>
+      <c r="H6" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>247</v>
+      </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
@@ -3068,14 +3189,17 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="H7" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -3097,16 +3221,19 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -3126,14 +3253,17 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="H9" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="17"/>
       <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>71</v>
       </c>
@@ -3155,14 +3285,17 @@
       <c r="G10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
@@ -3179,17 +3312,20 @@
         <v>11</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>21</v>
       </c>
@@ -3206,19 +3342,22 @@
         <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -3238,12 +3377,15 @@
       <c r="G13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>43</v>
       </c>
@@ -3265,11 +3407,14 @@
       <c r="G14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>45</v>
       </c>
@@ -3291,11 +3436,14 @@
       <c r="G15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>46</v>
       </c>
@@ -3317,11 +3465,14 @@
       <c r="G16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
@@ -3338,18 +3489,21 @@
         <v>11</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
@@ -3369,19 +3523,22 @@
       <c r="G18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>25</v>
@@ -3393,53 +3550,59 @@
         <v>11</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>25</v>
@@ -3451,18 +3614,21 @@
         <v>11</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -3482,16 +3648,19 @@
       <c r="G22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -3511,16 +3680,19 @@
       <c r="G23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -3540,16 +3712,19 @@
       <c r="G24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -3569,14 +3744,17 @@
       <c r="G25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>48</v>
       </c>
@@ -3598,16 +3776,19 @@
       <c r="G26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -3627,14 +3808,17 @@
       <c r="G27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>50</v>
       </c>
@@ -3651,19 +3835,22 @@
         <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>52</v>
       </c>
@@ -3685,16 +3872,19 @@
       <c r="G29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -3714,16 +3904,19 @@
       <c r="G30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -3743,16 +3936,19 @@
       <c r="G31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -3772,16 +3968,19 @@
       <c r="G32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
@@ -3796,19 +3995,22 @@
         <v>11</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>53</v>
       </c>
@@ -3830,16 +4032,19 @@
       <c r="G34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
@@ -3859,81 +4064,90 @@
       <c r="G35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D38" s="20" t="s">
         <v>25</v>
       </c>
@@ -3944,24 +4158,27 @@
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>10</v>
@@ -3973,24 +4190,27 @@
         <v>20</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>10</v>
@@ -4002,24 +4222,27 @@
         <v>20</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>10</v>
@@ -4031,24 +4254,27 @@
         <v>51</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>25</v>
@@ -4060,25 +4286,28 @@
         <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D43" s="16" t="s">
         <v>25</v>
       </c>
@@ -4089,16 +4318,19 @@
         <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
@@ -4106,7 +4338,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>25</v>
@@ -4118,24 +4350,27 @@
         <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>25</v>
@@ -4147,16 +4382,19 @@
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>34</v>
       </c>
@@ -4164,7 +4402,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>25</v>
@@ -4176,16 +4414,19 @@
         <v>11</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I46" s="14" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>22</v>
       </c>
@@ -4193,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>25</v>
@@ -4207,14 +4448,17 @@
       <c r="G47" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I47" s="14" t="s">
+      <c r="H47" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J47" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>39</v>
       </c>
@@ -4222,7 +4466,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>25</v>
@@ -4236,22 +4480,25 @@
       <c r="G48" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>25</v>
@@ -4263,17 +4510,20 @@
         <v>11</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>27</v>
       </c>
@@ -4281,7 +4531,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>25</v>
@@ -4295,15 +4545,18 @@
       <c r="G50" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>29</v>
       </c>
@@ -4311,7 +4564,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>25</v>
@@ -4325,15 +4578,18 @@
       <c r="G51" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="H51" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>31</v>
       </c>
@@ -4341,7 +4597,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>25</v>
@@ -4355,24 +4611,27 @@
       <c r="G52" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I52" s="14" t="s">
+      <c r="H52" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="D53" s="16" t="s">
         <v>25</v>
       </c>
@@ -4383,25 +4642,28 @@
         <v>11</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>25</v>
@@ -4413,55 +4675,61 @@
         <v>11</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>25</v>
@@ -4473,55 +4741,61 @@
         <v>11</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="H57" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>25</v>
@@ -4533,25 +4807,28 @@
         <v>11</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>25</v>
@@ -4563,25 +4840,28 @@
         <v>11</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>25</v>
@@ -4593,25 +4873,28 @@
         <v>11</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>25</v>
@@ -4623,25 +4906,28 @@
         <v>11</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>25</v>
@@ -4653,25 +4939,28 @@
         <v>11</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>25</v>
@@ -4683,25 +4972,28 @@
         <v>11</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>25</v>
@@ -4713,25 +5005,28 @@
         <v>11</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>10</v>
@@ -4743,25 +5038,28 @@
         <v>20</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>25</v>
@@ -4773,24 +5071,27 @@
         <v>11</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>25</v>
@@ -4802,24 +5103,27 @@
         <v>11</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>25</v>
@@ -4831,24 +5135,27 @@
         <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>25</v>
@@ -4860,24 +5167,27 @@
         <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>25</v>
@@ -4889,24 +5199,27 @@
         <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>25</v>
@@ -4918,82 +5231,91 @@
         <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>25</v>
@@ -5005,24 +5327,27 @@
         <v>11</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>25</v>
@@ -5034,82 +5359,91 @@
         <v>11</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I75" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="16" t="s">
+    <row r="77" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H76" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>117</v>
-      </c>
       <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>10</v>
@@ -5121,24 +5455,27 @@
         <v>20</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>10</v>
@@ -5150,24 +5487,27 @@
         <v>20</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>25</v>
@@ -5179,24 +5519,27 @@
         <v>11</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="H80" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>10</v>
@@ -5208,24 +5551,27 @@
         <v>20</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H81" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>25</v>
@@ -5237,24 +5583,27 @@
         <v>11</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>25</v>
@@ -5266,24 +5615,27 @@
         <v>11</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>10</v>
@@ -5295,53 +5647,59 @@
         <v>20</v>
       </c>
       <c r="G84" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>25</v>
@@ -5353,24 +5711,27 @@
         <v>11</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>10</v>
@@ -5382,24 +5743,27 @@
         <v>20</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>25</v>
@@ -5411,16 +5775,19 @@
         <v>11</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>73</v>
       </c>
@@ -5442,16 +5809,19 @@
       <c r="G89" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H89" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>414</v>
+      <c r="H89" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>458</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>24</v>
@@ -5469,24 +5839,27 @@
         <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>370</v>
+        <v>83</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>77</v>
+        <v>443</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>450</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>25</v>
@@ -5498,18 +5871,27 @@
         <v>11</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I91" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="J91" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="L91" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I91" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>306</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>24</v>
@@ -5518,27 +5900,30 @@
         <v>74</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H92" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I92" s="36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>311</v>
+        <v>79</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>24</v>
@@ -5547,27 +5932,30 @@
         <v>74</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
-        <v>79</v>
+        <v>325</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J93" s="36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>24</v>
@@ -5585,18 +5973,21 @@
         <v>11</v>
       </c>
       <c r="G94" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="H94" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>24</v>
@@ -5605,27 +5996,30 @@
         <v>74</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="H95" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>24</v>
@@ -5633,28 +6027,31 @@
       <c r="C96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>11</v>
+      <c r="D96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H96" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>24</v>
@@ -5672,24 +6069,27 @@
         <v>11</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H97" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>10</v>
@@ -5698,27 +6098,30 @@
         <v>11</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H98" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>25</v>
@@ -5730,24 +6133,27 @@
         <v>11</v>
       </c>
       <c r="G99" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H99" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>142</v>
-      </c>
       <c r="B100" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>25</v>
@@ -5759,24 +6165,27 @@
         <v>11</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H100" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>25</v>
@@ -5788,24 +6197,27 @@
         <v>11</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H101" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>25</v>
@@ -5817,24 +6229,27 @@
         <v>11</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>10</v>
@@ -5846,24 +6261,27 @@
         <v>16</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H103" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I103" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I103" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>25</v>
@@ -5875,24 +6293,27 @@
         <v>11</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="H104" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>25</v>
@@ -5904,24 +6325,27 @@
         <v>11</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="H105" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>25</v>
@@ -5933,24 +6357,27 @@
         <v>11</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I106" s="14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I106" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J106" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>25</v>
@@ -5962,24 +6389,27 @@
         <v>11</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="H107" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J107" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>25</v>
@@ -5991,24 +6421,27 @@
         <v>11</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="H108" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J108" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>10</v>
@@ -6017,976 +6450,1049 @@
         <v>11</v>
       </c>
       <c r="F109" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I109" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>384</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I110" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>388</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>389</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I112" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>387</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A114" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A115" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I115" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I116" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A117" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A118" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J118" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A119" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G109" s="16" t="s">
+      <c r="G120" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I120" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A121" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J121" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J122" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I123" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J123" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I124" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J124" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>335</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I128" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J128" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I131" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I134" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J134" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I135" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I136" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J136" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I137" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="1:14" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I138" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J138" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="H109" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="K138" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L138" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="H110" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>367</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="H111" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I111" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>366</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="H112" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H113" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H115" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H116" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H117" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I118" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H120" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I120" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I122" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H123" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="J123" s="6"/>
-    </row>
-    <row r="124" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>317</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H124" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I124" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="J124" s="6"/>
-    </row>
-    <row r="125" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H125" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I125" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H126" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I126" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H127" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H128" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I128" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H129" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I130" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H131" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E132" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H132" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H133" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>263</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="15" t="s">
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+    </row>
+    <row r="139" spans="1:14" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>441</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H134" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="J134" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K134" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-    </row>
-    <row r="135" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>412</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D135" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="15" t="s">
+      <c r="H139" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I139" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="J139" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="K139" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="L139" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="1:14" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>422</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H135" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I135" s="37" t="s">
-        <v>413</v>
-      </c>
-      <c r="J135" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K135" s="14"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-    </row>
-    <row r="136" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>397</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H136" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I136" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="J136" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K136" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-    </row>
-    <row r="137" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>264</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H137" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I137" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-    </row>
-    <row r="138" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E138" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="H138" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I138" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="J138" s="30"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="30"/>
-      <c r="M138" s="30"/>
-    </row>
-    <row r="139" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E139" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="H139" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I139" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="J139" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K139" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-    </row>
-    <row r="140" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E140" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="H140" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I140" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="J140" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K140" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="L140" s="30"/>
-      <c r="M140" s="30"/>
-    </row>
-    <row r="141" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="K140" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+    </row>
+    <row r="141" spans="1:14" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>272</v>
       </c>
@@ -6994,110 +7500,115 @@
         <v>24</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D141" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D141" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" s="20" t="s">
+      <c r="E141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J141" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="H141" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I141" s="31" t="s">
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+    </row>
+    <row r="142" spans="1:14" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>274</v>
       </c>
-      <c r="J141" s="30"/>
-      <c r="K141" s="30"/>
-      <c r="L141" s="30"/>
-      <c r="M141" s="30"/>
-    </row>
-    <row r="142" spans="1:13" s="34" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>302</v>
-      </c>
       <c r="B142" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C142" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H142" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I142" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="J142" s="30"/>
-      <c r="K142" s="30"/>
-      <c r="L142" s="30"/>
-      <c r="M142" s="30"/>
-    </row>
-    <row r="143" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I142" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J142" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+    </row>
+    <row r="143" spans="1:14" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C143" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E143" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H143" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I143" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="J143" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K143" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="L143" s="30"/>
-      <c r="M143" s="30"/>
-    </row>
-    <row r="144" spans="1:13" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>401</v>
+      <c r="C143" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I143" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J143" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+    </row>
+    <row r="144" spans="1:14" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C144" s="16" t="s">
-        <v>305</v>
+      <c r="C144" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>25</v>
@@ -7109,772 +7620,1183 @@
         <v>11</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I144" s="31" t="s">
-        <v>425</v>
-      </c>
-      <c r="J144" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K144" s="14" t="s">
-        <v>348</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J144" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K144" s="30"/>
       <c r="L144" s="30"/>
       <c r="M144" s="30"/>
-    </row>
-    <row r="145" spans="1:13" s="34" customFormat="1" ht="187.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N144" s="30"/>
+    </row>
+    <row r="145" spans="1:14" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>303</v>
+        <v>448</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C145" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H145" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I145" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="J145" s="30"/>
-      <c r="K145" s="30"/>
-      <c r="L145" s="30"/>
-      <c r="M145" s="30"/>
-    </row>
-    <row r="146" spans="1:13" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>304</v>
+      <c r="C145" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I145" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="J145" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="K145" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="L145" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="1:14" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="16" t="s">
-        <v>305</v>
+      <c r="C146" s="20" t="s">
+        <v>282</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E146" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="21" t="s">
+      <c r="E146" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="32" t="s">
         <v>11</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H146" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I146" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="J146" s="30"/>
+        <v>283</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J146" s="31" t="s">
+        <v>284</v>
+      </c>
       <c r="K146" s="30"/>
       <c r="L146" s="30"/>
       <c r="M146" s="30"/>
-    </row>
-    <row r="147" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
-        <v>275</v>
+      <c r="N146" s="30"/>
+    </row>
+    <row r="147" spans="1:14" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C147" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H147" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I147" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="J147" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="K147" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-    </row>
-    <row r="148" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>402</v>
+      <c r="C147" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J147" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
+      <c r="M147" s="30"/>
+      <c r="N147" s="30"/>
+    </row>
+    <row r="148" spans="1:14" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C148" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H148" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I148" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="J148" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="K148" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-    </row>
-    <row r="149" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A149" s="23" t="s">
-        <v>278</v>
+      <c r="C148" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J148" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="K148" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L148" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="M148" s="30"/>
+      <c r="N148" s="30"/>
+    </row>
+    <row r="149" spans="1:14" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C149" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H149" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I149" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-    </row>
-    <row r="150" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A150" s="23" t="s">
-        <v>280</v>
+      <c r="C149" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I149" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J149" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="K149" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L149" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="M149" s="30"/>
+      <c r="N149" s="30"/>
+    </row>
+    <row r="150" spans="1:14" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>289</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C150" s="16" t="s">
-        <v>276</v>
+      <c r="C150" s="20" t="s">
+        <v>282</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="G150" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H150" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I150" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-    </row>
-    <row r="151" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A151" s="23" t="s">
-        <v>283</v>
+      <c r="E150" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J150" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K150" s="30"/>
+      <c r="L150" s="30"/>
+      <c r="M150" s="30"/>
+      <c r="N150" s="30"/>
+    </row>
+    <row r="151" spans="1:14" s="34" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>320</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>10</v>
+        <v>323</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="E151" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="G151" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H151" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-    </row>
-    <row r="152" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="26" t="s">
-        <v>285</v>
+        <v>11</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I151" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J151" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="K151" s="30"/>
+      <c r="L151" s="30"/>
+      <c r="M151" s="30"/>
+      <c r="N151" s="30"/>
+    </row>
+    <row r="152" spans="1:14" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>319</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C152" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D152" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H152" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I152" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A153" s="26" t="s">
-        <v>289</v>
+      <c r="C152" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I152" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J152" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="K152" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="M152" s="30"/>
+      <c r="N152" s="30"/>
+    </row>
+    <row r="153" spans="1:14" s="34" customFormat="1" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>426</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H153" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I153" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="283.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
-        <v>291</v>
+      <c r="C153" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J153" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="K153" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="M153" s="30"/>
+      <c r="N153" s="30"/>
+    </row>
+    <row r="154" spans="1:14" s="34" customFormat="1" ht="187.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>321</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C154" s="35" t="s">
-        <v>286</v>
+      <c r="C154" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H154" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I154" s="14" t="s">
+      <c r="E154" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I154" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J154" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="K154" s="30"/>
+      <c r="L154" s="30"/>
+      <c r="M154" s="30"/>
+      <c r="N154" s="30"/>
+    </row>
+    <row r="155" spans="1:14" s="34" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J155" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="K155" s="30"/>
+      <c r="L155" s="30"/>
+      <c r="M155" s="30"/>
+      <c r="N155" s="30"/>
+    </row>
+    <row r="156" spans="1:14" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="26" t="s">
+      <c r="B156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C155" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H155" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I155" s="14" t="s">
+      <c r="D156" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
+      <c r="H156" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I156" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J156" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="K156" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L156" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+    </row>
+    <row r="157" spans="1:14" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>428</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I157" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J157" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="K157" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L157" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+    </row>
+    <row r="158" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D156" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H156" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I156" s="7" t="s">
+      <c r="B158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I158" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J158" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-    </row>
-    <row r="157" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E157" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H157" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="J157" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K157" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-    </row>
-    <row r="158" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>427</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D158" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H158" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="J158" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K158" s="14" t="s">
-        <v>350</v>
-      </c>
+      <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
-    </row>
-    <row r="159" spans="1:13" ht="255" x14ac:dyDescent="0.25">
-      <c r="A159" s="26" t="s">
+      <c r="N158" s="6"/>
+    </row>
+    <row r="159" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A159" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D159" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E159" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="G159" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H159" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I159" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+    </row>
+    <row r="160" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A160" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I160" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+    </row>
+    <row r="161" spans="1:15" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I161" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A162" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I162" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J162" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="283.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I163" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J163" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I164" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J164" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="A165" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I165" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J165" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+    </row>
+    <row r="166" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I166" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K166" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L166" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="I159" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A160" s="18" t="s">
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+    </row>
+    <row r="167" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>463</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I167" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K167" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="L167" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+    </row>
+    <row r="168" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+      <c r="A168" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I168" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A169" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C160" s="16" t="s">
+      <c r="B169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I169" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J169" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K169" s="6"/>
+    </row>
+    <row r="170" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A170" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I170" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J170" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K170" s="6"/>
+    </row>
+    <row r="171" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A171" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I171" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J171" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D160" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" s="16" t="s">
+      <c r="K171" s="6"/>
+    </row>
+    <row r="172" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I172" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J172" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K172" s="6"/>
+    </row>
+    <row r="173" spans="1:15" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A173" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I173" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J173" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+    </row>
+    <row r="174" spans="1:15" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I174" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J174" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
+      <c r="O174" s="15"/>
+    </row>
+    <row r="175" spans="1:15" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A175" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I175" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J175" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
+      <c r="O175" s="15"/>
+    </row>
+    <row r="176" spans="1:15" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A176" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H160" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I160" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J160" s="6"/>
-    </row>
-    <row r="161" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A161" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="H161" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I161" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J161" s="6"/>
-    </row>
-    <row r="162" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A162" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="H162" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I162" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J162" s="6"/>
-    </row>
-    <row r="163" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="H163" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I163" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="J163" s="6"/>
-    </row>
-    <row r="164" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A164" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H164" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I164" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
-      <c r="N164" s="15"/>
-    </row>
-    <row r="165" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A165" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D165" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H165" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I165" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
-      <c r="M165" s="15"/>
-      <c r="N165" s="15"/>
-    </row>
-    <row r="166" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D166" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H166" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
-      <c r="M166" s="15"/>
-      <c r="N166" s="15"/>
-    </row>
-    <row r="167" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A167" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" s="16" t="s">
+      <c r="D176" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H167" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I167" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="15"/>
-      <c r="M167" s="15"/>
-      <c r="N167" s="15"/>
+      <c r="H176" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I176" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J176" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="15"/>
+      <c r="O176" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L178" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
+  <autoFilter ref="A1:M187" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_24_04_2023\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_01_05_2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A4D81-8302-4FFB-B252-5D71C5AB75B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F837E8-8760-4334-8C5C-FAF0ED7A408A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,7 +6598,7 @@
         <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>440</v>

--- a/Web/coyni/resources/TestScript-merchant.xlsx
+++ b/Web/coyni/resources/TestScript-merchant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_01_05_2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F837E8-8760-4334-8C5C-FAF0ED7A408A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C945DEC-CD87-4E76-B412-D7105E0F3B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="463">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -119,9 +119,6 @@
     <t>RunOneIteration</t>
   </si>
   <si>
-    <t>Preferences</t>
-  </si>
-  <si>
     <t>VerifyPurchasedTransactionDetailsList</t>
   </si>
   <si>
@@ -201,41 +198,6 @@
   </si>
   <si>
     <t>Verify Edit Phone Number with Invalid Authy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.LoginTest,
-testLoginInvalidCredentials,
--ploginHeading,
--pemail,
--ppassword,
--ptoastTitle,
--ptoastMessage,
--perrMessage,
--pcolour,
--pelementName
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.LoginTest,
-testLoginWithInvalidAuthy,
--ploginHeading,
--pemail,
--ppassword,
--pauthyHeading,
--pcode,
--perrMessage,
--pchar
-</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLoginWithInvalidPhoneOTP,
--ploginHeading,
--pemail,
--ppassword,
--pphoneHeading,
--pcode,
--perrMessage</t>
   </si>
   <si>
     <t>coyni.merchant.tests.LoginTest,
@@ -260,58 +222,6 @@
 -pelementName</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.LoginTest,
-testForgotPassword,
--ploginHeading,
--pforgotHeading,
--pemail,
--pverificationHeading,
--plblEmail,
--pcode,
--pCreatePasswordHeading,
--penterPassword,
--pattribute,
--pconfirmPassword,
--psuccessHeading,
--ploginHeading</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testForgotPasswordWithInvalidEmail,
--ploginHeading,
--pforgotHeading,
--pemail,
--perrMessage,
--pcolour,
--pelementName</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testForgotPasswordWithInvalidPhoneOTP,
--ploginHeading,
--pforgotHeading,
--pemail,
--pverificationHeading,
--plblEmail,
--pcode,
--perrMessage</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testForgotPasswordWithInvalidPasswordFiled,
--ploginHeading,
--pforgotHeading,
--pemail,
--pverificationHeading,
--plblEmail,
--pcode,
--pCreatePasswordHeading,
--penterPassword,
--pattribute,
--pconfirmPassword,
--perrMessage</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.TokenAccountTest,
 testAvailableBalance</t>
   </si>
@@ -415,12 +325,6 @@
   </si>
   <si>
     <t>Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
-testPreferences,
--pdefaultAccount
-</t>
   </si>
   <si>
     <t>Verify Change Password</t>
@@ -772,27 +676,9 @@
   </si>
   <si>
     <t>coyni.merchant.tests.SideMenuBarTest,
-testShareQRCodeWithEmail,
--pcopy,
--pcopyToClipBoard,
--pphoneNumber,
--pemail,
--pcontaint</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.SideMenuBarTest,
 testMyQRCodeWithNavigationOption,
 -pphoneNumber,
 -pcontaint</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.SideMenuBarTest,
-testShareQRCodeWithNagativeOption,
--pcopyToClipBoard,
--pphoneNumber,
--pemail,
--pemail1,
--perrMessage</t>
   </si>
   <si>
     <t>testdata-merchant.xlsx,QRCode</t>
@@ -951,12 +837,6 @@
   </si>
   <si>
     <t>Verify Transaction Details MerchantPayOut</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsReserveRelease,
--pfilterType,
--pheading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -1133,17 +1013,6 @@
     <t>Verify Login With Terminated User</t>
   </si>
   <si>
-    <t xml:space="preserve">coyni.merchant.tests.LoginTest,
-testLoginTerminatedUser,
--ploginHeading,
--pemail,
--ppassword,
--pauthyHeading,
--ptoastMessage,
--ptoastTitle
-</t>
-  </si>
-  <si>
     <t>Verify CompanyAndDBAInformation</t>
   </si>
   <si>
@@ -1196,39 +1065,12 @@
 -pfilterType</t>
   </si>
   <si>
-    <t>Verify Expired Filter</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testMerchantSettingsTeamInvitationExpiredFilters,
--pheading,
--pfilterType</t>
-  </si>
-  <si>
-    <t>Verify Pending Filter</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testMerchantSettingsTeamInvitationPendingFilters,
--pheading,
--pfilterType</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.MerchantActivityTest,
 testReserveHistoryIDDetails,
 -pheading,
 -psearch</t>
   </si>
   <si>
-    <t>Verify Active Filter</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testMerchantSettingsTeamActiveFilters,
--pheading,
--pfilterType</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.GetHelpTest,
 testGetHelp,
 -pheading</t>
@@ -1238,24 +1080,6 @@
 testExportSelectedTransactionToday,
 -pheading,
 -pnotificationText</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLoginWithPhoneNumber,
--ploginHeading,
--pemail,
--ppassword,
--pphoneHeading,
--pcode,
--psecurityKey</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.LoginTest,
-testLoginWithResendOTP,
--ploginHeading,
--pemail,
--ppassword,
--pphoneHeading</t>
   </si>
   <si>
     <t>coyni.merchant.tests.SideMenuBarTest,
@@ -1379,53 +1203,13 @@
     <t>test gift card with Visa</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDGiftCardWithVisa,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pamount,
--porderHeading,
--pauthyHeading1,
--pcode,
--psuccessHeading,
--psearchKey1</t>
-  </si>
-  <si>
     <t>test gift card amazon  with invalid data</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDAmazonInvalidData,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pamount,
--pemail1,
--psearchKey,
--psearchKey1,
--perrMessage</t>
-  </si>
-  <si>
     <t>test gift card visa  with invalid data</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDVisaInvalidData,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pamount,
--pemail1,
--psearchKey,
--psearchKey1,
--perrMessage</t>
   </si>
   <si>
     <t>Verify Instant Pay with Add New Debit Card</t>
@@ -1777,23 +1561,6 @@
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDGiftCardWithAmazon,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pemail1,
--pamount,
--porderHeading,
--pauthyHeading1,
--pcode,
--psuccessHeading,
--psearchKey,
--psearchKey1,
--purl</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
 testAdminTransactionBuyBankAccount,
 -plistHeading</t>
   </si>
@@ -1873,13 +1640,6 @@
     <t>Verify Forgot Password With Resend Option</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.LoginTest,
-testForgotPasswordWithResendOption,
--ploginHeading,
--pforgotHeading,
--pemail</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -1927,12 +1687,6 @@
 -pipDescription</t>
   </si>
   <si>
-    <t>Verify Webhook View</t>
-  </si>
-  <si>
-    <t>Verify Create Webhooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify Edit Webhook </t>
   </si>
   <si>
@@ -1940,27 +1694,6 @@
   </si>
   <si>
     <t>Merchant Login View</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testCreateWebhook,
--pheading,
--pendpointURL,
--pdescription</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testEditWebhook,
--pheading,
--pendpointURL,
--pdescription,
--ptitle,
--pmessage</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testWebhookView,
--pheading</t>
   </si>
   <si>
     <t>Verify API Keys InActiveAndExpiredKeys</t>
@@ -2010,16 +1743,6 @@
     <t>VerifyTransaction Details Sale Order</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testTransactionDetailsSaleOrder,
--pfilterType,
--pfilterType1,
--pfilterType2,
--pheading,
--pamount,
--ptoamount</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.SignupTest,
 testSignUpBusinessViaCustomer,
 -pheading</t>
@@ -2042,9 +1765,6 @@
 -pdbaInfoPhoneNumber,
 -pfolderName,
 -pfileName</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>coyni.merchant.tests.TokenAccountTest,
@@ -2079,13 +1799,6 @@
 -pdefaultAccount1</t>
   </si>
   <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testPreferences,
--pheading,
--ppreferencesHeading,
--pdefaultTimeZone</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.TokenAccountTest,
 testTransactionDetailsBankAccount,
 -pfilterType,
@@ -2185,23 +1898,6 @@
   </si>
   <si>
     <t>test gift card with Amazon SMS</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.TokenAccountTest,
-testWithdrawToUSDGiftCardWithAmazonSMS,
--pgiftHeading,
--pfirstName,
--plastName,
--pemail,
--pemail1,
--pamount,
--porderHeading,
--pauthyHeading1,
--pcode,
--psuccessHeading,
--psearchKey,
--psearchKey1,
--purl</t>
   </si>
   <si>
     <t>Verify Edit Phone Number With Valid Data SMS</t>
@@ -2278,9 +1974,6 @@
     <t>Merchant</t>
   </si>
   <si>
-    <t>testdata-merchant1.xlsx,merchantSettings-Team</t>
-  </si>
-  <si>
     <t>Verify Buy Token Feature Controls</t>
   </si>
   <si>
@@ -2308,15 +2001,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>testdata-merchant1.xlsx,tokenAccount</t>
-  </si>
-  <si>
-    <t>coyni.admin.tests.ProfilesTest,
-testProfileMerchantPreferencesControls,
--psearch,
--purl</t>
-  </si>
-  <si>
     <t>coyni.merchant.tests.TokenAccountTest,
 testBuyTokenTransactionFeatureControls,
 -pFeatureControlheading</t>
@@ -2334,14 +2018,6 @@
   </si>
   <si>
     <t>Debit Card - Feature Controls</t>
-  </si>
-  <si>
-    <t>coyni.merchant.tests.MerchantSettingsTest,
-testPaymentMethodFeatureControls,
--pFeatureControlheading</t>
-  </si>
-  <si>
-    <t>testdata-merchant1.xlsx,merchantSettings-Payment Method</t>
   </si>
   <si>
     <t>coyni.merchant.tests.MerchantSettingsTest,
@@ -2446,6 +2122,336 @@
 -pcode1,
 -pexpTransactionInProgressHeading,
 -purl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.LoginTest,
+testLoginInvalidCredentials,
+-ploginHeading,
+-pmerchEmail,
+-pmerchPassword,
+-ptoastTitle,
+-ptoastMessage,
+-perrMessage,
+-pcolour,
+-pelementName
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.LoginTest,
+testLoginWithInvalidAuthy,
+-ploginHeading,
+-pmerchEmail,
+-pmerchPassword,
+-pauthyHeading,
+-pcode,
+-perrMessage,
+-pchar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.LoginTest,
+testLoginTerminatedUser,
+-ploginHeading,
+-pmerchEmail,
+-pmerchPassword,
+-pauthyHeading,
+-ptoastMessage,
+-ptoastTitle
+</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLoginWithPhoneNumber,
+-ploginHeading,
+-pmerchEmail,
+-pmerchPassword,
+-pphoneHeading,
+-pcode,
+-psecurityKey</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLoginWithInvalidPhoneOTP,
+-ploginHeading,
+-pmerchEmail,
+-pmerchPassword,
+-pphoneHeading,
+-pcode,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testLoginWithResendOTP,
+-ploginHeading,
+-pmerchEmail,
+-pmerchPassword,
+-pphoneHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotPassword,
+-ploginHeading,
+-pforgotHeading,
+-pmerchEmail,
+-pverificationHeading,
+-plblEmail,
+-pcode,
+-pCreatePasswordHeading,
+-penterPassword,
+-pattribute,
+-pconfirmPassword,
+-psuccessHeading,
+-ploginHeading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotPasswordWithInvalidEmail,
+-ploginHeading,
+-pforgotHeading,
+-pmerchEmail,
+-perrMessage,
+-pcolour,
+-pelementName</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotPasswordWithInvalidPhoneOTP,
+-ploginHeading,
+-pforgotHeading,
+-pmerchEmail,
+-pverificationHeading,
+-plblEmail,
+-pcode,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotPasswordWithInvalidPasswordFiled,
+-ploginHeading,
+-pforgotHeading,
+-pmerchEmail,
+-pverificationHeading,
+-plblEmail,
+-pcode,
+-pCreatePasswordHeading,
+-penterPassword,
+-pattribute,
+-pconfirmPassword,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotPasswordWithResendOption,
+-ploginHeading,
+-pforgotHeading,
+-pmerchEmail</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testEditWebhook,
+-pheading,
+-pendpointURL,
+-pendpointDesc,
+-ptitle,
+-pmessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDGiftCardWithAmazon,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pemail1,
+-pamount,
+-porderHeading,
+-pauthyHeading1,
+-pcode,
+-psuccessHeading,
+-psearchKey,
+-psearchKey1,
+-purl</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDGiftCardWithAmazonSMS,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pemail1,
+-pamount,
+-porderHeading,
+-pauthyHeading1,
+-pcode,
+-psuccessHeading,
+-psearchKey,
+-psearchKey1,
+-purl</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings AddExternalBankOATH</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testAddBankAccountWithOutPaymentMethodOATH,
+-pexpUserName,
+-pexpPassword,
+-paccountType</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsSaleOrder,
+-pfilterType,
+-pfilterType1,
+-pfilterType2,
+-pheading,
+-pamount,
+-ptoAmount</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDAmazonInvalidData,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pamount,
+-pemail1,
+-psearchKey,
+-psearchKey1,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDVisaInvalidData,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pamount,
+-pemail1,
+-psearchKey,
+-psearchKey1,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.SideMenuBarTest,
+testShareQRCodeWithEmail,
+-pcopy,
+-pcopyToClipBoard,
+-pphoneNumber,
+-pemail1,
+-pcontaint</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.SideMenuBarTest,
+testShareQRCodeWithNagativeOption,
+-pcopyToClipBoard,
+-pphoneNumber,
+-pemail1,
+-perrMessage</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testTransactionDetailsReserveRelease,
+-pfilterType,
+-pheading,
+-pamount,
+-ptoAmount,
+-pfilterType2</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testProfileMerchantPreferencesControlsDisable,
+-psearch,
+-purl</t>
+  </si>
+  <si>
+    <t>Verify Merchant Settings Payment Method Feature Controls Enable</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testPaymentMethodFeatureControlsDisable,
+-pFeatureControlheading</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantSettingsTest,
+testPaymentMethodFeatureControlsEnable,
+-pFeatureControlheading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.merchant.tests.MerchantProfileTest,
+testPreferences,
+-pdefaultAccount,
+-pdefaultAccount1
+</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.LoginTest,
+testAdminLogin,
+-ploginDescription1,
+-pemail,
+-ppassword,
+-pattribute1,
+-pcode1,
+-pmessage1,
+-psecurityKey1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Verify Edit Phone Number With Invalid Dataa</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.MerchantProfileTest,
+testEditPhoneNumberWithInvalidDataForExistingNumbers,
+-pauthyEditPhoneHeading,
+-pcode,
+-pexpNumber,
+-pelementName,
+-pcolour,
+-perrorMessage</t>
+  </si>
+  <si>
+    <t>Verify Buy Token Feature Controls Enabled</t>
+  </si>
+  <si>
+    <t>coyni.admin.tests.ProfilesTest,
+testProfileMerchantPreferencesControlsEnable,
+-psearch,
+-purl</t>
+  </si>
+  <si>
+    <t>Verify Withdraw Token Feature Controls Enabled</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testtestAvailableBalance</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.TokenAccountTest,
+testWithdrawToUSDGiftCardWithVisa,
+-pgiftHeading,
+-pfirstName,
+-plastName,
+-pmerchEmail,
+-pamount,
+-porderHeading,
+-pauthyHeading1,
+-pcode,
+-psuccessHeading,
+-psearchKey1</t>
+  </si>
+  <si>
+    <t>Test forgot password with invalid Email Exists</t>
+  </si>
+  <si>
+    <t>coyni.merchant.tests.LoginTest,
+testForgotPasswordWithInvalidEmailAlreadyExistsEmail,
+-ploginHeading,
+-pforgotHeading,
+-pmerchEmail,
+-perrMessage,
+-pcolour,
+-pelementName</t>
   </si>
 </sst>
 </file>
@@ -2955,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A37AFA-B937-4BCB-B0F3-0C9B66FC5561}">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,7 +3004,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -3009,13 +3015,13 @@
     </row>
     <row r="2" spans="1:12" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -3030,10 +3036,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -3041,13 +3047,13 @@
     </row>
     <row r="3" spans="1:12" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -3062,10 +3068,10 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -3073,13 +3079,13 @@
     </row>
     <row r="4" spans="1:12" ht="136.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -3088,16 +3094,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>54</v>
+        <v>425</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -3105,13 +3111,13 @@
     </row>
     <row r="5" spans="1:12" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -3126,10 +3132,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>55</v>
+        <v>426</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -3137,13 +3143,13 @@
     </row>
     <row r="6" spans="1:12" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
@@ -3158,10 +3164,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>247</v>
+        <v>427</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
@@ -3172,10 +3178,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -3190,10 +3196,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>268</v>
+        <v>428</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
@@ -3204,10 +3210,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -3222,10 +3228,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>56</v>
+        <v>429</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
@@ -3233,13 +3239,13 @@
     </row>
     <row r="9" spans="1:12" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -3254,10 +3260,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>269</v>
+        <v>430</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
@@ -3265,13 +3271,13 @@
     </row>
     <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>25</v>
@@ -3286,10 +3292,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
@@ -3300,10 +3306,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>10</v>
@@ -3312,16 +3318,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -3330,10 +3336,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>10</v>
@@ -3342,28 +3348,28 @@
         <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>25</v>
@@ -3378,51 +3384,51 @@
         <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>59</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>10</v>
@@ -3431,114 +3437,114 @@
         <v>11</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>60</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>374</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>11</v>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>104</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>349</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>25</v>
@@ -3550,27 +3556,24 @@
         <v>11</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>25</v>
@@ -3582,27 +3585,27 @@
         <v>11</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>270</v>
+        <v>407</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>25</v>
@@ -3614,59 +3617,59 @@
         <v>11</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>407</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>197</v>
+      <c r="A22" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>198</v>
+        <v>407</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>25</v>
@@ -3678,27 +3681,27 @@
         <v>11</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>25</v>
@@ -3710,61 +3713,61 @@
         <v>11</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>378</v>
+      <c r="A25" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>48</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>352</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -3773,28 +3776,28 @@
       <c r="F26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>49</v>
+      <c r="G26" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>210</v>
+        <v>407</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>432</v>
+      <c r="A27" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -3806,27 +3809,27 @@
         <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>50</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>397</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>10</v>
@@ -3835,288 +3838,288 @@
         <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>224</v>
+        <v>407</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>238</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>239</v>
+        <v>407</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>211</v>
+      <c r="A31" t="s">
+        <v>226</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>430</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>431</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>227</v>
+      <c r="A33" t="s">
+        <v>395</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>228</v>
+        <v>407</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>241</v>
+        <v>407</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>167</v>
+        <v>407</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>102</v>
+      <c r="A37" t="s">
+        <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="9" t="s">
@@ -4126,29 +4129,29 @@
         <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>103</v>
+        <v>407</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -4158,91 +4161,91 @@
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J38" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="40" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>434</v>
+      <c r="A40" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>97</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>10</v>
@@ -4251,454 +4254,452 @@
         <v>11</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>233</v>
+      <c r="A42" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>234</v>
+      <c r="A43" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>33</v>
+      <c r="A44" t="s">
+        <v>221</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>160</v>
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="16" t="s">
+      <c r="H52" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="16" t="s">
+      <c r="H53" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>195</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>196</v>
+      <c r="A55" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="21" t="s">
@@ -4708,30 +4709,30 @@
         <v>11</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>437</v>
+        <v>248</v>
       </c>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="21" t="s">
@@ -4741,30 +4742,30 @@
         <v>11</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="21" t="s">
@@ -4774,28 +4775,28 @@
         <v>11</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>413</v>
+        <v>192</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>25</v>
@@ -4807,28 +4808,28 @@
         <v>11</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>25</v>
@@ -4840,28 +4841,28 @@
         <v>11</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>25</v>
@@ -4873,28 +4874,28 @@
         <v>11</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>25</v>
@@ -4906,28 +4907,28 @@
         <v>11</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>220</v>
+        <v>385</v>
       </c>
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>25</v>
@@ -4939,28 +4940,28 @@
         <v>11</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>221</v>
+        <v>386</v>
       </c>
       <c r="K62" s="6"/>
     </row>
     <row r="63" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>25</v>
@@ -4972,28 +4973,28 @@
         <v>11</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="K63" s="6"/>
     </row>
     <row r="64" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>25</v>
@@ -5005,125 +5006,127 @@
         <v>11</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>421</v>
+        <v>209</v>
       </c>
       <c r="K64" s="6"/>
     </row>
     <row r="65" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>404</v>
+      <c r="A65" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D65" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>373</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="21" t="s">
+      <c r="E67" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>346</v>
+      <c r="G67" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>351</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>25</v>
@@ -5135,27 +5138,27 @@
         <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>25</v>
@@ -5167,27 +5170,27 @@
         <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>25</v>
@@ -5199,27 +5202,27 @@
         <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>414</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>25</v>
@@ -5231,27 +5234,27 @@
         <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>25</v>
@@ -5263,91 +5266,91 @@
         <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>111</v>
+      <c r="A73" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>112</v>
+        <v>9</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>337</v>
+        <v>407</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>114</v>
+      <c r="A74" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>113</v>
+        <v>9</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>133</v>
+        <v>407</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>25</v>
@@ -5359,27 +5362,27 @@
         <v>11</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>134</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
-        <v>117</v>
+      <c r="A76" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>25</v>
@@ -5391,155 +5394,155 @@
         <v>11</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A78" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I77" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>119</v>
-      </c>
       <c r="B78" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D79" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="21" t="s">
+      <c r="E80" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>248</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="G80" s="16" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J80" s="14" t="s">
-        <v>250</v>
+        <v>407</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>10</v>
@@ -5551,27 +5554,27 @@
         <v>20</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J81" s="14" t="s">
-        <v>338</v>
+        <v>407</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
-        <v>127</v>
+      <c r="A82" t="s">
+        <v>235</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>25</v>
@@ -5583,91 +5586,91 @@
         <v>11</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>129</v>
+        <v>407</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>138</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>25</v>
@@ -5679,321 +5682,327 @@
         <v>11</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>141</v>
+        <v>407</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" s="16" t="s">
+      <c r="H90" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J88" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="E91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J90" s="19" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="H92" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>412</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I93" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="J93" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="L93" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="223.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>448</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I94" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="J94" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="K94" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="L94" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I91" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="J91" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="K91" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="L91" s="14" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J92" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I93" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J93" s="36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I94" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>25</v>
@@ -6005,27 +6014,27 @@
         <v>11</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>10</v>
@@ -6034,126 +6043,126 @@
         <v>11</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="J96" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D97" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I97" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" s="16" t="s">
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I98" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J98" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A99" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>146</v>
+      <c r="E99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J99" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>144</v>
+        <v>407</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="16" t="s">
-        <v>108</v>
+      <c r="C100" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>25</v>
@@ -6164,28 +6173,28 @@
       <c r="F100" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="16" t="s">
-        <v>145</v>
+      <c r="G100" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="H100" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="I100" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A101" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>108</v>
+      <c r="C101" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>25</v>
@@ -6196,28 +6205,28 @@
       <c r="F101" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="16" t="s">
-        <v>148</v>
+      <c r="G101" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>341</v>
+        <v>407</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>380</v>
+      <c r="A102" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>25</v>
@@ -6229,59 +6238,59 @@
         <v>11</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>243</v>
+      <c r="A103" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>395</v>
+      <c r="A104" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>25</v>
@@ -6293,27 +6302,27 @@
         <v>11</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>396</v>
+        <v>139</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>25</v>
@@ -6325,59 +6334,59 @@
         <v>11</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>399</v>
+        <v>140</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>401</v>
+        <v>231</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>399</v>
+        <v>140</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>402</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>25</v>
@@ -6389,27 +6398,27 @@
         <v>11</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>25</v>
@@ -6421,59 +6430,59 @@
         <v>11</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>462</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>25</v>
@@ -6485,27 +6494,27 @@
         <v>11</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>25</v>
@@ -6517,59 +6526,59 @@
         <v>11</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E112" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I112" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>25</v>
@@ -6581,27 +6590,27 @@
         <v>11</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
-        <v>153</v>
+      <c r="A114" t="s">
+        <v>361</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>440</v>
+        <v>99</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>25</v>
@@ -6613,27 +6622,27 @@
         <v>11</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I114" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J114" s="14" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>25</v>
@@ -6645,27 +6654,27 @@
         <v>11</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I115" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J115" s="14" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>251</v>
+      <c r="A116" s="25" t="s">
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>25</v>
@@ -6677,27 +6686,27 @@
         <v>11</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I116" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
-        <v>156</v>
+      <c r="A117" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>25</v>
@@ -6709,27 +6718,27 @@
         <v>11</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>25</v>
@@ -6741,27 +6750,27 @@
         <v>11</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I118" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J118" s="14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
-        <v>253</v>
+      <c r="A119" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>25</v>
@@ -6773,59 +6782,59 @@
         <v>11</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E120" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I120" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>10</v>
@@ -6837,91 +6846,91 @@
         <v>18</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I121" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>264</v>
+      <c r="A122" s="28" t="s">
+        <v>243</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E122" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I122" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>259</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>25</v>
+        <v>150</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="E123" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I123" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J123" s="14" t="s">
-        <v>260</v>
+        <v>407</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>261</v>
+      <c r="A124" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>25</v>
@@ -6933,125 +6942,127 @@
         <v>11</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>10</v>
+        <v>174</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E125" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>165</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K125" s="6"/>
     </row>
     <row r="126" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>187</v>
+      <c r="A126" t="s">
+        <v>311</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D126" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I126" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J126" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="K126" s="6"/>
-    </row>
-    <row r="127" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I127" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J127" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="K127" s="6"/>
-    </row>
-    <row r="128" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>335</v>
-      </c>
       <c r="B128" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>25</v>
@@ -7063,28 +7074,28 @@
         <v>11</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>25</v>
@@ -7096,28 +7107,28 @@
         <v>11</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>412</v>
+        <v>198</v>
       </c>
       <c r="K129" s="6"/>
     </row>
     <row r="130" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>25</v>
@@ -7129,28 +7140,28 @@
         <v>11</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>436</v>
+        <v>204</v>
       </c>
       <c r="K130" s="6"/>
     </row>
     <row r="131" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>25</v>
@@ -7162,28 +7173,28 @@
         <v>11</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K131" s="6"/>
     </row>
     <row r="132" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>25</v>
@@ -7195,28 +7206,28 @@
         <v>11</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K132" s="6"/>
     </row>
     <row r="133" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>25</v>
@@ -7228,28 +7239,28 @@
         <v>11</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="K133" s="6"/>
     </row>
     <row r="134" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>25</v>
@@ -7261,28 +7272,28 @@
         <v>11</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="K134" s="6"/>
     </row>
     <row r="135" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>25</v>
@@ -7294,94 +7305,107 @@
         <v>11</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
-        <v>193</v>
+    <row r="136" spans="1:14" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>250</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>186</v>
+      <c r="C136" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="K136" s="6"/>
-    </row>
-    <row r="137" spans="1:14" ht="135" x14a